--- a/5/1/2/Agregados promedios 1985 a 2021 - Mensual.xlsx
+++ b/5/1/2/Agregados promedios 1985 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
   <si>
     <t>Serie</t>
   </si>
@@ -1319,6 +1319,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I427"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1795,7 +1798,7 @@
         <v>5677</v>
       </c>
       <c r="I4">
-        <v>5603</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2056,7 +2059,7 @@
         <v>6267</v>
       </c>
       <c r="I13">
-        <v>6248</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2195,7 +2198,7 @@
         <v>3905</v>
       </c>
       <c r="G18">
-        <v>3924</v>
+        <v>3925</v>
       </c>
       <c r="H18">
         <v>6539</v>
@@ -2230,7 +2233,7 @@
         <v>6765</v>
       </c>
       <c r="I19">
-        <v>6708</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2311,7 +2314,7 @@
         <v>4039</v>
       </c>
       <c r="G22">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="H22">
         <v>6866</v>
@@ -2357,7 +2360,7 @@
         <v>332</v>
       </c>
       <c r="C24">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D24">
         <v>946</v>
@@ -2607,7 +2610,7 @@
         <v>8097</v>
       </c>
       <c r="I32">
-        <v>8052</v>
+        <v>8053</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2636,7 +2639,7 @@
         <v>8211</v>
       </c>
       <c r="I33">
-        <v>8198</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2694,7 +2697,7 @@
         <v>8292</v>
       </c>
       <c r="I35">
-        <v>8509</v>
+        <v>8508</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2711,7 +2714,7 @@
         <v>1236</v>
       </c>
       <c r="E36">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="F36">
         <v>4875</v>
@@ -2839,7 +2842,7 @@
         <v>9134</v>
       </c>
       <c r="I40">
-        <v>8988</v>
+        <v>8989</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2891,13 +2894,13 @@
         <v>5097</v>
       </c>
       <c r="G42">
-        <v>5108</v>
+        <v>5109</v>
       </c>
       <c r="H42">
         <v>9181</v>
       </c>
       <c r="I42">
-        <v>9219</v>
+        <v>9220</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2926,7 +2929,7 @@
         <v>9475</v>
       </c>
       <c r="I43">
-        <v>9434</v>
+        <v>9435</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2984,7 +2987,7 @@
         <v>9628</v>
       </c>
       <c r="I45">
-        <v>9628</v>
+        <v>9627</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3013,7 +3016,7 @@
         <v>9747</v>
       </c>
       <c r="I46">
-        <v>9782</v>
+        <v>9783</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3065,13 +3068,13 @@
         <v>5193</v>
       </c>
       <c r="G48">
-        <v>5309</v>
+        <v>5308</v>
       </c>
       <c r="H48">
         <v>9846</v>
       </c>
       <c r="I48">
-        <v>10051</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3088,7 +3091,7 @@
         <v>1372</v>
       </c>
       <c r="E49">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="F49">
         <v>5407</v>
@@ -3100,7 +3103,7 @@
         <v>10251</v>
       </c>
       <c r="I49">
-        <v>10201</v>
+        <v>10202</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3129,7 +3132,7 @@
         <v>10187</v>
       </c>
       <c r="I50">
-        <v>10102</v>
+        <v>10103</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3158,7 +3161,7 @@
         <v>10507</v>
       </c>
       <c r="I51">
-        <v>10347</v>
+        <v>10348</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3361,7 +3364,7 @@
         <v>10788</v>
       </c>
       <c r="I58">
-        <v>10854</v>
+        <v>10852</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3378,7 +3381,7 @@
         <v>1050</v>
       </c>
       <c r="E59">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F59">
         <v>5170</v>
@@ -3390,7 +3393,7 @@
         <v>10746</v>
       </c>
       <c r="I59">
-        <v>11053</v>
+        <v>11052</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3407,19 +3410,19 @@
         <v>1058</v>
       </c>
       <c r="E60">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="F60">
         <v>5328</v>
       </c>
       <c r="G60">
-        <v>5435</v>
+        <v>5436</v>
       </c>
       <c r="H60">
         <v>11093</v>
       </c>
       <c r="I60">
-        <v>11291</v>
+        <v>11292</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3709,7 +3712,7 @@
         <v>12784</v>
       </c>
       <c r="I70">
-        <v>12862</v>
+        <v>12861</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3767,7 +3770,7 @@
         <v>13123</v>
       </c>
       <c r="I72">
-        <v>13322</v>
+        <v>13321</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3825,7 +3828,7 @@
         <v>13647</v>
       </c>
       <c r="I74">
-        <v>13534</v>
+        <v>13535</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3854,7 +3857,7 @@
         <v>14134</v>
       </c>
       <c r="I75">
-        <v>13900</v>
+        <v>13899</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3900,7 +3903,7 @@
         <v>1964</v>
       </c>
       <c r="E77">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F77">
         <v>7041</v>
@@ -3912,7 +3915,7 @@
         <v>14200</v>
       </c>
       <c r="I77">
-        <v>14131</v>
+        <v>14130</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3970,7 +3973,7 @@
         <v>14540</v>
       </c>
       <c r="I79">
-        <v>14541</v>
+        <v>14542</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3993,7 +3996,7 @@
         <v>7098</v>
       </c>
       <c r="G80">
-        <v>7103</v>
+        <v>7104</v>
       </c>
       <c r="H80">
         <v>14756</v>
@@ -4028,7 +4031,7 @@
         <v>14738</v>
       </c>
       <c r="I81">
-        <v>14807</v>
+        <v>14806</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4057,7 +4060,7 @@
         <v>14561</v>
       </c>
       <c r="I82">
-        <v>14682</v>
+        <v>14681</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4086,7 +4089,7 @@
         <v>14676</v>
       </c>
       <c r="I83">
-        <v>14982</v>
+        <v>14981</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4115,7 +4118,7 @@
         <v>14833</v>
       </c>
       <c r="I84">
-        <v>15031</v>
+        <v>15030</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4231,7 +4234,7 @@
         <v>15793</v>
       </c>
       <c r="I88">
-        <v>15556</v>
+        <v>15557</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4289,7 +4292,7 @@
         <v>15827</v>
       </c>
       <c r="I90">
-        <v>15984</v>
+        <v>15982</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4312,13 +4315,13 @@
         <v>8052</v>
       </c>
       <c r="G91">
-        <v>8032</v>
+        <v>8033</v>
       </c>
       <c r="H91">
         <v>16136</v>
       </c>
       <c r="I91">
-        <v>16159</v>
+        <v>16160</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4347,7 +4350,7 @@
         <v>16345</v>
       </c>
       <c r="I92">
-        <v>16301</v>
+        <v>16299</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4405,7 +4408,7 @@
         <v>16326</v>
       </c>
       <c r="I94">
-        <v>16462</v>
+        <v>16463</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4434,7 +4437,7 @@
         <v>16339</v>
       </c>
       <c r="I95">
-        <v>16628</v>
+        <v>16629</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4463,7 +4466,7 @@
         <v>16629</v>
       </c>
       <c r="I96">
-        <v>16802</v>
+        <v>16801</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4492,7 +4495,7 @@
         <v>17153</v>
       </c>
       <c r="I97">
-        <v>17074</v>
+        <v>17075</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4608,7 +4611,7 @@
         <v>17292</v>
       </c>
       <c r="I101">
-        <v>17219</v>
+        <v>17220</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4654,7 +4657,7 @@
         <v>1873</v>
       </c>
       <c r="E103">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F103">
         <v>8619</v>
@@ -4666,7 +4669,7 @@
         <v>17319</v>
       </c>
       <c r="I103">
-        <v>17321</v>
+        <v>17320</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4677,7 +4680,7 @@
         <v>562</v>
       </c>
       <c r="C104">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D104">
         <v>1848</v>
@@ -4689,7 +4692,7 @@
         <v>8733</v>
       </c>
       <c r="G104">
-        <v>8721</v>
+        <v>8722</v>
       </c>
       <c r="H104">
         <v>17569</v>
@@ -4718,13 +4721,13 @@
         <v>8716</v>
       </c>
       <c r="G105">
-        <v>8809</v>
+        <v>8810</v>
       </c>
       <c r="H105">
         <v>17667</v>
       </c>
       <c r="I105">
-        <v>17772</v>
+        <v>17773</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4782,7 +4785,7 @@
         <v>18427</v>
       </c>
       <c r="I107">
-        <v>18688</v>
+        <v>18686</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4834,7 +4837,7 @@
         <v>9172</v>
       </c>
       <c r="G109">
-        <v>9140</v>
+        <v>9141</v>
       </c>
       <c r="H109">
         <v>18856</v>
@@ -4869,7 +4872,7 @@
         <v>18945</v>
       </c>
       <c r="I110">
-        <v>18806</v>
+        <v>18805</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4898,7 +4901,7 @@
         <v>19163</v>
       </c>
       <c r="I111">
-        <v>18931</v>
+        <v>18932</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4927,7 +4930,7 @@
         <v>19356</v>
       </c>
       <c r="I112">
-        <v>19186</v>
+        <v>19187</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5002,19 +5005,19 @@
         <v>2207</v>
       </c>
       <c r="E115">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="F115">
         <v>9955</v>
       </c>
       <c r="G115">
-        <v>9896</v>
+        <v>9897</v>
       </c>
       <c r="H115">
         <v>19930</v>
       </c>
       <c r="I115">
-        <v>19900</v>
+        <v>19902</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5043,7 +5046,7 @@
         <v>19861</v>
       </c>
       <c r="I116">
-        <v>19806</v>
+        <v>19804</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5066,7 +5069,7 @@
         <v>9948</v>
       </c>
       <c r="G117">
-        <v>10057</v>
+        <v>10056</v>
       </c>
       <c r="H117">
         <v>19860</v>
@@ -5101,7 +5104,7 @@
         <v>20138</v>
       </c>
       <c r="I118">
-        <v>20201</v>
+        <v>20203</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5124,13 +5127,13 @@
         <v>10196</v>
       </c>
       <c r="G119">
-        <v>10271</v>
+        <v>10272</v>
       </c>
       <c r="H119">
         <v>20114</v>
       </c>
       <c r="I119">
-        <v>20353</v>
+        <v>20355</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5141,7 +5144,7 @@
         <v>615</v>
       </c>
       <c r="C120">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D120">
         <v>2130</v>
@@ -5153,13 +5156,13 @@
         <v>10161</v>
       </c>
       <c r="G120">
-        <v>10309</v>
+        <v>10308</v>
       </c>
       <c r="H120">
         <v>20608</v>
       </c>
       <c r="I120">
-        <v>20787</v>
+        <v>20785</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5211,13 +5214,13 @@
         <v>10859</v>
       </c>
       <c r="G122">
-        <v>10745</v>
+        <v>10746</v>
       </c>
       <c r="H122">
         <v>21202</v>
       </c>
       <c r="I122">
-        <v>21052</v>
+        <v>21053</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5240,13 +5243,13 @@
         <v>11032</v>
       </c>
       <c r="G123">
-        <v>10968</v>
+        <v>10967</v>
       </c>
       <c r="H123">
         <v>21442</v>
       </c>
       <c r="I123">
-        <v>21298</v>
+        <v>21296</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5269,13 +5272,13 @@
         <v>11044</v>
       </c>
       <c r="G124">
-        <v>10966</v>
+        <v>10967</v>
       </c>
       <c r="H124">
         <v>21609</v>
       </c>
       <c r="I124">
-        <v>21455</v>
+        <v>21456</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5292,7 +5295,7 @@
         <v>2355</v>
       </c>
       <c r="E125">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="F125">
         <v>11184</v>
@@ -5333,7 +5336,7 @@
         <v>21519</v>
       </c>
       <c r="I126">
-        <v>21631</v>
+        <v>21629</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5356,13 +5359,13 @@
         <v>11416</v>
       </c>
       <c r="G127">
-        <v>11341</v>
+        <v>11342</v>
       </c>
       <c r="H127">
         <v>21960</v>
       </c>
       <c r="I127">
-        <v>21911</v>
+        <v>21912</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5414,13 +5417,13 @@
         <v>11695</v>
       </c>
       <c r="G129">
-        <v>11781</v>
+        <v>11780</v>
       </c>
       <c r="H129">
         <v>22821</v>
       </c>
       <c r="I129">
-        <v>22916</v>
+        <v>22917</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5443,13 +5446,13 @@
         <v>11610</v>
       </c>
       <c r="G130">
-        <v>11660</v>
+        <v>11659</v>
       </c>
       <c r="H130">
         <v>22758</v>
       </c>
       <c r="I130">
-        <v>22830</v>
+        <v>22828</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5466,7 +5469,7 @@
         <v>2286</v>
       </c>
       <c r="E131">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="F131">
         <v>11865</v>
@@ -5478,7 +5481,7 @@
         <v>22978</v>
       </c>
       <c r="I131">
-        <v>23245</v>
+        <v>23248</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5501,13 +5504,13 @@
         <v>11921</v>
       </c>
       <c r="G132">
-        <v>12060</v>
+        <v>12059</v>
       </c>
       <c r="H132">
         <v>23072</v>
       </c>
       <c r="I132">
-        <v>23222</v>
+        <v>23221</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5536,7 +5539,7 @@
         <v>23370</v>
       </c>
       <c r="I133">
-        <v>23248</v>
+        <v>23247</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5553,7 +5556,7 @@
         <v>2623</v>
       </c>
       <c r="E134">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="F134">
         <v>12420</v>
@@ -5594,7 +5597,7 @@
         <v>23884</v>
       </c>
       <c r="I135">
-        <v>23733</v>
+        <v>23734</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5623,7 +5626,7 @@
         <v>24029</v>
       </c>
       <c r="I136">
-        <v>23970</v>
+        <v>23969</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5652,7 +5655,7 @@
         <v>24462</v>
       </c>
       <c r="I137">
-        <v>24403</v>
+        <v>24405</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5681,7 +5684,7 @@
         <v>24663</v>
       </c>
       <c r="I138">
-        <v>24711</v>
+        <v>24710</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5692,7 +5695,7 @@
         <v>727</v>
       </c>
       <c r="C139">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D139">
         <v>2632</v>
@@ -5704,13 +5707,13 @@
         <v>13107</v>
       </c>
       <c r="G139">
-        <v>13026</v>
+        <v>13025</v>
       </c>
       <c r="H139">
         <v>25102</v>
       </c>
       <c r="I139">
-        <v>25056</v>
+        <v>25053</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5762,7 +5765,7 @@
         <v>13063</v>
       </c>
       <c r="G141">
-        <v>13142</v>
+        <v>13141</v>
       </c>
       <c r="H141">
         <v>25204</v>
@@ -5797,7 +5800,7 @@
         <v>25573</v>
       </c>
       <c r="I142">
-        <v>25663</v>
+        <v>25664</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5826,7 +5829,7 @@
         <v>25666</v>
       </c>
       <c r="I143">
-        <v>25930</v>
+        <v>25932</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5855,7 +5858,7 @@
         <v>25944</v>
       </c>
       <c r="I144">
-        <v>26098</v>
+        <v>26099</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5878,13 +5881,13 @@
         <v>14074</v>
       </c>
       <c r="G145">
-        <v>14065</v>
+        <v>14067</v>
       </c>
       <c r="H145">
         <v>26578</v>
       </c>
       <c r="I145">
-        <v>26440</v>
+        <v>26444</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5965,7 +5968,7 @@
         <v>14310</v>
       </c>
       <c r="G148">
-        <v>14351</v>
+        <v>14352</v>
       </c>
       <c r="H148">
         <v>26372</v>
@@ -5994,7 +5997,7 @@
         <v>14342</v>
       </c>
       <c r="G149">
-        <v>14345</v>
+        <v>14344</v>
       </c>
       <c r="H149">
         <v>26536</v>
@@ -6029,7 +6032,7 @@
         <v>26628</v>
       </c>
       <c r="I150">
-        <v>26684</v>
+        <v>26682</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6052,13 +6055,13 @@
         <v>14572</v>
       </c>
       <c r="G151">
-        <v>14462</v>
+        <v>14463</v>
       </c>
       <c r="H151">
         <v>26781</v>
       </c>
       <c r="I151">
-        <v>26701</v>
+        <v>26702</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6081,13 +6084,13 @@
         <v>14786</v>
       </c>
       <c r="G152">
-        <v>14667</v>
+        <v>14668</v>
       </c>
       <c r="H152">
         <v>26780</v>
       </c>
       <c r="I152">
-        <v>26684</v>
+        <v>26686</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6139,13 +6142,13 @@
         <v>14491</v>
       </c>
       <c r="G154">
-        <v>14606</v>
+        <v>14605</v>
       </c>
       <c r="H154">
         <v>26650</v>
       </c>
       <c r="I154">
-        <v>26796</v>
+        <v>26795</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6168,13 +6171,13 @@
         <v>14439</v>
       </c>
       <c r="G155">
-        <v>14542</v>
+        <v>14541</v>
       </c>
       <c r="H155">
         <v>26600</v>
       </c>
       <c r="I155">
-        <v>26816</v>
+        <v>26817</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6203,7 +6206,7 @@
         <v>26782</v>
       </c>
       <c r="I156">
-        <v>26929</v>
+        <v>26928</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6232,7 +6235,7 @@
         <v>27027</v>
       </c>
       <c r="I157">
-        <v>26917</v>
+        <v>26915</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6261,7 +6264,7 @@
         <v>27425</v>
       </c>
       <c r="I158">
-        <v>27186</v>
+        <v>27185</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6284,7 +6287,7 @@
         <v>14507</v>
       </c>
       <c r="G159">
-        <v>14485</v>
+        <v>14484</v>
       </c>
       <c r="H159">
         <v>27394</v>
@@ -6319,7 +6322,7 @@
         <v>27159</v>
       </c>
       <c r="I160">
-        <v>27191</v>
+        <v>27192</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6371,13 +6374,13 @@
         <v>14998</v>
       </c>
       <c r="G162">
-        <v>14976</v>
+        <v>14975</v>
       </c>
       <c r="H162">
         <v>28009</v>
       </c>
       <c r="I162">
-        <v>28124</v>
+        <v>28118</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6400,13 +6403,13 @@
         <v>15309</v>
       </c>
       <c r="G163">
-        <v>15201</v>
+        <v>15202</v>
       </c>
       <c r="H163">
         <v>28517</v>
       </c>
       <c r="I163">
-        <v>28489</v>
+        <v>28490</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6435,7 +6438,7 @@
         <v>28470</v>
       </c>
       <c r="I164">
-        <v>28342</v>
+        <v>28341</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6493,7 +6496,7 @@
         <v>28656</v>
       </c>
       <c r="I166">
-        <v>28819</v>
+        <v>28820</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6522,7 +6525,7 @@
         <v>28732</v>
       </c>
       <c r="I167">
-        <v>28977</v>
+        <v>28978</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6551,7 +6554,7 @@
         <v>29121</v>
       </c>
       <c r="I168">
-        <v>29220</v>
+        <v>29222</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6562,7 +6565,7 @@
         <v>854</v>
       </c>
       <c r="C169">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D169">
         <v>2935</v>
@@ -6580,7 +6583,7 @@
         <v>29527</v>
       </c>
       <c r="I169">
-        <v>29384</v>
+        <v>29386</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6609,7 +6612,7 @@
         <v>29567</v>
       </c>
       <c r="I170">
-        <v>29321</v>
+        <v>29320</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6638,7 +6641,7 @@
         <v>29450</v>
       </c>
       <c r="I171">
-        <v>29374</v>
+        <v>29373</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6667,7 +6670,7 @@
         <v>29346</v>
       </c>
       <c r="I172">
-        <v>29401</v>
+        <v>29403</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6725,7 +6728,7 @@
         <v>29701</v>
       </c>
       <c r="I174">
-        <v>29785</v>
+        <v>29784</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6748,13 +6751,13 @@
         <v>16055</v>
       </c>
       <c r="G175">
-        <v>15957</v>
+        <v>15958</v>
       </c>
       <c r="H175">
         <v>30051</v>
       </c>
       <c r="I175">
-        <v>30011</v>
+        <v>30012</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6777,13 +6780,13 @@
         <v>16203</v>
       </c>
       <c r="G176">
-        <v>16074</v>
+        <v>16073</v>
       </c>
       <c r="H176">
         <v>30353</v>
       </c>
       <c r="I176">
-        <v>30263</v>
+        <v>30261</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6835,13 +6838,13 @@
         <v>15880</v>
       </c>
       <c r="G178">
-        <v>15996</v>
+        <v>15997</v>
       </c>
       <c r="H178">
         <v>30475</v>
       </c>
       <c r="I178">
-        <v>30587</v>
+        <v>30588</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6870,7 +6873,7 @@
         <v>30497</v>
       </c>
       <c r="I179">
-        <v>30736</v>
+        <v>30738</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6893,13 +6896,13 @@
         <v>16109</v>
       </c>
       <c r="G180">
-        <v>16264</v>
+        <v>16263</v>
       </c>
       <c r="H180">
         <v>30895</v>
       </c>
       <c r="I180">
-        <v>31012</v>
+        <v>31010</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6928,7 +6931,7 @@
         <v>31592</v>
       </c>
       <c r="I181">
-        <v>31384</v>
+        <v>31385</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6957,7 +6960,7 @@
         <v>31836</v>
       </c>
       <c r="I182">
-        <v>31548</v>
+        <v>31550</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6986,7 +6989,7 @@
         <v>31796</v>
       </c>
       <c r="I183">
-        <v>31645</v>
+        <v>31646</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -7009,13 +7012,13 @@
         <v>16597</v>
       </c>
       <c r="G184">
-        <v>16595</v>
+        <v>16594</v>
       </c>
       <c r="H184">
         <v>31770</v>
       </c>
       <c r="I184">
-        <v>31782</v>
+        <v>31781</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -7038,7 +7041,7 @@
         <v>16838</v>
       </c>
       <c r="G185">
-        <v>16758</v>
+        <v>16759</v>
       </c>
       <c r="H185">
         <v>32125</v>
@@ -7073,7 +7076,7 @@
         <v>32033</v>
       </c>
       <c r="I186">
-        <v>32136</v>
+        <v>32134</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7119,7 +7122,7 @@
         <v>2993</v>
       </c>
       <c r="E188">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="F188">
         <v>17030</v>
@@ -7131,7 +7134,7 @@
         <v>33021</v>
       </c>
       <c r="I188">
-        <v>32958</v>
+        <v>32960</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7154,7 +7157,7 @@
         <v>16721</v>
       </c>
       <c r="G189">
-        <v>16858</v>
+        <v>16857</v>
       </c>
       <c r="H189">
         <v>33115</v>
@@ -7171,7 +7174,7 @@
         <v>808</v>
       </c>
       <c r="C190">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D190">
         <v>3013</v>
@@ -7183,13 +7186,13 @@
         <v>16505</v>
       </c>
       <c r="G190">
-        <v>16670</v>
+        <v>16669</v>
       </c>
       <c r="H190">
         <v>33048</v>
       </c>
       <c r="I190">
-        <v>33180</v>
+        <v>33177</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7212,13 +7215,13 @@
         <v>16696</v>
       </c>
       <c r="G191">
-        <v>16906</v>
+        <v>16907</v>
       </c>
       <c r="H191">
         <v>33445</v>
       </c>
       <c r="I191">
-        <v>33708</v>
+        <v>33711</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7235,7 +7238,7 @@
         <v>2913</v>
       </c>
       <c r="E192">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="F192">
         <v>16782</v>
@@ -7247,7 +7250,7 @@
         <v>33653</v>
       </c>
       <c r="I192">
-        <v>33744</v>
+        <v>33747</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7270,13 +7273,13 @@
         <v>17011</v>
       </c>
       <c r="G193">
-        <v>16965</v>
+        <v>16964</v>
       </c>
       <c r="H193">
         <v>33956</v>
       </c>
       <c r="I193">
-        <v>33817</v>
+        <v>33815</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7305,7 +7308,7 @@
         <v>34352</v>
       </c>
       <c r="I194">
-        <v>34084</v>
+        <v>34083</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7334,7 +7337,7 @@
         <v>34366</v>
       </c>
       <c r="I195">
-        <v>34183</v>
+        <v>34184</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7363,7 +7366,7 @@
         <v>34255</v>
       </c>
       <c r="I196">
-        <v>34265</v>
+        <v>34267</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7386,13 +7389,13 @@
         <v>17327</v>
       </c>
       <c r="G197">
-        <v>17187</v>
+        <v>17186</v>
       </c>
       <c r="H197">
         <v>34227</v>
       </c>
       <c r="I197">
-        <v>34144</v>
+        <v>34142</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7444,13 +7447,13 @@
         <v>17412</v>
       </c>
       <c r="G199">
-        <v>17358</v>
+        <v>17359</v>
       </c>
       <c r="H199">
         <v>34445</v>
       </c>
       <c r="I199">
-        <v>34483</v>
+        <v>34481</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7473,13 +7476,13 @@
         <v>17485</v>
       </c>
       <c r="G200">
-        <v>17457</v>
+        <v>17458</v>
       </c>
       <c r="H200">
         <v>34430</v>
       </c>
       <c r="I200">
-        <v>34455</v>
+        <v>34457</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7508,7 +7511,7 @@
         <v>34477</v>
       </c>
       <c r="I201">
-        <v>34531</v>
+        <v>34532</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7531,13 +7534,13 @@
         <v>17454</v>
       </c>
       <c r="G202">
-        <v>17630</v>
+        <v>17629</v>
       </c>
       <c r="H202">
         <v>34370</v>
       </c>
       <c r="I202">
-        <v>34518</v>
+        <v>34516</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7566,7 +7569,7 @@
         <v>34150</v>
       </c>
       <c r="I203">
-        <v>34436</v>
+        <v>34438</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7589,13 +7592,13 @@
         <v>17794</v>
       </c>
       <c r="G204">
-        <v>17960</v>
+        <v>17959</v>
       </c>
       <c r="H204">
         <v>34864</v>
       </c>
       <c r="I204">
-        <v>34957</v>
+        <v>34956</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7612,19 +7615,19 @@
         <v>3627</v>
       </c>
       <c r="E205">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="F205">
         <v>17937</v>
       </c>
       <c r="G205">
-        <v>17872</v>
+        <v>17871</v>
       </c>
       <c r="H205">
         <v>35105</v>
       </c>
       <c r="I205">
-        <v>34906</v>
+        <v>34903</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7647,13 +7650,13 @@
         <v>17982</v>
       </c>
       <c r="G206">
-        <v>17745</v>
+        <v>17744</v>
       </c>
       <c r="H206">
         <v>35492</v>
       </c>
       <c r="I206">
-        <v>35212</v>
+        <v>35213</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7699,19 +7702,19 @@
         <v>3990</v>
       </c>
       <c r="E208">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="F208">
         <v>18081</v>
       </c>
       <c r="G208">
-        <v>17947</v>
+        <v>17946</v>
       </c>
       <c r="H208">
         <v>35565</v>
       </c>
       <c r="I208">
-        <v>35515</v>
+        <v>35512</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7728,19 +7731,19 @@
         <v>3887</v>
       </c>
       <c r="E209">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="F209">
         <v>17876</v>
       </c>
       <c r="G209">
-        <v>17731</v>
+        <v>17732</v>
       </c>
       <c r="H209">
         <v>35732</v>
       </c>
       <c r="I209">
-        <v>35683</v>
+        <v>35686</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7757,19 +7760,19 @@
         <v>3917</v>
       </c>
       <c r="E210">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="F210">
         <v>17466</v>
       </c>
       <c r="G210">
-        <v>17420</v>
+        <v>17419</v>
       </c>
       <c r="H210">
         <v>35788</v>
       </c>
       <c r="I210">
-        <v>35759</v>
+        <v>35757</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7792,13 +7795,13 @@
         <v>17276</v>
       </c>
       <c r="G211">
-        <v>17244</v>
+        <v>17245</v>
       </c>
       <c r="H211">
         <v>35529</v>
       </c>
       <c r="I211">
-        <v>35560</v>
+        <v>35558</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7856,7 +7859,7 @@
         <v>35505</v>
       </c>
       <c r="I213">
-        <v>35627</v>
+        <v>35626</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7885,7 +7888,7 @@
         <v>35622</v>
       </c>
       <c r="I214">
-        <v>35774</v>
+        <v>35772</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7902,19 +7905,19 @@
         <v>3757</v>
       </c>
       <c r="E215">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="F215">
         <v>17058</v>
       </c>
       <c r="G215">
-        <v>17305</v>
+        <v>17306</v>
       </c>
       <c r="H215">
         <v>35453</v>
       </c>
       <c r="I215">
-        <v>35736</v>
+        <v>35737</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7931,7 +7934,7 @@
         <v>3836</v>
       </c>
       <c r="E216">
-        <v>3983</v>
+        <v>3984</v>
       </c>
       <c r="F216">
         <v>17022</v>
@@ -7943,7 +7946,7 @@
         <v>35486</v>
       </c>
       <c r="I216">
-        <v>35600</v>
+        <v>35601</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7954,25 +7957,25 @@
         <v>988</v>
       </c>
       <c r="C217">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D217">
         <v>4220</v>
       </c>
       <c r="E217">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="F217">
         <v>17326</v>
       </c>
       <c r="G217">
-        <v>17226</v>
+        <v>17228</v>
       </c>
       <c r="H217">
         <v>36016</v>
       </c>
       <c r="I217">
-        <v>35820</v>
+        <v>35825</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -8001,7 +8004,7 @@
         <v>36142</v>
       </c>
       <c r="I218">
-        <v>35852</v>
+        <v>35853</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -8024,7 +8027,7 @@
         <v>17734</v>
       </c>
       <c r="G219">
-        <v>17560</v>
+        <v>17561</v>
       </c>
       <c r="H219">
         <v>36190</v>
@@ -8059,7 +8062,7 @@
         <v>36803</v>
       </c>
       <c r="I220">
-        <v>36724</v>
+        <v>36725</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -8088,7 +8091,7 @@
         <v>36719</v>
       </c>
       <c r="I221">
-        <v>36664</v>
+        <v>36665</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -8111,13 +8114,13 @@
         <v>18078</v>
       </c>
       <c r="G222">
-        <v>18060</v>
+        <v>18059</v>
       </c>
       <c r="H222">
         <v>36709</v>
       </c>
       <c r="I222">
-        <v>36696</v>
+        <v>36693</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -8140,13 +8143,13 @@
         <v>18145</v>
       </c>
       <c r="G223">
-        <v>18111</v>
+        <v>18114</v>
       </c>
       <c r="H223">
         <v>36902</v>
       </c>
       <c r="I223">
-        <v>36871</v>
+        <v>36875</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -8169,13 +8172,13 @@
         <v>18512</v>
       </c>
       <c r="G224">
-        <v>18578</v>
+        <v>18577</v>
       </c>
       <c r="H224">
         <v>37107</v>
       </c>
       <c r="I224">
-        <v>37225</v>
+        <v>37223</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -8227,13 +8230,13 @@
         <v>19233</v>
       </c>
       <c r="G226">
-        <v>19461</v>
+        <v>19460</v>
       </c>
       <c r="H226">
         <v>37865</v>
       </c>
       <c r="I226">
-        <v>38081</v>
+        <v>38080</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -8256,13 +8259,13 @@
         <v>19654</v>
       </c>
       <c r="G227">
-        <v>19939</v>
+        <v>19941</v>
       </c>
       <c r="H227">
         <v>38182</v>
       </c>
       <c r="I227">
-        <v>38437</v>
+        <v>38439</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -8273,13 +8276,13 @@
         <v>1031</v>
       </c>
       <c r="C228">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D228">
         <v>4818</v>
       </c>
       <c r="E228">
-        <v>4993</v>
+        <v>4994</v>
       </c>
       <c r="F228">
         <v>19611</v>
@@ -8291,7 +8294,7 @@
         <v>38425</v>
       </c>
       <c r="I228">
-        <v>38528</v>
+        <v>38529</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -8302,7 +8305,7 @@
         <v>1112</v>
       </c>
       <c r="C229">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D229">
         <v>5112</v>
@@ -8372,7 +8375,7 @@
         <v>20719</v>
       </c>
       <c r="G231">
-        <v>20470</v>
+        <v>20469</v>
       </c>
       <c r="H231">
         <v>39123</v>
@@ -8407,7 +8410,7 @@
         <v>39234</v>
       </c>
       <c r="I232">
-        <v>39161</v>
+        <v>39162</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -8436,7 +8439,7 @@
         <v>39534</v>
       </c>
       <c r="I233">
-        <v>39393</v>
+        <v>39394</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -8447,7 +8450,7 @@
         <v>1132</v>
       </c>
       <c r="C234">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D234">
         <v>5192</v>
@@ -8459,13 +8462,13 @@
         <v>21443</v>
       </c>
       <c r="G234">
-        <v>21368</v>
+        <v>21369</v>
       </c>
       <c r="H234">
         <v>40037</v>
       </c>
       <c r="I234">
-        <v>39922</v>
+        <v>39926</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -8488,13 +8491,13 @@
         <v>21749</v>
       </c>
       <c r="G235">
-        <v>21740</v>
+        <v>21741</v>
       </c>
       <c r="H235">
         <v>40374</v>
       </c>
       <c r="I235">
-        <v>40368</v>
+        <v>40366</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -8505,7 +8508,7 @@
         <v>1126</v>
       </c>
       <c r="C236">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D236">
         <v>5030</v>
@@ -8517,13 +8520,13 @@
         <v>21895</v>
       </c>
       <c r="G236">
-        <v>21984</v>
+        <v>21985</v>
       </c>
       <c r="H236">
         <v>40338</v>
       </c>
       <c r="I236">
-        <v>40504</v>
+        <v>40505</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -8540,19 +8543,19 @@
         <v>4942</v>
       </c>
       <c r="E237">
-        <v>5123</v>
+        <v>5124</v>
       </c>
       <c r="F237">
         <v>21782</v>
       </c>
       <c r="G237">
-        <v>22120</v>
+        <v>22121</v>
       </c>
       <c r="H237">
         <v>40302</v>
       </c>
       <c r="I237">
-        <v>40615</v>
+        <v>40618</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -8575,13 +8578,13 @@
         <v>21630</v>
       </c>
       <c r="G238">
-        <v>21817</v>
+        <v>21816</v>
       </c>
       <c r="H238">
         <v>40217</v>
       </c>
       <c r="I238">
-        <v>40353</v>
+        <v>40355</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -8610,7 +8613,7 @@
         <v>40449</v>
       </c>
       <c r="I239">
-        <v>40776</v>
+        <v>40773</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -8639,7 +8642,7 @@
         <v>41228</v>
       </c>
       <c r="I240">
-        <v>41383</v>
+        <v>41385</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -8656,19 +8659,19 @@
         <v>5485</v>
       </c>
       <c r="E241">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="F241">
         <v>24019</v>
       </c>
       <c r="G241">
-        <v>23821</v>
+        <v>23820</v>
       </c>
       <c r="H241">
         <v>42456</v>
       </c>
       <c r="I241">
-        <v>42135</v>
+        <v>42133</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -8697,7 +8700,7 @@
         <v>42235</v>
       </c>
       <c r="I242">
-        <v>41928</v>
+        <v>41927</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -8720,7 +8723,7 @@
         <v>24274</v>
       </c>
       <c r="G243">
-        <v>23972</v>
+        <v>23971</v>
       </c>
       <c r="H243">
         <v>42560</v>
@@ -8749,13 +8752,13 @@
         <v>24501</v>
       </c>
       <c r="G244">
-        <v>24245</v>
+        <v>24246</v>
       </c>
       <c r="H244">
         <v>42693</v>
       </c>
       <c r="I244">
-        <v>42589</v>
+        <v>42591</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -8784,7 +8787,7 @@
         <v>42728</v>
       </c>
       <c r="I245">
-        <v>42652</v>
+        <v>42651</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -8795,7 +8798,7 @@
         <v>1226</v>
       </c>
       <c r="C246">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D246">
         <v>5488</v>
@@ -8813,7 +8816,7 @@
         <v>43010</v>
       </c>
       <c r="I246">
-        <v>42835</v>
+        <v>42837</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -8836,13 +8839,13 @@
         <v>25103</v>
       </c>
       <c r="G247">
-        <v>25073</v>
+        <v>25075</v>
       </c>
       <c r="H247">
         <v>43110</v>
       </c>
       <c r="I247">
-        <v>43016</v>
+        <v>43022</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -8853,7 +8856,7 @@
         <v>1230</v>
       </c>
       <c r="C248">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D248">
         <v>5423</v>
@@ -8865,13 +8868,13 @@
         <v>25000</v>
       </c>
       <c r="G248">
-        <v>25146</v>
+        <v>25144</v>
       </c>
       <c r="H248">
         <v>42715</v>
       </c>
       <c r="I248">
-        <v>42952</v>
+        <v>42948</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -8900,7 +8903,7 @@
         <v>43267</v>
       </c>
       <c r="I249">
-        <v>43681</v>
+        <v>43680</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -8929,7 +8932,7 @@
         <v>44297</v>
       </c>
       <c r="I250">
-        <v>44463</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -8952,13 +8955,13 @@
         <v>25974</v>
       </c>
       <c r="G251">
-        <v>26466</v>
+        <v>26467</v>
       </c>
       <c r="H251">
         <v>44355</v>
       </c>
       <c r="I251">
-        <v>44731</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -8981,13 +8984,13 @@
         <v>26353</v>
       </c>
       <c r="G252">
-        <v>26693</v>
+        <v>26691</v>
       </c>
       <c r="H252">
         <v>44888</v>
       </c>
       <c r="I252">
-        <v>45058</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -9016,7 +9019,7 @@
         <v>45886</v>
       </c>
       <c r="I253">
-        <v>45496</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -9039,13 +9042,13 @@
         <v>27791</v>
       </c>
       <c r="G254">
-        <v>27316</v>
+        <v>27317</v>
       </c>
       <c r="H254">
         <v>46243</v>
       </c>
       <c r="I254">
-        <v>45885</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -9068,7 +9071,7 @@
         <v>28088</v>
       </c>
       <c r="G255">
-        <v>27740</v>
+        <v>27739</v>
       </c>
       <c r="H255">
         <v>46753</v>
@@ -9097,13 +9100,13 @@
         <v>28350</v>
       </c>
       <c r="G256">
-        <v>28073</v>
+        <v>28072</v>
       </c>
       <c r="H256">
         <v>47015</v>
       </c>
       <c r="I256">
-        <v>46891</v>
+        <v>46888</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -9132,7 +9135,7 @@
         <v>47087</v>
       </c>
       <c r="I257">
-        <v>47058</v>
+        <v>47057</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -9149,7 +9152,7 @@
         <v>6273</v>
       </c>
       <c r="E258">
-        <v>6169</v>
+        <v>6168</v>
       </c>
       <c r="F258">
         <v>28942</v>
@@ -9190,7 +9193,7 @@
         <v>47826</v>
       </c>
       <c r="I259">
-        <v>47689</v>
+        <v>47696</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -9213,13 +9216,13 @@
         <v>29269</v>
       </c>
       <c r="G260">
-        <v>29455</v>
+        <v>29456</v>
       </c>
       <c r="H260">
         <v>47776</v>
       </c>
       <c r="I260">
-        <v>48018</v>
+        <v>48021</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -9242,13 +9245,13 @@
         <v>29019</v>
       </c>
       <c r="G261">
-        <v>29446</v>
+        <v>29445</v>
       </c>
       <c r="H261">
         <v>47541</v>
       </c>
       <c r="I261">
-        <v>47961</v>
+        <v>47960</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -9271,13 +9274,13 @@
         <v>28911</v>
       </c>
       <c r="G262">
-        <v>29184</v>
+        <v>29183</v>
       </c>
       <c r="H262">
         <v>47385</v>
       </c>
       <c r="I262">
-        <v>47593</v>
+        <v>47592</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -9288,7 +9291,7 @@
         <v>1337</v>
       </c>
       <c r="C263">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D263">
         <v>6087</v>
@@ -9300,13 +9303,13 @@
         <v>29127</v>
       </c>
       <c r="G263">
-        <v>29672</v>
+        <v>29674</v>
       </c>
       <c r="H263">
         <v>47770</v>
       </c>
       <c r="I263">
-        <v>48191</v>
+        <v>48190</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -9323,19 +9326,19 @@
         <v>6291</v>
       </c>
       <c r="E264">
-        <v>6491</v>
+        <v>6492</v>
       </c>
       <c r="F264">
         <v>29882</v>
       </c>
       <c r="G264">
-        <v>30193</v>
+        <v>30194</v>
       </c>
       <c r="H264">
         <v>48531</v>
       </c>
       <c r="I264">
-        <v>48679</v>
+        <v>48682</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -9358,13 +9361,13 @@
         <v>30832</v>
       </c>
       <c r="G265">
-        <v>30555</v>
+        <v>30554</v>
       </c>
       <c r="H265">
         <v>49193</v>
       </c>
       <c r="I265">
-        <v>48875</v>
+        <v>48871</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -9387,13 +9390,13 @@
         <v>31375</v>
       </c>
       <c r="G266">
-        <v>30870</v>
+        <v>30869</v>
       </c>
       <c r="H266">
         <v>49653</v>
       </c>
       <c r="I266">
-        <v>49290</v>
+        <v>49289</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -9416,13 +9419,13 @@
         <v>31589</v>
       </c>
       <c r="G267">
-        <v>31249</v>
+        <v>31250</v>
       </c>
       <c r="H267">
         <v>49623</v>
       </c>
       <c r="I267">
-        <v>49358</v>
+        <v>49359</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -9445,13 +9448,13 @@
         <v>31668</v>
       </c>
       <c r="G268">
-        <v>31486</v>
+        <v>31485</v>
       </c>
       <c r="H268">
         <v>49501</v>
       </c>
       <c r="I268">
-        <v>49519</v>
+        <v>49517</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -9474,13 +9477,13 @@
         <v>31928</v>
       </c>
       <c r="G269">
-        <v>31698</v>
+        <v>31699</v>
       </c>
       <c r="H269">
         <v>50129</v>
       </c>
       <c r="I269">
-        <v>50023</v>
+        <v>50025</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -9503,13 +9506,13 @@
         <v>31998</v>
       </c>
       <c r="G270">
-        <v>31771</v>
+        <v>31770</v>
       </c>
       <c r="H270">
         <v>50735</v>
       </c>
       <c r="I270">
-        <v>50427</v>
+        <v>50424</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -9532,13 +9535,13 @@
         <v>31615</v>
       </c>
       <c r="G271">
-        <v>31596</v>
+        <v>31594</v>
       </c>
       <c r="H271">
         <v>50859</v>
       </c>
       <c r="I271">
-        <v>50760</v>
+        <v>50770</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -9555,19 +9558,19 @@
         <v>6173</v>
       </c>
       <c r="E272">
-        <v>6271</v>
+        <v>6270</v>
       </c>
       <c r="F272">
         <v>31099</v>
       </c>
       <c r="G272">
-        <v>31335</v>
+        <v>31333</v>
       </c>
       <c r="H272">
         <v>50651</v>
       </c>
       <c r="I272">
-        <v>50948</v>
+        <v>50941</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -9596,7 +9599,7 @@
         <v>51229</v>
       </c>
       <c r="I273">
-        <v>51614</v>
+        <v>51610</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -9625,7 +9628,7 @@
         <v>51841</v>
       </c>
       <c r="I274">
-        <v>52121</v>
+        <v>52120</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -9636,13 +9639,13 @@
         <v>1390</v>
       </c>
       <c r="C275">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D275">
         <v>6280</v>
       </c>
       <c r="E275">
-        <v>6469</v>
+        <v>6468</v>
       </c>
       <c r="F275">
         <v>31910</v>
@@ -9654,7 +9657,7 @@
         <v>52447</v>
       </c>
       <c r="I275">
-        <v>52921</v>
+        <v>52914</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -9677,7 +9680,7 @@
         <v>32655</v>
       </c>
       <c r="G276">
-        <v>32994</v>
+        <v>32995</v>
       </c>
       <c r="H276">
         <v>53137</v>
@@ -9700,19 +9703,19 @@
         <v>6604</v>
       </c>
       <c r="E277">
-        <v>6420</v>
+        <v>6421</v>
       </c>
       <c r="F277">
         <v>33701</v>
       </c>
       <c r="G277">
-        <v>33341</v>
+        <v>33344</v>
       </c>
       <c r="H277">
         <v>54264</v>
       </c>
       <c r="I277">
-        <v>53859</v>
+        <v>53866</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -9770,7 +9773,7 @@
         <v>54692</v>
       </c>
       <c r="I279">
-        <v>54366</v>
+        <v>54365</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -9799,7 +9802,7 @@
         <v>54284</v>
       </c>
       <c r="I280">
-        <v>54339</v>
+        <v>54340</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -9828,7 +9831,7 @@
         <v>54474</v>
       </c>
       <c r="I281">
-        <v>54470</v>
+        <v>54469</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -9845,19 +9848,19 @@
         <v>7016</v>
       </c>
       <c r="E282">
-        <v>6863</v>
+        <v>6864</v>
       </c>
       <c r="F282">
         <v>33319</v>
       </c>
       <c r="G282">
-        <v>33069</v>
+        <v>33071</v>
       </c>
       <c r="H282">
         <v>54972</v>
       </c>
       <c r="I282">
-        <v>54662</v>
+        <v>54664</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -9874,19 +9877,19 @@
         <v>7168</v>
       </c>
       <c r="E283">
-        <v>7072</v>
+        <v>7071</v>
       </c>
       <c r="F283">
         <v>33313</v>
       </c>
       <c r="G283">
-        <v>33272</v>
+        <v>33270</v>
       </c>
       <c r="H283">
         <v>54916</v>
       </c>
       <c r="I283">
-        <v>54729</v>
+        <v>54744</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -9897,7 +9900,7 @@
         <v>1541</v>
       </c>
       <c r="C284">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D284">
         <v>7189</v>
@@ -9909,13 +9912,13 @@
         <v>33657</v>
       </c>
       <c r="G284">
-        <v>33839</v>
+        <v>33841</v>
       </c>
       <c r="H284">
         <v>54942</v>
       </c>
       <c r="I284">
-        <v>55255</v>
+        <v>55256</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -9944,7 +9947,7 @@
         <v>55348</v>
       </c>
       <c r="I285">
-        <v>55744</v>
+        <v>55740</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -9955,7 +9958,7 @@
         <v>1609</v>
       </c>
       <c r="C286">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D286">
         <v>7575</v>
@@ -9967,13 +9970,13 @@
         <v>33404</v>
       </c>
       <c r="G286">
-        <v>33685</v>
+        <v>33686</v>
       </c>
       <c r="H286">
         <v>54976</v>
       </c>
       <c r="I286">
-        <v>55296</v>
+        <v>55298</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -9996,13 +9999,13 @@
         <v>33168</v>
       </c>
       <c r="G287">
-        <v>33603</v>
+        <v>33604</v>
       </c>
       <c r="H287">
         <v>54525</v>
       </c>
       <c r="I287">
-        <v>54871</v>
+        <v>54867</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -10025,13 +10028,13 @@
         <v>33022</v>
       </c>
       <c r="G288">
-        <v>33319</v>
+        <v>33318</v>
       </c>
       <c r="H288">
         <v>54717</v>
       </c>
       <c r="I288">
-        <v>54900</v>
+        <v>54896</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -10054,13 +10057,13 @@
         <v>33710</v>
       </c>
       <c r="G289">
-        <v>33467</v>
+        <v>33465</v>
       </c>
       <c r="H289">
         <v>55624</v>
       </c>
       <c r="I289">
-        <v>55366</v>
+        <v>55360</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -10089,7 +10092,7 @@
         <v>55861</v>
       </c>
       <c r="I290">
-        <v>55388</v>
+        <v>55386</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -10100,7 +10103,7 @@
         <v>1726</v>
       </c>
       <c r="C291">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="D291">
         <v>8548</v>
@@ -10118,7 +10121,7 @@
         <v>56173</v>
       </c>
       <c r="I291">
-        <v>55922</v>
+        <v>55921</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -10129,7 +10132,7 @@
         <v>1766</v>
       </c>
       <c r="C292">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D292">
         <v>8742</v>
@@ -10141,13 +10144,13 @@
         <v>34755</v>
       </c>
       <c r="G292">
-        <v>34687</v>
+        <v>34688</v>
       </c>
       <c r="H292">
         <v>56973</v>
       </c>
       <c r="I292">
-        <v>57175</v>
+        <v>57178</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -10164,7 +10167,7 @@
         <v>8777</v>
       </c>
       <c r="E293">
-        <v>8764</v>
+        <v>8763</v>
       </c>
       <c r="F293">
         <v>34840</v>
@@ -10176,7 +10179,7 @@
         <v>57265</v>
       </c>
       <c r="I293">
-        <v>57253</v>
+        <v>57252</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -10193,19 +10196,19 @@
         <v>9165</v>
       </c>
       <c r="E294">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="F294">
         <v>35226</v>
       </c>
       <c r="G294">
-        <v>35085</v>
+        <v>35084</v>
       </c>
       <c r="H294">
         <v>57709</v>
       </c>
       <c r="I294">
-        <v>57507</v>
+        <v>57502</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -10216,25 +10219,25 @@
         <v>1835</v>
       </c>
       <c r="C295">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D295">
         <v>9345</v>
       </c>
       <c r="E295">
-        <v>9181</v>
+        <v>9182</v>
       </c>
       <c r="F295">
         <v>35151</v>
       </c>
       <c r="G295">
-        <v>35042</v>
+        <v>35043</v>
       </c>
       <c r="H295">
         <v>57832</v>
       </c>
       <c r="I295">
-        <v>57605</v>
+        <v>57627</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -10251,19 +10254,19 @@
         <v>9182</v>
       </c>
       <c r="E296">
-        <v>9281</v>
+        <v>9279</v>
       </c>
       <c r="F296">
         <v>34681</v>
       </c>
       <c r="G296">
-        <v>34885</v>
+        <v>34883</v>
       </c>
       <c r="H296">
         <v>56801</v>
       </c>
       <c r="I296">
-        <v>57023</v>
+        <v>57009</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -10274,7 +10277,7 @@
         <v>1791</v>
       </c>
       <c r="C297">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D297">
         <v>9179</v>
@@ -10286,13 +10289,13 @@
         <v>34688</v>
       </c>
       <c r="G297">
-        <v>34910</v>
+        <v>34909</v>
       </c>
       <c r="H297">
         <v>56812</v>
       </c>
       <c r="I297">
-        <v>57053</v>
+        <v>57049</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -10321,7 +10324,7 @@
         <v>57744</v>
       </c>
       <c r="I298">
-        <v>58027</v>
+        <v>58028</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -10332,7 +10335,7 @@
         <v>1827</v>
       </c>
       <c r="C299">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D299">
         <v>9329</v>
@@ -10344,13 +10347,13 @@
         <v>35086</v>
       </c>
       <c r="G299">
-        <v>35375</v>
+        <v>35376</v>
       </c>
       <c r="H299">
         <v>58497</v>
       </c>
       <c r="I299">
-        <v>58735</v>
+        <v>58731</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -10361,7 +10364,7 @@
         <v>1831</v>
       </c>
       <c r="C300">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D300">
         <v>9259</v>
@@ -10379,7 +10382,7 @@
         <v>59402</v>
       </c>
       <c r="I300">
-        <v>59504</v>
+        <v>59503</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -10408,7 +10411,7 @@
         <v>60383</v>
       </c>
       <c r="I301">
-        <v>60155</v>
+        <v>60158</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -10437,7 +10440,7 @@
         <v>61451</v>
       </c>
       <c r="I302">
-        <v>61087</v>
+        <v>61088</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -10460,7 +10463,7 @@
         <v>36363</v>
       </c>
       <c r="G303">
-        <v>36246</v>
+        <v>36247</v>
       </c>
       <c r="H303">
         <v>61844</v>
@@ -10477,7 +10480,7 @@
         <v>1888</v>
       </c>
       <c r="C304">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D304">
         <v>9534</v>
@@ -10489,13 +10492,13 @@
         <v>36458</v>
       </c>
       <c r="G304">
-        <v>36501</v>
+        <v>36500</v>
       </c>
       <c r="H304">
         <v>61762</v>
       </c>
       <c r="I304">
-        <v>62062</v>
+        <v>62063</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -10518,13 +10521,13 @@
         <v>37107</v>
       </c>
       <c r="G305">
-        <v>37141</v>
+        <v>37142</v>
       </c>
       <c r="H305">
         <v>62430</v>
       </c>
       <c r="I305">
-        <v>62427</v>
+        <v>62428</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -10547,13 +10550,13 @@
         <v>37799</v>
       </c>
       <c r="G306">
-        <v>37646</v>
+        <v>37647</v>
       </c>
       <c r="H306">
         <v>63212</v>
       </c>
       <c r="I306">
-        <v>62993</v>
+        <v>62995</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -10576,13 +10579,13 @@
         <v>38399</v>
       </c>
       <c r="G307">
-        <v>38288</v>
+        <v>38287</v>
       </c>
       <c r="H307">
         <v>64118</v>
       </c>
       <c r="I307">
-        <v>63904</v>
+        <v>63916</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -10599,13 +10602,13 @@
         <v>9599</v>
       </c>
       <c r="E308">
-        <v>9680</v>
+        <v>9681</v>
       </c>
       <c r="F308">
         <v>38657</v>
       </c>
       <c r="G308">
-        <v>38743</v>
+        <v>38746</v>
       </c>
       <c r="H308">
         <v>64780</v>
@@ -10628,19 +10631,19 @@
         <v>9717</v>
       </c>
       <c r="E309">
-        <v>9934</v>
+        <v>9935</v>
       </c>
       <c r="F309">
         <v>39514</v>
       </c>
       <c r="G309">
-        <v>39657</v>
+        <v>39658</v>
       </c>
       <c r="H309">
         <v>65867</v>
       </c>
       <c r="I309">
-        <v>65997</v>
+        <v>65998</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -10669,7 +10672,7 @@
         <v>67199</v>
       </c>
       <c r="I310">
-        <v>67276</v>
+        <v>67278</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -10692,13 +10695,13 @@
         <v>40760</v>
       </c>
       <c r="G311">
-        <v>41065</v>
+        <v>41064</v>
       </c>
       <c r="H311">
         <v>68445</v>
       </c>
       <c r="I311">
-        <v>68684</v>
+        <v>68676</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -10715,19 +10718,19 @@
         <v>9751</v>
       </c>
       <c r="E312">
-        <v>10069</v>
+        <v>10070</v>
       </c>
       <c r="F312">
         <v>41147</v>
       </c>
       <c r="G312">
-        <v>41404</v>
+        <v>41405</v>
       </c>
       <c r="H312">
         <v>69091</v>
       </c>
       <c r="I312">
-        <v>69233</v>
+        <v>69234</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -10756,7 +10759,7 @@
         <v>69901</v>
       </c>
       <c r="I313">
-        <v>69616</v>
+        <v>69618</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -10785,7 +10788,7 @@
         <v>70909</v>
       </c>
       <c r="I314">
-        <v>70547</v>
+        <v>70548</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -10796,25 +10799,25 @@
         <v>2101</v>
       </c>
       <c r="C315">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D315">
         <v>10218</v>
       </c>
       <c r="E315">
-        <v>10061</v>
+        <v>10062</v>
       </c>
       <c r="F315">
         <v>42114</v>
       </c>
       <c r="G315">
-        <v>42096</v>
+        <v>42099</v>
       </c>
       <c r="H315">
         <v>70724</v>
       </c>
       <c r="I315">
-        <v>70779</v>
+        <v>70780</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -10831,19 +10834,19 @@
         <v>10231</v>
       </c>
       <c r="E316">
-        <v>10292</v>
+        <v>10291</v>
       </c>
       <c r="F316">
         <v>42437</v>
       </c>
       <c r="G316">
-        <v>42537</v>
+        <v>42534</v>
       </c>
       <c r="H316">
         <v>71256</v>
       </c>
       <c r="I316">
-        <v>71617</v>
+        <v>71614</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -10883,25 +10886,25 @@
         <v>2145</v>
       </c>
       <c r="C318">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="D318">
         <v>10619</v>
       </c>
       <c r="E318">
-        <v>10553</v>
+        <v>10554</v>
       </c>
       <c r="F318">
         <v>44457</v>
       </c>
       <c r="G318">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="H318">
         <v>73500</v>
       </c>
       <c r="I318">
-        <v>73336</v>
+        <v>73338</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -10924,13 +10927,13 @@
         <v>45369</v>
       </c>
       <c r="G319">
-        <v>45146</v>
+        <v>45144</v>
       </c>
       <c r="H319">
         <v>74190</v>
       </c>
       <c r="I319">
-        <v>73858</v>
+        <v>73863</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -10947,19 +10950,19 @@
         <v>10522</v>
       </c>
       <c r="E320">
-        <v>10526</v>
+        <v>10527</v>
       </c>
       <c r="F320">
         <v>45790</v>
       </c>
       <c r="G320">
-        <v>45857</v>
+        <v>45860</v>
       </c>
       <c r="H320">
         <v>74316</v>
       </c>
       <c r="I320">
-        <v>74273</v>
+        <v>74275</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -10982,13 +10985,13 @@
         <v>45654</v>
       </c>
       <c r="G321">
-        <v>45743</v>
+        <v>45742</v>
       </c>
       <c r="H321">
         <v>74291</v>
       </c>
       <c r="I321">
-        <v>74263</v>
+        <v>74260</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -11011,13 +11014,13 @@
         <v>45928</v>
       </c>
       <c r="G322">
-        <v>45986</v>
+        <v>45985</v>
       </c>
       <c r="H322">
         <v>74307</v>
       </c>
       <c r="I322">
-        <v>74222</v>
+        <v>74220</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -11040,13 +11043,13 @@
         <v>45746</v>
       </c>
       <c r="G323">
-        <v>46079</v>
+        <v>46076</v>
       </c>
       <c r="H323">
         <v>74050</v>
       </c>
       <c r="I323">
-        <v>74269</v>
+        <v>74260</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -11063,19 +11066,19 @@
         <v>10411</v>
       </c>
       <c r="E324">
-        <v>10748</v>
+        <v>10749</v>
       </c>
       <c r="F324">
         <v>46058</v>
       </c>
       <c r="G324">
-        <v>46246</v>
+        <v>46247</v>
       </c>
       <c r="H324">
         <v>74884</v>
       </c>
       <c r="I324">
-        <v>74892</v>
+        <v>74894</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -11086,25 +11089,25 @@
         <v>2392</v>
       </c>
       <c r="C325">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D325">
         <v>11166</v>
       </c>
       <c r="E325">
-        <v>10876</v>
+        <v>10877</v>
       </c>
       <c r="F325">
         <v>46672</v>
       </c>
       <c r="G325">
-        <v>46330</v>
+        <v>46331</v>
       </c>
       <c r="H325">
         <v>75249</v>
       </c>
       <c r="I325">
-        <v>75161</v>
+        <v>75163</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -11121,7 +11124,7 @@
         <v>11437</v>
       </c>
       <c r="E326">
-        <v>11068</v>
+        <v>11067</v>
       </c>
       <c r="F326">
         <v>46975</v>
@@ -11133,7 +11136,7 @@
         <v>75843</v>
       </c>
       <c r="I326">
-        <v>75656</v>
+        <v>75657</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -11156,7 +11159,7 @@
         <v>46945</v>
       </c>
       <c r="G327">
-        <v>46878</v>
+        <v>46879</v>
       </c>
       <c r="H327">
         <v>76138</v>
@@ -11173,7 +11176,7 @@
         <v>2379</v>
       </c>
       <c r="C328">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D328">
         <v>11274</v>
@@ -11185,13 +11188,13 @@
         <v>47397</v>
       </c>
       <c r="G328">
-        <v>47585</v>
+        <v>47587</v>
       </c>
       <c r="H328">
         <v>76650</v>
       </c>
       <c r="I328">
-        <v>77165</v>
+        <v>77172</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -11208,19 +11211,19 @@
         <v>11368</v>
       </c>
       <c r="E329">
-        <v>11365</v>
+        <v>11364</v>
       </c>
       <c r="F329">
         <v>48119</v>
       </c>
       <c r="G329">
-        <v>48258</v>
+        <v>48257</v>
       </c>
       <c r="H329">
         <v>78027</v>
       </c>
       <c r="I329">
-        <v>78327</v>
+        <v>78328</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -11231,7 +11234,7 @@
         <v>2466</v>
       </c>
       <c r="C330">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="D330">
         <v>11583</v>
@@ -11243,13 +11246,13 @@
         <v>48917</v>
       </c>
       <c r="G330">
-        <v>48901</v>
+        <v>48900</v>
       </c>
       <c r="H330">
         <v>79464</v>
       </c>
       <c r="I330">
-        <v>79433</v>
+        <v>79432</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -11301,13 +11304,13 @@
         <v>49623</v>
       </c>
       <c r="G332">
-        <v>49707</v>
+        <v>49708</v>
       </c>
       <c r="H332">
         <v>80473</v>
       </c>
       <c r="I332">
-        <v>80488</v>
+        <v>80484</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -11347,25 +11350,25 @@
         <v>2556</v>
       </c>
       <c r="C334">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="D334">
         <v>11810</v>
       </c>
       <c r="E334">
-        <v>11863</v>
+        <v>11862</v>
       </c>
       <c r="F334">
         <v>49966</v>
       </c>
       <c r="G334">
-        <v>50075</v>
+        <v>50074</v>
       </c>
       <c r="H334">
         <v>81856</v>
       </c>
       <c r="I334">
-        <v>81716</v>
+        <v>81712</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -11382,13 +11385,13 @@
         <v>11405</v>
       </c>
       <c r="E335">
-        <v>11785</v>
+        <v>11787</v>
       </c>
       <c r="F335">
         <v>49520</v>
       </c>
       <c r="G335">
-        <v>49850</v>
+        <v>49849</v>
       </c>
       <c r="H335">
         <v>81440</v>
@@ -11405,25 +11408,25 @@
         <v>2500</v>
       </c>
       <c r="C336">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="D336">
         <v>11584</v>
       </c>
       <c r="E336">
-        <v>11883</v>
+        <v>11882</v>
       </c>
       <c r="F336">
         <v>49770</v>
       </c>
       <c r="G336">
-        <v>49914</v>
+        <v>49912</v>
       </c>
       <c r="H336">
         <v>81670</v>
       </c>
       <c r="I336">
-        <v>81571</v>
+        <v>81562</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -11446,13 +11449,13 @@
         <v>50386</v>
       </c>
       <c r="G337">
-        <v>49923</v>
+        <v>49924</v>
       </c>
       <c r="H337">
         <v>81611</v>
       </c>
       <c r="I337">
-        <v>81364</v>
+        <v>81365</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -11475,13 +11478,13 @@
         <v>50851</v>
       </c>
       <c r="G338">
-        <v>50403</v>
+        <v>50402</v>
       </c>
       <c r="H338">
         <v>81763</v>
       </c>
       <c r="I338">
-        <v>81620</v>
+        <v>81621</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -11492,7 +11495,7 @@
         <v>2598</v>
       </c>
       <c r="C339">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="D339">
         <v>12152</v>
@@ -11504,13 +11507,13 @@
         <v>50818</v>
       </c>
       <c r="G339">
-        <v>50763</v>
+        <v>50764</v>
       </c>
       <c r="H339">
         <v>82686</v>
       </c>
       <c r="I339">
-        <v>82669</v>
+        <v>82668</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -11527,19 +11530,19 @@
         <v>12091</v>
       </c>
       <c r="E340">
-        <v>12115</v>
+        <v>12114</v>
       </c>
       <c r="F340">
         <v>50428</v>
       </c>
       <c r="G340">
-        <v>50615</v>
+        <v>50613</v>
       </c>
       <c r="H340">
         <v>82455</v>
       </c>
       <c r="I340">
-        <v>83051</v>
+        <v>83046</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -11562,13 +11565,13 @@
         <v>50131</v>
       </c>
       <c r="G341">
-        <v>50358</v>
+        <v>50360</v>
       </c>
       <c r="H341">
         <v>82280</v>
       </c>
       <c r="I341">
-        <v>82838</v>
+        <v>82852</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -11579,7 +11582,7 @@
         <v>2576</v>
       </c>
       <c r="C342">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="D342">
         <v>12384</v>
@@ -11591,13 +11594,13 @@
         <v>49940</v>
       </c>
       <c r="G342">
-        <v>49966</v>
+        <v>49964</v>
       </c>
       <c r="H342">
         <v>83078</v>
       </c>
       <c r="I342">
-        <v>83046</v>
+        <v>83048</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -11614,19 +11617,19 @@
         <v>12489</v>
       </c>
       <c r="E343">
-        <v>12358</v>
+        <v>12357</v>
       </c>
       <c r="F343">
         <v>50022</v>
       </c>
       <c r="G343">
-        <v>49959</v>
+        <v>49958</v>
       </c>
       <c r="H343">
         <v>83637</v>
       </c>
       <c r="I343">
-        <v>83502</v>
+        <v>83494</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -11643,19 +11646,19 @@
         <v>12355</v>
       </c>
       <c r="E344">
-        <v>12408</v>
+        <v>12407</v>
       </c>
       <c r="F344">
         <v>50331</v>
       </c>
       <c r="G344">
-        <v>50449</v>
+        <v>50447</v>
       </c>
       <c r="H344">
         <v>83876</v>
       </c>
       <c r="I344">
-        <v>83700</v>
+        <v>83693</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -11672,19 +11675,19 @@
         <v>12151</v>
       </c>
       <c r="E345">
-        <v>12437</v>
+        <v>12436</v>
       </c>
       <c r="F345">
         <v>50384</v>
       </c>
       <c r="G345">
-        <v>50460</v>
+        <v>50458</v>
       </c>
       <c r="H345">
         <v>84409</v>
       </c>
       <c r="I345">
-        <v>83983</v>
+        <v>83978</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -11701,19 +11704,19 @@
         <v>12391</v>
       </c>
       <c r="E346">
-        <v>12528</v>
+        <v>12527</v>
       </c>
       <c r="F346">
         <v>50296</v>
       </c>
       <c r="G346">
-        <v>50374</v>
+        <v>50373</v>
       </c>
       <c r="H346">
         <v>84512</v>
       </c>
       <c r="I346">
-        <v>84208</v>
+        <v>84206</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -11730,19 +11733,19 @@
         <v>12041</v>
       </c>
       <c r="E347">
-        <v>12496</v>
+        <v>12495</v>
       </c>
       <c r="F347">
         <v>49953</v>
       </c>
       <c r="G347">
-        <v>50272</v>
+        <v>50265</v>
       </c>
       <c r="H347">
         <v>83631</v>
       </c>
       <c r="I347">
-        <v>83756</v>
+        <v>83743</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -11765,13 +11768,13 @@
         <v>51343</v>
       </c>
       <c r="G348">
-        <v>51406</v>
+        <v>51407</v>
       </c>
       <c r="H348">
         <v>84823</v>
       </c>
       <c r="I348">
-        <v>84667</v>
+        <v>84664</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -11782,25 +11785,25 @@
         <v>2734</v>
       </c>
       <c r="C349">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="D349">
         <v>13504</v>
       </c>
       <c r="E349">
-        <v>13038</v>
+        <v>13041</v>
       </c>
       <c r="F349">
         <v>52830</v>
       </c>
       <c r="G349">
-        <v>52198</v>
+        <v>52205</v>
       </c>
       <c r="H349">
         <v>86809</v>
       </c>
       <c r="I349">
-        <v>86533</v>
+        <v>86551</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -11823,13 +11826,13 @@
         <v>52898</v>
       </c>
       <c r="G350">
-        <v>52393</v>
+        <v>52394</v>
       </c>
       <c r="H350">
         <v>87103</v>
       </c>
       <c r="I350">
-        <v>87039</v>
+        <v>87040</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -11852,13 +11855,13 @@
         <v>52529</v>
       </c>
       <c r="G351">
-        <v>52508</v>
+        <v>52510</v>
       </c>
       <c r="H351">
         <v>87311</v>
       </c>
       <c r="I351">
-        <v>87375</v>
+        <v>87373</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -11881,13 +11884,13 @@
         <v>52112</v>
       </c>
       <c r="G352">
-        <v>52287</v>
+        <v>52288</v>
       </c>
       <c r="H352">
         <v>86745</v>
       </c>
       <c r="I352">
-        <v>87408</v>
+        <v>87406</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -11916,7 +11919,7 @@
         <v>86839</v>
       </c>
       <c r="I353">
-        <v>87602</v>
+        <v>87616</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -11933,19 +11936,19 @@
         <v>13493</v>
       </c>
       <c r="E354">
-        <v>13324</v>
+        <v>13325</v>
       </c>
       <c r="F354">
         <v>52776</v>
       </c>
       <c r="G354">
-        <v>52844</v>
+        <v>52846</v>
       </c>
       <c r="H354">
         <v>88082</v>
       </c>
       <c r="I354">
-        <v>88231</v>
+        <v>88245</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -11968,13 +11971,13 @@
         <v>52991</v>
       </c>
       <c r="G355">
-        <v>52980</v>
+        <v>52981</v>
       </c>
       <c r="H355">
         <v>88366</v>
       </c>
       <c r="I355">
-        <v>88186</v>
+        <v>88182</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -11991,19 +11994,19 @@
         <v>13551</v>
       </c>
       <c r="E356">
-        <v>13602</v>
+        <v>13603</v>
       </c>
       <c r="F356">
         <v>53642</v>
       </c>
       <c r="G356">
-        <v>53674</v>
+        <v>53678</v>
       </c>
       <c r="H356">
         <v>89938</v>
       </c>
       <c r="I356">
-        <v>89727</v>
+        <v>89735</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -12020,19 +12023,19 @@
         <v>13408</v>
       </c>
       <c r="E357">
-        <v>13731</v>
+        <v>13730</v>
       </c>
       <c r="F357">
         <v>54096</v>
       </c>
       <c r="G357">
-        <v>54279</v>
+        <v>54275</v>
       </c>
       <c r="H357">
         <v>91019</v>
       </c>
       <c r="I357">
-        <v>90568</v>
+        <v>90562</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -12043,25 +12046,25 @@
         <v>2766</v>
       </c>
       <c r="C358">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="D358">
         <v>13479</v>
       </c>
       <c r="E358">
-        <v>13689</v>
+        <v>13690</v>
       </c>
       <c r="F358">
         <v>54276</v>
       </c>
       <c r="G358">
-        <v>54383</v>
+        <v>54385</v>
       </c>
       <c r="H358">
         <v>91238</v>
       </c>
       <c r="I358">
-        <v>90860</v>
+        <v>90864</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -12078,19 +12081,19 @@
         <v>13298</v>
       </c>
       <c r="E359">
-        <v>13749</v>
+        <v>13747</v>
       </c>
       <c r="F359">
         <v>54504</v>
       </c>
       <c r="G359">
-        <v>54765</v>
+        <v>54757</v>
       </c>
       <c r="H359">
         <v>91869</v>
       </c>
       <c r="I359">
-        <v>91753</v>
+        <v>91739</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -12119,7 +12122,7 @@
         <v>92924</v>
       </c>
       <c r="I360">
-        <v>92707</v>
+        <v>92699</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -12136,7 +12139,7 @@
         <v>14303</v>
       </c>
       <c r="E361">
-        <v>13845</v>
+        <v>13846</v>
       </c>
       <c r="F361">
         <v>56139</v>
@@ -12148,7 +12151,7 @@
         <v>93214</v>
       </c>
       <c r="I361">
-        <v>93025</v>
+        <v>93016</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -12177,7 +12180,7 @@
         <v>92940</v>
       </c>
       <c r="I362">
-        <v>93011</v>
+        <v>93008</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -12194,19 +12197,19 @@
         <v>14253</v>
       </c>
       <c r="E363">
-        <v>14057</v>
+        <v>14056</v>
       </c>
       <c r="F363">
         <v>56276</v>
       </c>
       <c r="G363">
-        <v>56459</v>
+        <v>56461</v>
       </c>
       <c r="H363">
         <v>93181</v>
       </c>
       <c r="I363">
-        <v>93609</v>
+        <v>93601</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -12229,13 +12232,13 @@
         <v>56187</v>
       </c>
       <c r="G364">
-        <v>56539</v>
+        <v>56541</v>
       </c>
       <c r="H364">
         <v>92661</v>
       </c>
       <c r="I364">
-        <v>93574</v>
+        <v>93575</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -12258,13 +12261,13 @@
         <v>56447</v>
       </c>
       <c r="G365">
-        <v>56476</v>
+        <v>56478</v>
       </c>
       <c r="H365">
         <v>92624</v>
       </c>
       <c r="I365">
-        <v>93194</v>
+        <v>93218</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -12287,13 +12290,13 @@
         <v>56442</v>
       </c>
       <c r="G366">
-        <v>56623</v>
+        <v>56626</v>
       </c>
       <c r="H366">
         <v>93835</v>
       </c>
       <c r="I366">
-        <v>94248</v>
+        <v>94269</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -12316,13 +12319,13 @@
         <v>56617</v>
       </c>
       <c r="G367">
-        <v>56647</v>
+        <v>56649</v>
       </c>
       <c r="H367">
         <v>94503</v>
       </c>
       <c r="I367">
-        <v>94421</v>
+        <v>94417</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -12339,19 +12342,19 @@
         <v>13520</v>
       </c>
       <c r="E368">
-        <v>13607</v>
+        <v>13608</v>
       </c>
       <c r="F368">
         <v>56506</v>
       </c>
       <c r="G368">
-        <v>56582</v>
+        <v>56585</v>
       </c>
       <c r="H368">
         <v>95406</v>
       </c>
       <c r="I368">
-        <v>95100</v>
+        <v>95106</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -12362,25 +12365,25 @@
         <v>2829</v>
       </c>
       <c r="C369">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="D369">
         <v>13363</v>
       </c>
       <c r="E369">
-        <v>13650</v>
+        <v>13651</v>
       </c>
       <c r="F369">
         <v>56592</v>
       </c>
       <c r="G369">
-        <v>56802</v>
+        <v>56797</v>
       </c>
       <c r="H369">
         <v>96477</v>
       </c>
       <c r="I369">
-        <v>95904</v>
+        <v>95902</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -12403,13 +12406,13 @@
         <v>57210</v>
       </c>
       <c r="G370">
-        <v>57161</v>
+        <v>57160</v>
       </c>
       <c r="H370">
         <v>97175</v>
       </c>
       <c r="I370">
-        <v>96482</v>
+        <v>96481</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -12420,25 +12423,25 @@
         <v>2885</v>
       </c>
       <c r="C371">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="D371">
         <v>13385</v>
       </c>
       <c r="E371">
-        <v>13715</v>
+        <v>13714</v>
       </c>
       <c r="F371">
         <v>57654</v>
       </c>
       <c r="G371">
-        <v>57878</v>
+        <v>57868</v>
       </c>
       <c r="H371">
         <v>97519</v>
       </c>
       <c r="I371">
-        <v>97197</v>
+        <v>97169</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -12449,19 +12452,19 @@
         <v>2888</v>
       </c>
       <c r="C372">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="D372">
         <v>13742</v>
       </c>
       <c r="E372">
-        <v>13945</v>
+        <v>13946</v>
       </c>
       <c r="F372">
         <v>57884</v>
       </c>
       <c r="G372">
-        <v>57761</v>
+        <v>57763</v>
       </c>
       <c r="H372">
         <v>97689</v>
@@ -12484,19 +12487,19 @@
         <v>14510</v>
       </c>
       <c r="E373">
-        <v>14086</v>
+        <v>14087</v>
       </c>
       <c r="F373">
         <v>58716</v>
       </c>
       <c r="G373">
-        <v>57803</v>
+        <v>57804</v>
       </c>
       <c r="H373">
         <v>98249</v>
       </c>
       <c r="I373">
-        <v>97801</v>
+        <v>97792</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -12519,13 +12522,13 @@
         <v>57586</v>
       </c>
       <c r="G374">
-        <v>57217</v>
+        <v>57218</v>
       </c>
       <c r="H374">
         <v>97903</v>
       </c>
       <c r="I374">
-        <v>98139</v>
+        <v>98138</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -12548,13 +12551,13 @@
         <v>56943</v>
       </c>
       <c r="G375">
-        <v>57151</v>
+        <v>57155</v>
       </c>
       <c r="H375">
         <v>98282</v>
       </c>
       <c r="I375">
-        <v>98661</v>
+        <v>98666</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -12565,7 +12568,7 @@
         <v>2928</v>
       </c>
       <c r="C376">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="D376">
         <v>14203</v>
@@ -12577,13 +12580,13 @@
         <v>57528</v>
       </c>
       <c r="G376">
-        <v>57764</v>
+        <v>57771</v>
       </c>
       <c r="H376">
         <v>98638</v>
       </c>
       <c r="I376">
-        <v>99628</v>
+        <v>99638</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -12594,7 +12597,7 @@
         <v>2934</v>
       </c>
       <c r="C377">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="D377">
         <v>14564</v>
@@ -12606,13 +12609,13 @@
         <v>57462</v>
       </c>
       <c r="G377">
-        <v>57601</v>
+        <v>57605</v>
       </c>
       <c r="H377">
         <v>99291</v>
       </c>
       <c r="I377">
-        <v>100047</v>
+        <v>100086</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -12623,25 +12626,25 @@
         <v>2943</v>
       </c>
       <c r="C378">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="D378">
         <v>14682</v>
       </c>
       <c r="E378">
-        <v>14592</v>
+        <v>14593</v>
       </c>
       <c r="F378">
         <v>57872</v>
       </c>
       <c r="G378">
-        <v>57977</v>
+        <v>57986</v>
       </c>
       <c r="H378">
         <v>99342</v>
       </c>
       <c r="I378">
-        <v>99794</v>
+        <v>99826</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -12664,13 +12667,13 @@
         <v>58450</v>
       </c>
       <c r="G379">
-        <v>58407</v>
+        <v>58412</v>
       </c>
       <c r="H379">
         <v>100766</v>
       </c>
       <c r="I379">
-        <v>100555</v>
+        <v>100560</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -12681,25 +12684,25 @@
         <v>2961</v>
       </c>
       <c r="C380">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="D380">
         <v>14673</v>
       </c>
       <c r="E380">
-        <v>14778</v>
+        <v>14776</v>
       </c>
       <c r="F380">
         <v>58605</v>
       </c>
       <c r="G380">
-        <v>58781</v>
+        <v>58777</v>
       </c>
       <c r="H380">
         <v>101197</v>
       </c>
       <c r="I380">
-        <v>100895</v>
+        <v>100872</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -12716,19 +12719,19 @@
         <v>14530</v>
       </c>
       <c r="E381">
-        <v>14842</v>
+        <v>14841</v>
       </c>
       <c r="F381">
         <v>58233</v>
       </c>
       <c r="G381">
-        <v>58522</v>
+        <v>58505</v>
       </c>
       <c r="H381">
         <v>100472</v>
       </c>
       <c r="I381">
-        <v>99946</v>
+        <v>99930</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -12739,7 +12742,7 @@
         <v>2987</v>
       </c>
       <c r="C382">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="D382">
         <v>14723</v>
@@ -12751,13 +12754,13 @@
         <v>59454</v>
       </c>
       <c r="G382">
-        <v>59278</v>
+        <v>59273</v>
       </c>
       <c r="H382">
         <v>101657</v>
       </c>
       <c r="I382">
-        <v>100728</v>
+        <v>100720</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -12768,25 +12771,25 @@
         <v>2957</v>
       </c>
       <c r="C383">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="D383">
         <v>14740</v>
       </c>
       <c r="E383">
-        <v>15062</v>
+        <v>15061</v>
       </c>
       <c r="F383">
         <v>59127</v>
       </c>
       <c r="G383">
-        <v>59394</v>
+        <v>59382</v>
       </c>
       <c r="H383">
         <v>101237</v>
       </c>
       <c r="I383">
-        <v>100895</v>
+        <v>100850</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -12797,25 +12800,25 @@
         <v>2963</v>
       </c>
       <c r="C384">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="D384">
         <v>14864</v>
       </c>
       <c r="E384">
-        <v>15110</v>
+        <v>15109</v>
       </c>
       <c r="F384">
         <v>59452</v>
       </c>
       <c r="G384">
-        <v>59341</v>
+        <v>59335</v>
       </c>
       <c r="H384">
         <v>101236</v>
       </c>
       <c r="I384">
-        <v>100791</v>
+        <v>100776</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -12826,13 +12829,13 @@
         <v>3082</v>
       </c>
       <c r="C385">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="D385">
         <v>15653</v>
       </c>
       <c r="E385">
-        <v>15153</v>
+        <v>15152</v>
       </c>
       <c r="F385">
         <v>60217</v>
@@ -12844,7 +12847,7 @@
         <v>100900</v>
       </c>
       <c r="I385">
-        <v>100425</v>
+        <v>100405</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -12861,19 +12864,19 @@
         <v>15665</v>
       </c>
       <c r="E386">
-        <v>15291</v>
+        <v>15292</v>
       </c>
       <c r="F386">
         <v>60310</v>
       </c>
       <c r="G386">
-        <v>59989</v>
+        <v>59993</v>
       </c>
       <c r="H386">
         <v>100398</v>
       </c>
       <c r="I386">
-        <v>100763</v>
+        <v>100776</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -12896,13 +12899,13 @@
         <v>60009</v>
       </c>
       <c r="G387">
-        <v>60378</v>
+        <v>60384</v>
       </c>
       <c r="H387">
         <v>100429</v>
       </c>
       <c r="I387">
-        <v>101027</v>
+        <v>101041</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -12913,7 +12916,7 @@
         <v>3035</v>
       </c>
       <c r="C388">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="D388">
         <v>15656</v>
@@ -12925,13 +12928,13 @@
         <v>60811</v>
       </c>
       <c r="G388">
-        <v>61249</v>
+        <v>61259</v>
       </c>
       <c r="H388">
         <v>100778</v>
       </c>
       <c r="I388">
-        <v>101944</v>
+        <v>101962</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -12942,25 +12945,25 @@
         <v>3003</v>
       </c>
       <c r="C389">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="D389">
         <v>15744</v>
       </c>
       <c r="E389">
-        <v>15762</v>
+        <v>15763</v>
       </c>
       <c r="F389">
         <v>61913</v>
       </c>
       <c r="G389">
-        <v>61936</v>
+        <v>61944</v>
       </c>
       <c r="H389">
         <v>102693</v>
       </c>
       <c r="I389">
-        <v>103447</v>
+        <v>103507</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -12971,25 +12974,25 @@
         <v>3007</v>
       </c>
       <c r="C390">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="D390">
         <v>15973</v>
       </c>
       <c r="E390">
-        <v>15840</v>
+        <v>15843</v>
       </c>
       <c r="F390">
         <v>62370</v>
       </c>
       <c r="G390">
-        <v>62470</v>
+        <v>62493</v>
       </c>
       <c r="H390">
         <v>103050</v>
       </c>
       <c r="I390">
-        <v>103591</v>
+        <v>103623</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -13000,25 +13003,25 @@
         <v>3006</v>
       </c>
       <c r="C391">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="D391">
         <v>16154</v>
       </c>
       <c r="E391">
-        <v>15987</v>
+        <v>15988</v>
       </c>
       <c r="F391">
         <v>63098</v>
       </c>
       <c r="G391">
-        <v>62926</v>
+        <v>62945</v>
       </c>
       <c r="H391">
         <v>104275</v>
       </c>
       <c r="I391">
-        <v>103916</v>
+        <v>103958</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -13029,7 +13032,7 @@
         <v>2996</v>
       </c>
       <c r="C392">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="D392">
         <v>15997</v>
@@ -13041,13 +13044,13 @@
         <v>62814</v>
       </c>
       <c r="G392">
-        <v>63014</v>
+        <v>63005</v>
       </c>
       <c r="H392">
         <v>104905</v>
       </c>
       <c r="I392">
-        <v>104488</v>
+        <v>104444</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -13058,25 +13061,25 @@
         <v>2973</v>
       </c>
       <c r="C393">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="D393">
         <v>15757</v>
       </c>
       <c r="E393">
-        <v>16102</v>
+        <v>16099</v>
       </c>
       <c r="F393">
         <v>62793</v>
       </c>
       <c r="G393">
-        <v>63036</v>
+        <v>63001</v>
       </c>
       <c r="H393">
         <v>105384</v>
       </c>
       <c r="I393">
-        <v>104714</v>
+        <v>104689</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -13087,25 +13090,25 @@
         <v>3058</v>
       </c>
       <c r="C394">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="D394">
         <v>16139</v>
       </c>
       <c r="E394">
-        <v>16189</v>
+        <v>16186</v>
       </c>
       <c r="F394">
         <v>63353</v>
       </c>
       <c r="G394">
-        <v>63176</v>
+        <v>63159</v>
       </c>
       <c r="H394">
         <v>106537</v>
       </c>
       <c r="I394">
-        <v>105369</v>
+        <v>105333</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -13116,25 +13119,25 @@
         <v>3006</v>
       </c>
       <c r="C395">
-        <v>3002</v>
+        <v>3005</v>
       </c>
       <c r="D395">
         <v>15883</v>
       </c>
       <c r="E395">
-        <v>16176</v>
+        <v>16177</v>
       </c>
       <c r="F395">
         <v>62636</v>
       </c>
       <c r="G395">
-        <v>62952</v>
+        <v>62936</v>
       </c>
       <c r="H395">
         <v>106071</v>
       </c>
       <c r="I395">
-        <v>105565</v>
+        <v>105499</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -13145,25 +13148,25 @@
         <v>2998</v>
       </c>
       <c r="C396">
-        <v>3005</v>
+        <v>3007</v>
       </c>
       <c r="D396">
         <v>15991</v>
       </c>
       <c r="E396">
-        <v>16236</v>
+        <v>16235</v>
       </c>
       <c r="F396">
         <v>63902</v>
       </c>
       <c r="G396">
-        <v>63651</v>
+        <v>63645</v>
       </c>
       <c r="H396">
         <v>107666</v>
       </c>
       <c r="I396">
-        <v>107040</v>
+        <v>107032</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -13174,25 +13177,25 @@
         <v>3110</v>
       </c>
       <c r="C397">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="D397">
         <v>16729</v>
       </c>
       <c r="E397">
-        <v>16268</v>
+        <v>16264</v>
       </c>
       <c r="F397">
         <v>64961</v>
       </c>
       <c r="G397">
-        <v>64049</v>
+        <v>64044</v>
       </c>
       <c r="H397">
         <v>109083</v>
       </c>
       <c r="I397">
-        <v>108859</v>
+        <v>108822</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -13203,25 +13206,25 @@
         <v>3080</v>
       </c>
       <c r="C398">
-        <v>3068</v>
+        <v>3070</v>
       </c>
       <c r="D398">
         <v>16741</v>
       </c>
       <c r="E398">
-        <v>16417</v>
+        <v>16415</v>
       </c>
       <c r="F398">
         <v>64361</v>
       </c>
       <c r="G398">
-        <v>64116</v>
+        <v>64117</v>
       </c>
       <c r="H398">
         <v>108838</v>
       </c>
       <c r="I398">
-        <v>109482</v>
+        <v>109493</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -13238,19 +13241,19 @@
         <v>16474</v>
       </c>
       <c r="E399">
-        <v>16523</v>
+        <v>16524</v>
       </c>
       <c r="F399">
         <v>63835</v>
       </c>
       <c r="G399">
-        <v>64309</v>
+        <v>64320</v>
       </c>
       <c r="H399">
         <v>108969</v>
       </c>
       <c r="I399">
-        <v>109787</v>
+        <v>109814</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -13261,25 +13264,25 @@
         <v>3060</v>
       </c>
       <c r="C400">
-        <v>3129</v>
+        <v>3124</v>
       </c>
       <c r="D400">
         <v>16530</v>
       </c>
       <c r="E400">
-        <v>16677</v>
+        <v>16680</v>
       </c>
       <c r="F400">
         <v>64035</v>
       </c>
       <c r="G400">
-        <v>64349</v>
+        <v>64373</v>
       </c>
       <c r="H400">
         <v>109195</v>
       </c>
       <c r="I400">
-        <v>110419</v>
+        <v>110470</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -13290,25 +13293,25 @@
         <v>3040</v>
       </c>
       <c r="C401">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="D401">
         <v>16836</v>
       </c>
       <c r="E401">
-        <v>16810</v>
+        <v>16813</v>
       </c>
       <c r="F401">
         <v>64863</v>
       </c>
       <c r="G401">
-        <v>64985</v>
+        <v>65000</v>
       </c>
       <c r="H401">
         <v>110634</v>
       </c>
       <c r="I401">
-        <v>111525</v>
+        <v>111621</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -13319,25 +13322,25 @@
         <v>3057</v>
       </c>
       <c r="C402">
-        <v>3062</v>
+        <v>3056</v>
       </c>
       <c r="D402">
         <v>16996</v>
       </c>
       <c r="E402">
-        <v>16904</v>
+        <v>16913</v>
       </c>
       <c r="F402">
         <v>65079</v>
       </c>
       <c r="G402">
-        <v>65100</v>
+        <v>65142</v>
       </c>
       <c r="H402">
         <v>111300</v>
       </c>
       <c r="I402">
-        <v>111884</v>
+        <v>111917</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -13348,25 +13351,25 @@
         <v>3063</v>
       </c>
       <c r="C403">
-        <v>3057</v>
+        <v>3053</v>
       </c>
       <c r="D403">
         <v>17123</v>
       </c>
       <c r="E403">
-        <v>16878</v>
+        <v>16889</v>
       </c>
       <c r="F403">
         <v>65189</v>
       </c>
       <c r="G403">
-        <v>65061</v>
+        <v>65098</v>
       </c>
       <c r="H403">
         <v>112754</v>
       </c>
       <c r="I403">
-        <v>112351</v>
+        <v>112454</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -13383,19 +13386,19 @@
         <v>17144</v>
       </c>
       <c r="E404">
-        <v>17138</v>
+        <v>17130</v>
       </c>
       <c r="F404">
         <v>65186</v>
       </c>
       <c r="G404">
-        <v>65421</v>
+        <v>65391</v>
       </c>
       <c r="H404">
         <v>113201</v>
       </c>
       <c r="I404">
-        <v>113000</v>
+        <v>112889</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -13406,25 +13409,25 @@
         <v>3053</v>
       </c>
       <c r="C405">
-        <v>3062</v>
+        <v>3066</v>
       </c>
       <c r="D405">
         <v>17145</v>
       </c>
       <c r="E405">
-        <v>17426</v>
+        <v>17415</v>
       </c>
       <c r="F405">
         <v>65912</v>
       </c>
       <c r="G405">
-        <v>66038</v>
+        <v>65983</v>
       </c>
       <c r="H405">
         <v>114308</v>
       </c>
       <c r="I405">
-        <v>113439</v>
+        <v>113397</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -13435,25 +13438,25 @@
         <v>3140</v>
       </c>
       <c r="C406">
-        <v>3068</v>
+        <v>3074</v>
       </c>
       <c r="D406">
         <v>17763</v>
       </c>
       <c r="E406">
-        <v>17780</v>
+        <v>17771</v>
       </c>
       <c r="F406">
         <v>66832</v>
       </c>
       <c r="G406">
-        <v>66714</v>
+        <v>66684</v>
       </c>
       <c r="H406">
         <v>115725</v>
       </c>
       <c r="I406">
-        <v>114421</v>
+        <v>114353</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -13464,25 +13467,25 @@
         <v>3121</v>
       </c>
       <c r="C407">
-        <v>3092</v>
+        <v>3098</v>
       </c>
       <c r="D407">
         <v>17923</v>
       </c>
       <c r="E407">
-        <v>18226</v>
+        <v>18229</v>
       </c>
       <c r="F407">
         <v>66618</v>
       </c>
       <c r="G407">
-        <v>66993</v>
+        <v>66976</v>
       </c>
       <c r="H407">
         <v>115433</v>
       </c>
       <c r="I407">
-        <v>114964</v>
+        <v>114880</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -13493,25 +13496,25 @@
         <v>3273</v>
       </c>
       <c r="C408">
-        <v>3271</v>
+        <v>3277</v>
       </c>
       <c r="D408">
         <v>18710</v>
       </c>
       <c r="E408">
-        <v>18962</v>
+        <v>18956</v>
       </c>
       <c r="F408">
         <v>68340</v>
       </c>
       <c r="G408">
-        <v>68166</v>
+        <v>68148</v>
       </c>
       <c r="H408">
         <v>116632</v>
       </c>
       <c r="I408">
-        <v>115912</v>
+        <v>115879</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -13522,25 +13525,25 @@
         <v>3380</v>
       </c>
       <c r="C409">
-        <v>3316</v>
+        <v>3322</v>
       </c>
       <c r="D409">
         <v>19470</v>
       </c>
       <c r="E409">
-        <v>19034</v>
+        <v>19027</v>
       </c>
       <c r="F409">
         <v>69582</v>
       </c>
       <c r="G409">
-        <v>68628</v>
+        <v>68619</v>
       </c>
       <c r="H409">
         <v>117290</v>
       </c>
       <c r="I409">
-        <v>116890</v>
+        <v>116841</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -13551,25 +13554,25 @@
         <v>3346</v>
       </c>
       <c r="C410">
-        <v>3355</v>
+        <v>3357</v>
       </c>
       <c r="D410">
         <v>19148</v>
       </c>
       <c r="E410">
-        <v>18832</v>
+        <v>18830</v>
       </c>
       <c r="F410">
         <v>68747</v>
       </c>
       <c r="G410">
-        <v>68406</v>
+        <v>68409</v>
       </c>
       <c r="H410">
         <v>116588</v>
       </c>
       <c r="I410">
-        <v>117253</v>
+        <v>117277</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -13580,25 +13583,25 @@
         <v>3359</v>
       </c>
       <c r="C411">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="D411">
         <v>19060</v>
       </c>
       <c r="E411">
-        <v>18994</v>
+        <v>18997</v>
       </c>
       <c r="F411">
         <v>68708</v>
       </c>
       <c r="G411">
-        <v>69293</v>
+        <v>69308</v>
       </c>
       <c r="H411">
         <v>117030</v>
       </c>
       <c r="I411">
-        <v>118179</v>
+        <v>118211</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -13609,25 +13612,25 @@
         <v>3404</v>
       </c>
       <c r="C412">
-        <v>3516</v>
+        <v>3507</v>
       </c>
       <c r="D412">
         <v>19887</v>
       </c>
       <c r="E412">
-        <v>20138</v>
+        <v>20144</v>
       </c>
       <c r="F412">
         <v>68893</v>
       </c>
       <c r="G412">
-        <v>69403</v>
+        <v>69435</v>
       </c>
       <c r="H412">
         <v>116703</v>
       </c>
       <c r="I412">
-        <v>118236</v>
+        <v>118312</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -13638,25 +13641,25 @@
         <v>3595</v>
       </c>
       <c r="C413">
-        <v>3656</v>
+        <v>3644</v>
       </c>
       <c r="D413">
         <v>21501</v>
       </c>
       <c r="E413">
-        <v>21512</v>
+        <v>21520</v>
       </c>
       <c r="F413">
         <v>69970</v>
       </c>
       <c r="G413">
-        <v>70103</v>
+        <v>70132</v>
       </c>
       <c r="H413">
         <v>117204</v>
       </c>
       <c r="I413">
-        <v>118273</v>
+        <v>118404</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -13667,25 +13670,25 @@
         <v>3757</v>
       </c>
       <c r="C414">
-        <v>3769</v>
+        <v>3754</v>
       </c>
       <c r="D414">
         <v>22300</v>
       </c>
       <c r="E414">
-        <v>22055</v>
+        <v>22080</v>
       </c>
       <c r="F414">
         <v>69897</v>
       </c>
       <c r="G414">
-        <v>69768</v>
+        <v>69837</v>
       </c>
       <c r="H414">
         <v>118047</v>
       </c>
       <c r="I414">
-        <v>118437</v>
+        <v>118486</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -13696,25 +13699,25 @@
         <v>3866</v>
       </c>
       <c r="C415">
-        <v>3855</v>
+        <v>3844</v>
       </c>
       <c r="D415">
         <v>23344</v>
       </c>
       <c r="E415">
-        <v>22968</v>
+        <v>22998</v>
       </c>
       <c r="F415">
         <v>70154</v>
       </c>
       <c r="G415">
-        <v>70019</v>
+        <v>70077</v>
       </c>
       <c r="H415">
         <v>120075</v>
       </c>
       <c r="I415">
-        <v>119487</v>
+        <v>119657</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -13731,19 +13734,19 @@
         <v>23753</v>
       </c>
       <c r="E416">
-        <v>23692</v>
+        <v>23672</v>
       </c>
       <c r="F416">
         <v>70043</v>
       </c>
       <c r="G416">
-        <v>70168</v>
+        <v>70121</v>
       </c>
       <c r="H416">
         <v>119780</v>
       </c>
       <c r="I416">
-        <v>119459</v>
+        <v>119301</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -13754,25 +13757,25 @@
         <v>4451</v>
       </c>
       <c r="C417">
-        <v>4429</v>
+        <v>4442</v>
       </c>
       <c r="D417">
         <v>26409</v>
       </c>
       <c r="E417">
-        <v>26861</v>
+        <v>26830</v>
       </c>
       <c r="F417">
         <v>70892</v>
       </c>
       <c r="G417">
-        <v>71085</v>
+        <v>71007</v>
       </c>
       <c r="H417">
         <v>121391</v>
       </c>
       <c r="I417">
-        <v>120609</v>
+        <v>120533</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -13783,25 +13786,25 @@
         <v>4941</v>
       </c>
       <c r="C418">
-        <v>4828</v>
+        <v>4844</v>
       </c>
       <c r="D418">
         <v>27868</v>
       </c>
       <c r="E418">
-        <v>27971</v>
+        <v>27950</v>
       </c>
       <c r="F418">
         <v>70787</v>
       </c>
       <c r="G418">
-        <v>70727</v>
+        <v>70684</v>
       </c>
       <c r="H418">
         <v>122590</v>
       </c>
       <c r="I418">
-        <v>121225</v>
+        <v>121135</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -13812,25 +13815,25 @@
         <v>5085</v>
       </c>
       <c r="C419">
-        <v>5007</v>
+        <v>5023</v>
       </c>
       <c r="D419">
         <v>27767</v>
       </c>
       <c r="E419">
-        <v>28288</v>
+        <v>28289</v>
       </c>
       <c r="F419">
         <v>70999</v>
       </c>
       <c r="G419">
-        <v>71396</v>
+        <v>71368</v>
       </c>
       <c r="H419">
         <v>121544</v>
       </c>
       <c r="I419">
-        <v>120937</v>
+        <v>120824</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -13841,25 +13844,25 @@
         <v>5081</v>
       </c>
       <c r="C420">
-        <v>5059</v>
+        <v>5074</v>
       </c>
       <c r="D420">
         <v>27382</v>
       </c>
       <c r="E420">
-        <v>27943</v>
+        <v>27930</v>
       </c>
       <c r="F420">
         <v>70590</v>
       </c>
       <c r="G420">
-        <v>70475</v>
+        <v>70453</v>
       </c>
       <c r="H420">
         <v>122072</v>
       </c>
       <c r="I420">
-        <v>121395</v>
+        <v>121352</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -13870,25 +13873,25 @@
         <v>5175</v>
       </c>
       <c r="C421">
-        <v>5092</v>
+        <v>5102</v>
       </c>
       <c r="D421">
         <v>29142</v>
       </c>
       <c r="E421">
-        <v>28403</v>
+        <v>28390</v>
       </c>
       <c r="F421">
         <v>71009</v>
       </c>
       <c r="G421">
-        <v>70222</v>
+        <v>70212</v>
       </c>
       <c r="H421">
         <v>118919</v>
       </c>
       <c r="I421">
-        <v>118771</v>
+        <v>118723</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -13899,25 +13902,25 @@
         <v>5521</v>
       </c>
       <c r="C422">
-        <v>5572</v>
+        <v>5575</v>
       </c>
       <c r="D422">
         <v>30440</v>
       </c>
       <c r="E422">
-        <v>29737</v>
+        <v>29733</v>
       </c>
       <c r="F422">
         <v>71277</v>
       </c>
       <c r="G422">
-        <v>70842</v>
+        <v>70848</v>
       </c>
       <c r="H422">
         <v>118116</v>
       </c>
       <c r="I422">
-        <v>118779</v>
+        <v>118807</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -13928,25 +13931,25 @@
         <v>5594</v>
       </c>
       <c r="C423">
-        <v>5696</v>
+        <v>5692</v>
       </c>
       <c r="D423">
         <v>29964</v>
       </c>
       <c r="E423">
-        <v>30134</v>
+        <v>30142</v>
       </c>
       <c r="F423">
         <v>70273</v>
       </c>
       <c r="G423">
-        <v>70724</v>
+        <v>70747</v>
       </c>
       <c r="H423">
         <v>118157</v>
       </c>
       <c r="I423">
-        <v>119156</v>
+        <v>119211</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -13957,25 +13960,25 @@
         <v>5548</v>
       </c>
       <c r="C424">
-        <v>5769</v>
+        <v>5750</v>
       </c>
       <c r="D424">
         <v>30207</v>
       </c>
       <c r="E424">
-        <v>30514</v>
+        <v>30529</v>
       </c>
       <c r="F424">
         <v>70529</v>
       </c>
       <c r="G424">
-        <v>71054</v>
+        <v>71095</v>
       </c>
       <c r="H424">
         <v>117910</v>
       </c>
       <c r="I424">
-        <v>119568</v>
+        <v>119667</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -13986,25 +13989,25 @@
         <v>5513</v>
       </c>
       <c r="C425">
-        <v>5631</v>
+        <v>5606</v>
       </c>
       <c r="D425">
         <v>30162</v>
       </c>
       <c r="E425">
-        <v>30269</v>
+        <v>30287</v>
       </c>
       <c r="F425">
         <v>70741</v>
       </c>
       <c r="G425">
-        <v>70827</v>
+        <v>70866</v>
       </c>
       <c r="H425">
         <v>119194</v>
       </c>
       <c r="I425">
-        <v>120219</v>
+        <v>120371</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -14015,25 +14018,25 @@
         <v>5921</v>
       </c>
       <c r="C426">
-        <v>5949</v>
+        <v>5915</v>
       </c>
       <c r="D426">
         <v>33652</v>
       </c>
       <c r="E426">
-        <v>33451</v>
+        <v>33497</v>
       </c>
       <c r="F426">
         <v>71933</v>
       </c>
       <c r="G426">
-        <v>71991</v>
+        <v>72068</v>
       </c>
       <c r="H426">
-        <v>121068</v>
+        <v>121134</v>
       </c>
       <c r="I426">
-        <v>121642</v>
+        <v>121762</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -14044,25 +14047,54 @@
         <v>6305</v>
       </c>
       <c r="C427">
-        <v>6271</v>
+        <v>6239</v>
       </c>
       <c r="D427">
         <v>34594</v>
       </c>
       <c r="E427">
-        <v>33969</v>
+        <v>34039</v>
       </c>
       <c r="F427">
-        <v>72656</v>
+        <v>72780</v>
       </c>
       <c r="G427">
-        <v>72468</v>
+        <v>72664</v>
       </c>
       <c r="H427">
-        <v>122300</v>
+        <v>122409</v>
       </c>
       <c r="I427">
-        <v>121654</v>
+        <v>121978</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" t="s">
+        <v>435</v>
+      </c>
+      <c r="B428">
+        <v>6402</v>
+      </c>
+      <c r="C428">
+        <v>6311</v>
+      </c>
+      <c r="D428">
+        <v>34779</v>
+      </c>
+      <c r="E428">
+        <v>34651</v>
+      </c>
+      <c r="F428">
+        <v>73334</v>
+      </c>
+      <c r="G428">
+        <v>73524</v>
+      </c>
+      <c r="H428">
+        <v>123831</v>
+      </c>
+      <c r="I428">
+        <v>123267</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/2/Agregados promedios 1985 a 2021 - Mensual.xlsx
+++ b/5/1/2/Agregados promedios 1985 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="437">
   <si>
     <t>Serie</t>
   </si>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1740,7 +1743,7 @@
         <v>5466</v>
       </c>
       <c r="I2">
-        <v>5429</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1798,7 +1801,7 @@
         <v>5677</v>
       </c>
       <c r="I4">
-        <v>5602</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1856,7 +1859,7 @@
         <v>5737</v>
       </c>
       <c r="I6">
-        <v>5747</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1885,7 +1888,7 @@
         <v>5828</v>
       </c>
       <c r="I7">
-        <v>5781</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1937,7 +1940,7 @@
         <v>3612</v>
       </c>
       <c r="G9">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="H9">
         <v>5950</v>
@@ -2001,7 +2004,7 @@
         <v>6026</v>
       </c>
       <c r="I11">
-        <v>6173</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2030,7 +2033,7 @@
         <v>6178</v>
       </c>
       <c r="I12">
-        <v>6315</v>
+        <v>6314</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2041,7 +2044,7 @@
         <v>378</v>
       </c>
       <c r="C13">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D13">
         <v>1072</v>
@@ -2053,7 +2056,7 @@
         <v>3753</v>
       </c>
       <c r="G13">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="H13">
         <v>6267</v>
@@ -2088,7 +2091,7 @@
         <v>6331</v>
       </c>
       <c r="I14">
-        <v>6283</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2204,7 +2207,7 @@
         <v>6539</v>
       </c>
       <c r="I18">
-        <v>6554</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2233,7 +2236,7 @@
         <v>6765</v>
       </c>
       <c r="I19">
-        <v>6709</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2349,7 +2352,7 @@
         <v>6818</v>
       </c>
       <c r="I23">
-        <v>6983</v>
+        <v>6982</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2378,7 +2381,7 @@
         <v>6946</v>
       </c>
       <c r="I24">
-        <v>7103</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2494,7 +2497,7 @@
         <v>7612</v>
       </c>
       <c r="I28">
-        <v>7492</v>
+        <v>7493</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2552,7 +2555,7 @@
         <v>7817</v>
       </c>
       <c r="I30">
-        <v>7849</v>
+        <v>7847</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2581,7 +2584,7 @@
         <v>7929</v>
       </c>
       <c r="I31">
-        <v>7880</v>
+        <v>7882</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2691,13 +2694,13 @@
         <v>4974</v>
       </c>
       <c r="G35">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="H35">
         <v>8292</v>
       </c>
       <c r="I35">
-        <v>8508</v>
+        <v>8507</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2720,13 +2723,13 @@
         <v>4875</v>
       </c>
       <c r="G36">
-        <v>4976</v>
+        <v>4977</v>
       </c>
       <c r="H36">
         <v>8245</v>
       </c>
       <c r="I36">
-        <v>8427</v>
+        <v>8426</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2900,7 +2903,7 @@
         <v>9181</v>
       </c>
       <c r="I42">
-        <v>9220</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2929,7 +2932,7 @@
         <v>9475</v>
       </c>
       <c r="I43">
-        <v>9435</v>
+        <v>9438</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2958,7 +2961,7 @@
         <v>9525</v>
       </c>
       <c r="I44">
-        <v>9486</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3039,7 +3042,7 @@
         <v>5122</v>
       </c>
       <c r="G47">
-        <v>5260</v>
+        <v>5261</v>
       </c>
       <c r="H47">
         <v>9627</v>
@@ -3126,7 +3129,7 @@
         <v>5373</v>
       </c>
       <c r="G50">
-        <v>5299</v>
+        <v>5300</v>
       </c>
       <c r="H50">
         <v>10187</v>
@@ -3161,7 +3164,7 @@
         <v>10507</v>
       </c>
       <c r="I51">
-        <v>10348</v>
+        <v>10347</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3184,7 +3187,7 @@
         <v>5364</v>
       </c>
       <c r="G52">
-        <v>5285</v>
+        <v>5284</v>
       </c>
       <c r="H52">
         <v>10674</v>
@@ -3242,13 +3245,13 @@
         <v>5401</v>
       </c>
       <c r="G54">
-        <v>5420</v>
+        <v>5419</v>
       </c>
       <c r="H54">
         <v>10690</v>
       </c>
       <c r="I54">
-        <v>10762</v>
+        <v>10760</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3277,7 +3280,7 @@
         <v>10795</v>
       </c>
       <c r="I55">
-        <v>10766</v>
+        <v>10770</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3306,7 +3309,7 @@
         <v>10946</v>
       </c>
       <c r="I56">
-        <v>10909</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3335,7 +3338,7 @@
         <v>11009</v>
       </c>
       <c r="I57">
-        <v>11017</v>
+        <v>11016</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3358,7 +3361,7 @@
         <v>5194</v>
       </c>
       <c r="G58">
-        <v>5235</v>
+        <v>5234</v>
       </c>
       <c r="H58">
         <v>10788</v>
@@ -3381,19 +3384,19 @@
         <v>1050</v>
       </c>
       <c r="E59">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F59">
         <v>5170</v>
       </c>
       <c r="G59">
-        <v>5318</v>
+        <v>5317</v>
       </c>
       <c r="H59">
         <v>10746</v>
       </c>
       <c r="I59">
-        <v>11052</v>
+        <v>11051</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3410,7 +3413,7 @@
         <v>1058</v>
       </c>
       <c r="E60">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F60">
         <v>5328</v>
@@ -3422,7 +3425,7 @@
         <v>11093</v>
       </c>
       <c r="I60">
-        <v>11292</v>
+        <v>11291</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3532,7 +3535,7 @@
         <v>5714</v>
       </c>
       <c r="G64">
-        <v>5632</v>
+        <v>5633</v>
       </c>
       <c r="H64">
         <v>12208</v>
@@ -3596,7 +3599,7 @@
         <v>11962</v>
       </c>
       <c r="I66">
-        <v>12058</v>
+        <v>12057</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3625,7 +3628,7 @@
         <v>12151</v>
       </c>
       <c r="I67">
-        <v>12153</v>
+        <v>12155</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3712,7 +3715,7 @@
         <v>12784</v>
       </c>
       <c r="I70">
-        <v>12861</v>
+        <v>12862</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3735,7 +3738,7 @@
         <v>5982</v>
       </c>
       <c r="G71">
-        <v>6137</v>
+        <v>6138</v>
       </c>
       <c r="H71">
         <v>12760</v>
@@ -3764,7 +3767,7 @@
         <v>6154</v>
       </c>
       <c r="G72">
-        <v>6275</v>
+        <v>6274</v>
       </c>
       <c r="H72">
         <v>13123</v>
@@ -3839,7 +3842,7 @@
         <v>517</v>
       </c>
       <c r="C75">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D75">
         <v>1613</v>
@@ -3857,7 +3860,7 @@
         <v>14134</v>
       </c>
       <c r="I75">
-        <v>13899</v>
+        <v>13898</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3886,7 +3889,7 @@
         <v>14246</v>
       </c>
       <c r="I76">
-        <v>13995</v>
+        <v>13994</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3909,7 +3912,7 @@
         <v>7041</v>
       </c>
       <c r="G77">
-        <v>6990</v>
+        <v>6989</v>
       </c>
       <c r="H77">
         <v>14200</v>
@@ -3973,7 +3976,7 @@
         <v>14540</v>
       </c>
       <c r="I79">
-        <v>14542</v>
+        <v>14543</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3984,7 +3987,7 @@
         <v>507</v>
       </c>
       <c r="C80">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D80">
         <v>1689</v>
@@ -4025,7 +4028,7 @@
         <v>7118</v>
       </c>
       <c r="G81">
-        <v>7188</v>
+        <v>7187</v>
       </c>
       <c r="H81">
         <v>14738</v>
@@ -4054,13 +4057,13 @@
         <v>7166</v>
       </c>
       <c r="G82">
-        <v>7257</v>
+        <v>7256</v>
       </c>
       <c r="H82">
         <v>14561</v>
       </c>
       <c r="I82">
-        <v>14681</v>
+        <v>14682</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4118,7 +4121,7 @@
         <v>14833</v>
       </c>
       <c r="I84">
-        <v>15030</v>
+        <v>15029</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4141,7 +4144,7 @@
         <v>7550</v>
       </c>
       <c r="G85">
-        <v>7523</v>
+        <v>7522</v>
       </c>
       <c r="H85">
         <v>15260</v>
@@ -4193,13 +4196,13 @@
         <v>1942</v>
       </c>
       <c r="E87">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="F87">
         <v>7829</v>
       </c>
       <c r="G87">
-        <v>7681</v>
+        <v>7682</v>
       </c>
       <c r="H87">
         <v>15778</v>
@@ -4228,13 +4231,13 @@
         <v>7859</v>
       </c>
       <c r="G88">
-        <v>7744</v>
+        <v>7745</v>
       </c>
       <c r="H88">
         <v>15793</v>
       </c>
       <c r="I88">
-        <v>15557</v>
+        <v>15556</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4286,7 +4289,7 @@
         <v>7865</v>
       </c>
       <c r="G90">
-        <v>7911</v>
+        <v>7910</v>
       </c>
       <c r="H90">
         <v>15827</v>
@@ -4315,7 +4318,7 @@
         <v>8052</v>
       </c>
       <c r="G91">
-        <v>8033</v>
+        <v>8034</v>
       </c>
       <c r="H91">
         <v>16136</v>
@@ -4344,7 +4347,7 @@
         <v>8081</v>
       </c>
       <c r="G92">
-        <v>8084</v>
+        <v>8083</v>
       </c>
       <c r="H92">
         <v>16345</v>
@@ -4373,7 +4376,7 @@
         <v>8004</v>
       </c>
       <c r="G93">
-        <v>8088</v>
+        <v>8086</v>
       </c>
       <c r="H93">
         <v>16218</v>
@@ -4431,13 +4434,13 @@
         <v>8102</v>
       </c>
       <c r="G95">
-        <v>8216</v>
+        <v>8217</v>
       </c>
       <c r="H95">
         <v>16339</v>
       </c>
       <c r="I95">
-        <v>16629</v>
+        <v>16628</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4489,13 +4492,13 @@
         <v>8440</v>
       </c>
       <c r="G97">
-        <v>8415</v>
+        <v>8416</v>
       </c>
       <c r="H97">
         <v>17153</v>
       </c>
       <c r="I97">
-        <v>17075</v>
+        <v>17076</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4547,7 +4550,7 @@
         <v>8568</v>
       </c>
       <c r="G99">
-        <v>8431</v>
+        <v>8432</v>
       </c>
       <c r="H99">
         <v>17416</v>
@@ -4576,7 +4579,7 @@
         <v>8607</v>
       </c>
       <c r="G100">
-        <v>8502</v>
+        <v>8503</v>
       </c>
       <c r="H100">
         <v>17396</v>
@@ -4593,7 +4596,7 @@
         <v>587</v>
       </c>
       <c r="C101">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D101">
         <v>1896</v>
@@ -4605,7 +4608,7 @@
         <v>8568</v>
       </c>
       <c r="G101">
-        <v>8497</v>
+        <v>8498</v>
       </c>
       <c r="H101">
         <v>17292</v>
@@ -4634,7 +4637,7 @@
         <v>8508</v>
       </c>
       <c r="G102">
-        <v>8550</v>
+        <v>8551</v>
       </c>
       <c r="H102">
         <v>17137</v>
@@ -4669,7 +4672,7 @@
         <v>17319</v>
       </c>
       <c r="I103">
-        <v>17320</v>
+        <v>17319</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4692,7 +4695,7 @@
         <v>8733</v>
       </c>
       <c r="G104">
-        <v>8722</v>
+        <v>8723</v>
       </c>
       <c r="H104">
         <v>17569</v>
@@ -4721,13 +4724,13 @@
         <v>8716</v>
       </c>
       <c r="G105">
-        <v>8810</v>
+        <v>8805</v>
       </c>
       <c r="H105">
         <v>17667</v>
       </c>
       <c r="I105">
-        <v>17773</v>
+        <v>17774</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4750,7 +4753,7 @@
         <v>8842</v>
       </c>
       <c r="G106">
-        <v>8903</v>
+        <v>8902</v>
       </c>
       <c r="H106">
         <v>17870</v>
@@ -4779,7 +4782,7 @@
         <v>8887</v>
       </c>
       <c r="G107">
-        <v>8988</v>
+        <v>8987</v>
       </c>
       <c r="H107">
         <v>18427</v>
@@ -4808,7 +4811,7 @@
         <v>8916</v>
       </c>
       <c r="G108">
-        <v>9054</v>
+        <v>9055</v>
       </c>
       <c r="H108">
         <v>18475</v>
@@ -4837,7 +4840,7 @@
         <v>9172</v>
       </c>
       <c r="G109">
-        <v>9141</v>
+        <v>9142</v>
       </c>
       <c r="H109">
         <v>18856</v>
@@ -4872,7 +4875,7 @@
         <v>18945</v>
       </c>
       <c r="I110">
-        <v>18805</v>
+        <v>18806</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4895,7 +4898,7 @@
         <v>9379</v>
       </c>
       <c r="G111">
-        <v>9264</v>
+        <v>9265</v>
       </c>
       <c r="H111">
         <v>19163</v>
@@ -4924,7 +4927,7 @@
         <v>9599</v>
       </c>
       <c r="G112">
-        <v>9505</v>
+        <v>9507</v>
       </c>
       <c r="H112">
         <v>19356</v>
@@ -4953,7 +4956,7 @@
         <v>9649</v>
       </c>
       <c r="G113">
-        <v>9594</v>
+        <v>9595</v>
       </c>
       <c r="H113">
         <v>19400</v>
@@ -4982,7 +4985,7 @@
         <v>9676</v>
       </c>
       <c r="G114">
-        <v>9708</v>
+        <v>9710</v>
       </c>
       <c r="H114">
         <v>19588</v>
@@ -5011,7 +5014,7 @@
         <v>9955</v>
       </c>
       <c r="G115">
-        <v>9897</v>
+        <v>9899</v>
       </c>
       <c r="H115">
         <v>19930</v>
@@ -5069,7 +5072,7 @@
         <v>9948</v>
       </c>
       <c r="G117">
-        <v>10056</v>
+        <v>10045</v>
       </c>
       <c r="H117">
         <v>19860</v>
@@ -5098,7 +5101,7 @@
         <v>10134</v>
       </c>
       <c r="G118">
-        <v>10176</v>
+        <v>10177</v>
       </c>
       <c r="H118">
         <v>20138</v>
@@ -5127,13 +5130,13 @@
         <v>10196</v>
       </c>
       <c r="G119">
-        <v>10272</v>
+        <v>10274</v>
       </c>
       <c r="H119">
         <v>20114</v>
       </c>
       <c r="I119">
-        <v>20355</v>
+        <v>20356</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5185,13 +5188,13 @@
         <v>10517</v>
       </c>
       <c r="G121">
-        <v>10499</v>
+        <v>10501</v>
       </c>
       <c r="H121">
         <v>20959</v>
       </c>
       <c r="I121">
-        <v>20838</v>
+        <v>20839</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5214,7 +5217,7 @@
         <v>10859</v>
       </c>
       <c r="G122">
-        <v>10746</v>
+        <v>10747</v>
       </c>
       <c r="H122">
         <v>21202</v>
@@ -5243,7 +5246,7 @@
         <v>11032</v>
       </c>
       <c r="G123">
-        <v>10967</v>
+        <v>10968</v>
       </c>
       <c r="H123">
         <v>21442</v>
@@ -5272,7 +5275,7 @@
         <v>11044</v>
       </c>
       <c r="G124">
-        <v>10967</v>
+        <v>10969</v>
       </c>
       <c r="H124">
         <v>21609</v>
@@ -5301,7 +5304,7 @@
         <v>11184</v>
       </c>
       <c r="G125">
-        <v>11155</v>
+        <v>11156</v>
       </c>
       <c r="H125">
         <v>21589</v>
@@ -5330,7 +5333,7 @@
         <v>11235</v>
       </c>
       <c r="G126">
-        <v>11259</v>
+        <v>11260</v>
       </c>
       <c r="H126">
         <v>21519</v>
@@ -5359,7 +5362,7 @@
         <v>11416</v>
       </c>
       <c r="G127">
-        <v>11342</v>
+        <v>11345</v>
       </c>
       <c r="H127">
         <v>21960</v>
@@ -5388,7 +5391,7 @@
         <v>11579</v>
       </c>
       <c r="G128">
-        <v>11542</v>
+        <v>11544</v>
       </c>
       <c r="H128">
         <v>22431</v>
@@ -5417,7 +5420,7 @@
         <v>11695</v>
       </c>
       <c r="G129">
-        <v>11780</v>
+        <v>11765</v>
       </c>
       <c r="H129">
         <v>22821</v>
@@ -5475,7 +5478,7 @@
         <v>11865</v>
       </c>
       <c r="G131">
-        <v>11960</v>
+        <v>11961</v>
       </c>
       <c r="H131">
         <v>22978</v>
@@ -5533,7 +5536,7 @@
         <v>12135</v>
       </c>
       <c r="G133">
-        <v>12138</v>
+        <v>12140</v>
       </c>
       <c r="H133">
         <v>23370</v>
@@ -5591,7 +5594,7 @@
         <v>12446</v>
       </c>
       <c r="G135">
-        <v>12384</v>
+        <v>12385</v>
       </c>
       <c r="H135">
         <v>23884</v>
@@ -5620,7 +5623,7 @@
         <v>12508</v>
       </c>
       <c r="G136">
-        <v>12519</v>
+        <v>12520</v>
       </c>
       <c r="H136">
         <v>24029</v>
@@ -5649,7 +5652,7 @@
         <v>12732</v>
       </c>
       <c r="G137">
-        <v>12687</v>
+        <v>12690</v>
       </c>
       <c r="H137">
         <v>24462</v>
@@ -5678,7 +5681,7 @@
         <v>12847</v>
       </c>
       <c r="G138">
-        <v>12825</v>
+        <v>12826</v>
       </c>
       <c r="H138">
         <v>24663</v>
@@ -5707,7 +5710,7 @@
         <v>13107</v>
       </c>
       <c r="G139">
-        <v>13025</v>
+        <v>13028</v>
       </c>
       <c r="H139">
         <v>25102</v>
@@ -5736,7 +5739,7 @@
         <v>13128</v>
       </c>
       <c r="G140">
-        <v>13062</v>
+        <v>13064</v>
       </c>
       <c r="H140">
         <v>25297</v>
@@ -5765,7 +5768,7 @@
         <v>13063</v>
       </c>
       <c r="G141">
-        <v>13141</v>
+        <v>13122</v>
       </c>
       <c r="H141">
         <v>25204</v>
@@ -5794,7 +5797,7 @@
         <v>13363</v>
       </c>
       <c r="G142">
-        <v>13419</v>
+        <v>13421</v>
       </c>
       <c r="H142">
         <v>25573</v>
@@ -5823,7 +5826,7 @@
         <v>13536</v>
       </c>
       <c r="G143">
-        <v>13619</v>
+        <v>13621</v>
       </c>
       <c r="H143">
         <v>25666</v>
@@ -5852,7 +5855,7 @@
         <v>13600</v>
       </c>
       <c r="G144">
-        <v>13737</v>
+        <v>13739</v>
       </c>
       <c r="H144">
         <v>25944</v>
@@ -5881,13 +5884,13 @@
         <v>14074</v>
       </c>
       <c r="G145">
-        <v>14067</v>
+        <v>14072</v>
       </c>
       <c r="H145">
         <v>26578</v>
       </c>
       <c r="I145">
-        <v>26444</v>
+        <v>26445</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5910,7 +5913,7 @@
         <v>13985</v>
       </c>
       <c r="G146">
-        <v>13817</v>
+        <v>13818</v>
       </c>
       <c r="H146">
         <v>25965</v>
@@ -5939,13 +5942,13 @@
         <v>14202</v>
       </c>
       <c r="G147">
-        <v>14167</v>
+        <v>14168</v>
       </c>
       <c r="H147">
         <v>26109</v>
       </c>
       <c r="I147">
-        <v>25993</v>
+        <v>25994</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5968,7 +5971,7 @@
         <v>14310</v>
       </c>
       <c r="G148">
-        <v>14352</v>
+        <v>14353</v>
       </c>
       <c r="H148">
         <v>26372</v>
@@ -5997,7 +6000,7 @@
         <v>14342</v>
       </c>
       <c r="G149">
-        <v>14344</v>
+        <v>14345</v>
       </c>
       <c r="H149">
         <v>26536</v>
@@ -6026,7 +6029,7 @@
         <v>14535</v>
       </c>
       <c r="G150">
-        <v>14488</v>
+        <v>14490</v>
       </c>
       <c r="H150">
         <v>26628</v>
@@ -6055,7 +6058,7 @@
         <v>14572</v>
       </c>
       <c r="G151">
-        <v>14463</v>
+        <v>14468</v>
       </c>
       <c r="H151">
         <v>26781</v>
@@ -6084,7 +6087,7 @@
         <v>14786</v>
       </c>
       <c r="G152">
-        <v>14668</v>
+        <v>14670</v>
       </c>
       <c r="H152">
         <v>26780</v>
@@ -6113,7 +6116,7 @@
         <v>14680</v>
       </c>
       <c r="G153">
-        <v>14766</v>
+        <v>14747</v>
       </c>
       <c r="H153">
         <v>26802</v>
@@ -6142,7 +6145,7 @@
         <v>14491</v>
       </c>
       <c r="G154">
-        <v>14605</v>
+        <v>14607</v>
       </c>
       <c r="H154">
         <v>26650</v>
@@ -6194,13 +6197,13 @@
         <v>2305</v>
       </c>
       <c r="E156">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="F156">
         <v>14438</v>
       </c>
       <c r="G156">
-        <v>14570</v>
+        <v>14571</v>
       </c>
       <c r="H156">
         <v>26782</v>
@@ -6229,7 +6232,7 @@
         <v>14458</v>
       </c>
       <c r="G157">
-        <v>14487</v>
+        <v>14488</v>
       </c>
       <c r="H157">
         <v>27027</v>
@@ -6258,13 +6261,13 @@
         <v>14620</v>
       </c>
       <c r="G158">
-        <v>14448</v>
+        <v>14449</v>
       </c>
       <c r="H158">
         <v>27425</v>
       </c>
       <c r="I158">
-        <v>27185</v>
+        <v>27184</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6287,7 +6290,7 @@
         <v>14507</v>
       </c>
       <c r="G159">
-        <v>14484</v>
+        <v>14485</v>
       </c>
       <c r="H159">
         <v>27394</v>
@@ -6316,7 +6319,7 @@
         <v>14430</v>
       </c>
       <c r="G160">
-        <v>14494</v>
+        <v>14496</v>
       </c>
       <c r="H160">
         <v>27159</v>
@@ -6345,7 +6348,7 @@
         <v>14585</v>
       </c>
       <c r="G161">
-        <v>14572</v>
+        <v>14573</v>
       </c>
       <c r="H161">
         <v>27367</v>
@@ -6374,13 +6377,13 @@
         <v>14998</v>
       </c>
       <c r="G162">
-        <v>14975</v>
+        <v>14974</v>
       </c>
       <c r="H162">
         <v>28009</v>
       </c>
       <c r="I162">
-        <v>28118</v>
+        <v>28117</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6403,13 +6406,13 @@
         <v>15309</v>
       </c>
       <c r="G163">
-        <v>15202</v>
+        <v>15208</v>
       </c>
       <c r="H163">
         <v>28517</v>
       </c>
       <c r="I163">
-        <v>28490</v>
+        <v>28491</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6432,7 +6435,7 @@
         <v>15353</v>
       </c>
       <c r="G164">
-        <v>15210</v>
+        <v>15209</v>
       </c>
       <c r="H164">
         <v>28470</v>
@@ -6461,7 +6464,7 @@
         <v>15348</v>
       </c>
       <c r="G165">
-        <v>15424</v>
+        <v>15409</v>
       </c>
       <c r="H165">
         <v>28376</v>
@@ -6490,7 +6493,7 @@
         <v>15491</v>
       </c>
       <c r="G166">
-        <v>15617</v>
+        <v>15620</v>
       </c>
       <c r="H166">
         <v>28656</v>
@@ -6519,7 +6522,7 @@
         <v>15503</v>
       </c>
       <c r="G167">
-        <v>15633</v>
+        <v>15634</v>
       </c>
       <c r="H167">
         <v>28732</v>
@@ -6548,7 +6551,7 @@
         <v>15638</v>
       </c>
       <c r="G168">
-        <v>15771</v>
+        <v>15772</v>
       </c>
       <c r="H168">
         <v>29121</v>
@@ -6577,7 +6580,7 @@
         <v>15769</v>
       </c>
       <c r="G169">
-        <v>15757</v>
+        <v>15760</v>
       </c>
       <c r="H169">
         <v>29527</v>
@@ -6606,7 +6609,7 @@
         <v>16029</v>
       </c>
       <c r="G170">
-        <v>15851</v>
+        <v>15852</v>
       </c>
       <c r="H170">
         <v>29567</v>
@@ -6635,7 +6638,7 @@
         <v>15792</v>
       </c>
       <c r="G171">
-        <v>15781</v>
+        <v>15782</v>
       </c>
       <c r="H171">
         <v>29450</v>
@@ -6664,7 +6667,7 @@
         <v>15681</v>
       </c>
       <c r="G172">
-        <v>15730</v>
+        <v>15731</v>
       </c>
       <c r="H172">
         <v>29346</v>
@@ -6722,13 +6725,13 @@
         <v>15926</v>
       </c>
       <c r="G174">
-        <v>15874</v>
+        <v>15875</v>
       </c>
       <c r="H174">
         <v>29701</v>
       </c>
       <c r="I174">
-        <v>29784</v>
+        <v>29783</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6751,7 +6754,7 @@
         <v>16055</v>
       </c>
       <c r="G175">
-        <v>15958</v>
+        <v>15962</v>
       </c>
       <c r="H175">
         <v>30051</v>
@@ -6780,7 +6783,7 @@
         <v>16203</v>
       </c>
       <c r="G176">
-        <v>16073</v>
+        <v>16072</v>
       </c>
       <c r="H176">
         <v>30353</v>
@@ -6809,7 +6812,7 @@
         <v>15989</v>
       </c>
       <c r="G177">
-        <v>16102</v>
+        <v>16093</v>
       </c>
       <c r="H177">
         <v>30550</v>
@@ -6838,13 +6841,13 @@
         <v>15880</v>
       </c>
       <c r="G178">
-        <v>15997</v>
+        <v>15999</v>
       </c>
       <c r="H178">
         <v>30475</v>
       </c>
       <c r="I178">
-        <v>30588</v>
+        <v>30589</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6867,7 +6870,7 @@
         <v>15990</v>
       </c>
       <c r="G179">
-        <v>16171</v>
+        <v>16172</v>
       </c>
       <c r="H179">
         <v>30497</v>
@@ -6896,7 +6899,7 @@
         <v>16109</v>
       </c>
       <c r="G180">
-        <v>16263</v>
+        <v>16262</v>
       </c>
       <c r="H180">
         <v>30895</v>
@@ -6925,7 +6928,7 @@
         <v>16498</v>
       </c>
       <c r="G181">
-        <v>16448</v>
+        <v>16450</v>
       </c>
       <c r="H181">
         <v>31592</v>
@@ -6954,13 +6957,13 @@
         <v>16756</v>
       </c>
       <c r="G182">
-        <v>16556</v>
+        <v>16558</v>
       </c>
       <c r="H182">
         <v>31836</v>
       </c>
       <c r="I182">
-        <v>31550</v>
+        <v>31551</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -7000,7 +7003,7 @@
         <v>800</v>
       </c>
       <c r="C184">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D184">
         <v>3018</v>
@@ -7012,13 +7015,13 @@
         <v>16597</v>
       </c>
       <c r="G184">
-        <v>16594</v>
+        <v>16592</v>
       </c>
       <c r="H184">
         <v>31770</v>
       </c>
       <c r="I184">
-        <v>31781</v>
+        <v>31780</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -7099,7 +7102,7 @@
         <v>16930</v>
       </c>
       <c r="G187">
-        <v>16833</v>
+        <v>16837</v>
       </c>
       <c r="H187">
         <v>32453</v>
@@ -7128,7 +7131,7 @@
         <v>17030</v>
       </c>
       <c r="G188">
-        <v>16942</v>
+        <v>16943</v>
       </c>
       <c r="H188">
         <v>33021</v>
@@ -7157,7 +7160,7 @@
         <v>16721</v>
       </c>
       <c r="G189">
-        <v>16857</v>
+        <v>16853</v>
       </c>
       <c r="H189">
         <v>33115</v>
@@ -7186,13 +7189,13 @@
         <v>16505</v>
       </c>
       <c r="G190">
-        <v>16669</v>
+        <v>16668</v>
       </c>
       <c r="H190">
         <v>33048</v>
       </c>
       <c r="I190">
-        <v>33177</v>
+        <v>33176</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7221,7 +7224,7 @@
         <v>33445</v>
       </c>
       <c r="I191">
-        <v>33711</v>
+        <v>33712</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7244,13 +7247,13 @@
         <v>16782</v>
       </c>
       <c r="G192">
-        <v>16916</v>
+        <v>16918</v>
       </c>
       <c r="H192">
         <v>33653</v>
       </c>
       <c r="I192">
-        <v>33747</v>
+        <v>33748</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7302,7 +7305,7 @@
         <v>17183</v>
       </c>
       <c r="G194">
-        <v>16984</v>
+        <v>16983</v>
       </c>
       <c r="H194">
         <v>34352</v>
@@ -7360,13 +7363,13 @@
         <v>17224</v>
       </c>
       <c r="G196">
-        <v>17171</v>
+        <v>17172</v>
       </c>
       <c r="H196">
         <v>34255</v>
       </c>
       <c r="I196">
-        <v>34267</v>
+        <v>34268</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7389,13 +7392,13 @@
         <v>17327</v>
       </c>
       <c r="G197">
-        <v>17186</v>
+        <v>17185</v>
       </c>
       <c r="H197">
         <v>34227</v>
       </c>
       <c r="I197">
-        <v>34142</v>
+        <v>34141</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7447,7 +7450,7 @@
         <v>17412</v>
       </c>
       <c r="G199">
-        <v>17359</v>
+        <v>17362</v>
       </c>
       <c r="H199">
         <v>34445</v>
@@ -7476,7 +7479,7 @@
         <v>17485</v>
       </c>
       <c r="G200">
-        <v>17458</v>
+        <v>17457</v>
       </c>
       <c r="H200">
         <v>34430</v>
@@ -7499,13 +7502,13 @@
         <v>3297</v>
       </c>
       <c r="E201">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="F201">
         <v>17420</v>
       </c>
       <c r="G201">
-        <v>17590</v>
+        <v>17589</v>
       </c>
       <c r="H201">
         <v>34477</v>
@@ -7592,13 +7595,13 @@
         <v>17794</v>
       </c>
       <c r="G204">
-        <v>17959</v>
+        <v>17958</v>
       </c>
       <c r="H204">
         <v>34864</v>
       </c>
       <c r="I204">
-        <v>34956</v>
+        <v>34955</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7621,13 +7624,13 @@
         <v>17937</v>
       </c>
       <c r="G205">
-        <v>17871</v>
+        <v>17870</v>
       </c>
       <c r="H205">
         <v>35105</v>
       </c>
       <c r="I205">
-        <v>34903</v>
+        <v>34902</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7656,7 +7659,7 @@
         <v>35492</v>
       </c>
       <c r="I206">
-        <v>35213</v>
+        <v>35212</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7679,7 +7682,7 @@
         <v>17937</v>
       </c>
       <c r="G207">
-        <v>17774</v>
+        <v>17773</v>
       </c>
       <c r="H207">
         <v>35674</v>
@@ -7702,13 +7705,13 @@
         <v>3990</v>
       </c>
       <c r="E208">
-        <v>3929</v>
+        <v>3930</v>
       </c>
       <c r="F208">
         <v>18081</v>
       </c>
       <c r="G208">
-        <v>17946</v>
+        <v>17944</v>
       </c>
       <c r="H208">
         <v>35565</v>
@@ -7731,13 +7734,13 @@
         <v>3887</v>
       </c>
       <c r="E209">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="F209">
         <v>17876</v>
       </c>
       <c r="G209">
-        <v>17732</v>
+        <v>17733</v>
       </c>
       <c r="H209">
         <v>35732</v>
@@ -7760,13 +7763,13 @@
         <v>3917</v>
       </c>
       <c r="E210">
-        <v>3848</v>
+        <v>3849</v>
       </c>
       <c r="F210">
         <v>17466</v>
       </c>
       <c r="G210">
-        <v>17419</v>
+        <v>17417</v>
       </c>
       <c r="H210">
         <v>35788</v>
@@ -7795,13 +7798,13 @@
         <v>17276</v>
       </c>
       <c r="G211">
-        <v>17245</v>
+        <v>17248</v>
       </c>
       <c r="H211">
         <v>35529</v>
       </c>
       <c r="I211">
-        <v>35558</v>
+        <v>35557</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7882,7 +7885,7 @@
         <v>16924</v>
       </c>
       <c r="G214">
-        <v>17103</v>
+        <v>17102</v>
       </c>
       <c r="H214">
         <v>35622</v>
@@ -7940,7 +7943,7 @@
         <v>17022</v>
       </c>
       <c r="G216">
-        <v>17191</v>
+        <v>17192</v>
       </c>
       <c r="H216">
         <v>35486</v>
@@ -7969,7 +7972,7 @@
         <v>17326</v>
       </c>
       <c r="G217">
-        <v>17228</v>
+        <v>17230</v>
       </c>
       <c r="H217">
         <v>36016</v>
@@ -8027,7 +8030,7 @@
         <v>17734</v>
       </c>
       <c r="G219">
-        <v>17561</v>
+        <v>17562</v>
       </c>
       <c r="H219">
         <v>36190</v>
@@ -8079,13 +8082,13 @@
         <v>4365</v>
       </c>
       <c r="E221">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="F221">
         <v>18071</v>
       </c>
       <c r="G221">
-        <v>17921</v>
+        <v>17920</v>
       </c>
       <c r="H221">
         <v>36719</v>
@@ -8114,7 +8117,7 @@
         <v>18078</v>
       </c>
       <c r="G222">
-        <v>18059</v>
+        <v>18057</v>
       </c>
       <c r="H222">
         <v>36709</v>
@@ -8143,7 +8146,7 @@
         <v>18145</v>
       </c>
       <c r="G223">
-        <v>18114</v>
+        <v>18119</v>
       </c>
       <c r="H223">
         <v>36902</v>
@@ -8172,7 +8175,7 @@
         <v>18512</v>
       </c>
       <c r="G224">
-        <v>18577</v>
+        <v>18575</v>
       </c>
       <c r="H224">
         <v>37107</v>
@@ -8230,7 +8233,7 @@
         <v>19233</v>
       </c>
       <c r="G226">
-        <v>19460</v>
+        <v>19459</v>
       </c>
       <c r="H226">
         <v>37865</v>
@@ -8259,7 +8262,7 @@
         <v>19654</v>
       </c>
       <c r="G227">
-        <v>19941</v>
+        <v>19942</v>
       </c>
       <c r="H227">
         <v>38182</v>
@@ -8276,7 +8279,7 @@
         <v>1031</v>
       </c>
       <c r="C228">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D228">
         <v>4818</v>
@@ -8305,7 +8308,7 @@
         <v>1112</v>
       </c>
       <c r="C229">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D229">
         <v>5112</v>
@@ -8462,13 +8465,13 @@
         <v>21443</v>
       </c>
       <c r="G234">
-        <v>21369</v>
+        <v>21371</v>
       </c>
       <c r="H234">
         <v>40037</v>
       </c>
       <c r="I234">
-        <v>39926</v>
+        <v>39927</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -8491,7 +8494,7 @@
         <v>21749</v>
       </c>
       <c r="G235">
-        <v>21741</v>
+        <v>21744</v>
       </c>
       <c r="H235">
         <v>40374</v>
@@ -8526,7 +8529,7 @@
         <v>40338</v>
       </c>
       <c r="I236">
-        <v>40505</v>
+        <v>40506</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -8549,7 +8552,7 @@
         <v>21782</v>
       </c>
       <c r="G237">
-        <v>22121</v>
+        <v>22122</v>
       </c>
       <c r="H237">
         <v>40302</v>
@@ -8636,7 +8639,7 @@
         <v>22731</v>
       </c>
       <c r="G240">
-        <v>22986</v>
+        <v>22987</v>
       </c>
       <c r="H240">
         <v>41228</v>
@@ -8659,13 +8662,13 @@
         <v>5485</v>
       </c>
       <c r="E241">
-        <v>5331</v>
+        <v>5332</v>
       </c>
       <c r="F241">
         <v>24019</v>
       </c>
       <c r="G241">
-        <v>23820</v>
+        <v>23818</v>
       </c>
       <c r="H241">
         <v>42456</v>
@@ -8723,7 +8726,7 @@
         <v>24274</v>
       </c>
       <c r="G243">
-        <v>23971</v>
+        <v>23970</v>
       </c>
       <c r="H243">
         <v>42560</v>
@@ -8752,13 +8755,13 @@
         <v>24501</v>
       </c>
       <c r="G244">
-        <v>24246</v>
+        <v>24247</v>
       </c>
       <c r="H244">
         <v>42693</v>
       </c>
       <c r="I244">
-        <v>42591</v>
+        <v>42592</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -8781,7 +8784,7 @@
         <v>24686</v>
       </c>
       <c r="G245">
-        <v>24490</v>
+        <v>24489</v>
       </c>
       <c r="H245">
         <v>42728</v>
@@ -8810,7 +8813,7 @@
         <v>24925</v>
       </c>
       <c r="G246">
-        <v>24793</v>
+        <v>24794</v>
       </c>
       <c r="H246">
         <v>43010</v>
@@ -8839,7 +8842,7 @@
         <v>25103</v>
       </c>
       <c r="G247">
-        <v>25075</v>
+        <v>25079</v>
       </c>
       <c r="H247">
         <v>43110</v>
@@ -8868,13 +8871,13 @@
         <v>25000</v>
       </c>
       <c r="G248">
-        <v>25144</v>
+        <v>25142</v>
       </c>
       <c r="H248">
         <v>42715</v>
       </c>
       <c r="I248">
-        <v>42948</v>
+        <v>42947</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -8897,7 +8900,7 @@
         <v>25529</v>
       </c>
       <c r="G249">
-        <v>25952</v>
+        <v>25950</v>
       </c>
       <c r="H249">
         <v>43267</v>
@@ -8955,7 +8958,7 @@
         <v>25974</v>
       </c>
       <c r="G251">
-        <v>26467</v>
+        <v>26469</v>
       </c>
       <c r="H251">
         <v>44355</v>
@@ -8984,7 +8987,7 @@
         <v>26353</v>
       </c>
       <c r="G252">
-        <v>26691</v>
+        <v>26688</v>
       </c>
       <c r="H252">
         <v>44888</v>
@@ -9013,7 +9016,7 @@
         <v>27261</v>
       </c>
       <c r="G253">
-        <v>27017</v>
+        <v>27016</v>
       </c>
       <c r="H253">
         <v>45886</v>
@@ -9042,7 +9045,7 @@
         <v>27791</v>
       </c>
       <c r="G254">
-        <v>27317</v>
+        <v>27319</v>
       </c>
       <c r="H254">
         <v>46243</v>
@@ -9071,7 +9074,7 @@
         <v>28088</v>
       </c>
       <c r="G255">
-        <v>27739</v>
+        <v>27738</v>
       </c>
       <c r="H255">
         <v>46753</v>
@@ -9100,7 +9103,7 @@
         <v>28350</v>
       </c>
       <c r="G256">
-        <v>28072</v>
+        <v>28070</v>
       </c>
       <c r="H256">
         <v>47015</v>
@@ -9152,7 +9155,7 @@
         <v>6273</v>
       </c>
       <c r="E258">
-        <v>6168</v>
+        <v>6169</v>
       </c>
       <c r="F258">
         <v>28942</v>
@@ -9193,7 +9196,7 @@
         <v>47826</v>
       </c>
       <c r="I259">
-        <v>47696</v>
+        <v>47695</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -9216,13 +9219,13 @@
         <v>29269</v>
       </c>
       <c r="G260">
-        <v>29456</v>
+        <v>29460</v>
       </c>
       <c r="H260">
         <v>47776</v>
       </c>
       <c r="I260">
-        <v>48021</v>
+        <v>48022</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -9245,13 +9248,13 @@
         <v>29019</v>
       </c>
       <c r="G261">
-        <v>29445</v>
+        <v>29444</v>
       </c>
       <c r="H261">
         <v>47541</v>
       </c>
       <c r="I261">
-        <v>47960</v>
+        <v>47959</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -9274,7 +9277,7 @@
         <v>28911</v>
       </c>
       <c r="G262">
-        <v>29183</v>
+        <v>29181</v>
       </c>
       <c r="H262">
         <v>47385</v>
@@ -9303,7 +9306,7 @@
         <v>29127</v>
       </c>
       <c r="G263">
-        <v>29674</v>
+        <v>29676</v>
       </c>
       <c r="H263">
         <v>47770</v>
@@ -9332,7 +9335,7 @@
         <v>29882</v>
       </c>
       <c r="G264">
-        <v>30194</v>
+        <v>30196</v>
       </c>
       <c r="H264">
         <v>48531</v>
@@ -9361,7 +9364,7 @@
         <v>30832</v>
       </c>
       <c r="G265">
-        <v>30554</v>
+        <v>30552</v>
       </c>
       <c r="H265">
         <v>49193</v>
@@ -9390,13 +9393,13 @@
         <v>31375</v>
       </c>
       <c r="G266">
-        <v>30869</v>
+        <v>30868</v>
       </c>
       <c r="H266">
         <v>49653</v>
       </c>
       <c r="I266">
-        <v>49289</v>
+        <v>49288</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -9419,7 +9422,7 @@
         <v>31589</v>
       </c>
       <c r="G267">
-        <v>31250</v>
+        <v>31251</v>
       </c>
       <c r="H267">
         <v>49623</v>
@@ -9448,7 +9451,7 @@
         <v>31668</v>
       </c>
       <c r="G268">
-        <v>31485</v>
+        <v>31484</v>
       </c>
       <c r="H268">
         <v>49501</v>
@@ -9477,7 +9480,7 @@
         <v>31928</v>
       </c>
       <c r="G269">
-        <v>31699</v>
+        <v>31702</v>
       </c>
       <c r="H269">
         <v>50129</v>
@@ -9506,13 +9509,13 @@
         <v>31998</v>
       </c>
       <c r="G270">
-        <v>31770</v>
+        <v>31768</v>
       </c>
       <c r="H270">
         <v>50735</v>
       </c>
       <c r="I270">
-        <v>50424</v>
+        <v>50423</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -9529,13 +9532,13 @@
         <v>6583</v>
       </c>
       <c r="E271">
-        <v>6534</v>
+        <v>6533</v>
       </c>
       <c r="F271">
         <v>31615</v>
       </c>
       <c r="G271">
-        <v>31594</v>
+        <v>31592</v>
       </c>
       <c r="H271">
         <v>50859</v>
@@ -9558,13 +9561,13 @@
         <v>6173</v>
       </c>
       <c r="E272">
-        <v>6270</v>
+        <v>6271</v>
       </c>
       <c r="F272">
         <v>31099</v>
       </c>
       <c r="G272">
-        <v>31333</v>
+        <v>31331</v>
       </c>
       <c r="H272">
         <v>50651</v>
@@ -9581,7 +9584,7 @@
         <v>1372</v>
       </c>
       <c r="C273">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D273">
         <v>6185</v>
@@ -9593,13 +9596,13 @@
         <v>31112</v>
       </c>
       <c r="G273">
-        <v>31489</v>
+        <v>31488</v>
       </c>
       <c r="H273">
         <v>51229</v>
       </c>
       <c r="I273">
-        <v>51610</v>
+        <v>51609</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -9622,7 +9625,7 @@
         <v>31195</v>
       </c>
       <c r="G274">
-        <v>31496</v>
+        <v>31495</v>
       </c>
       <c r="H274">
         <v>51841</v>
@@ -9651,7 +9654,7 @@
         <v>31910</v>
       </c>
       <c r="G275">
-        <v>32467</v>
+        <v>32466</v>
       </c>
       <c r="H275">
         <v>52447</v>
@@ -9680,7 +9683,7 @@
         <v>32655</v>
       </c>
       <c r="G276">
-        <v>32995</v>
+        <v>32996</v>
       </c>
       <c r="H276">
         <v>53137</v>
@@ -9703,19 +9706,19 @@
         <v>6604</v>
       </c>
       <c r="E277">
-        <v>6421</v>
+        <v>6420</v>
       </c>
       <c r="F277">
         <v>33701</v>
       </c>
       <c r="G277">
-        <v>33344</v>
+        <v>33350</v>
       </c>
       <c r="H277">
         <v>54264</v>
       </c>
       <c r="I277">
-        <v>53866</v>
+        <v>53867</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -9738,7 +9741,7 @@
         <v>34039</v>
       </c>
       <c r="G278">
-        <v>33460</v>
+        <v>33461</v>
       </c>
       <c r="H278">
         <v>54600</v>
@@ -9767,7 +9770,7 @@
         <v>33843</v>
       </c>
       <c r="G279">
-        <v>33543</v>
+        <v>33541</v>
       </c>
       <c r="H279">
         <v>54692</v>
@@ -9825,7 +9828,7 @@
         <v>33097</v>
       </c>
       <c r="G281">
-        <v>33028</v>
+        <v>33027</v>
       </c>
       <c r="H281">
         <v>54474</v>
@@ -9854,7 +9857,7 @@
         <v>33319</v>
       </c>
       <c r="G282">
-        <v>33071</v>
+        <v>33074</v>
       </c>
       <c r="H282">
         <v>54972</v>
@@ -9883,7 +9886,7 @@
         <v>33313</v>
       </c>
       <c r="G283">
-        <v>33270</v>
+        <v>33269</v>
       </c>
       <c r="H283">
         <v>54916</v>
@@ -9912,13 +9915,13 @@
         <v>33657</v>
       </c>
       <c r="G284">
-        <v>33841</v>
+        <v>33846</v>
       </c>
       <c r="H284">
         <v>54942</v>
       </c>
       <c r="I284">
-        <v>55256</v>
+        <v>55257</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -9941,7 +9944,7 @@
         <v>33852</v>
       </c>
       <c r="G285">
-        <v>34196</v>
+        <v>34195</v>
       </c>
       <c r="H285">
         <v>55348</v>
@@ -9970,13 +9973,13 @@
         <v>33404</v>
       </c>
       <c r="G286">
-        <v>33686</v>
+        <v>33689</v>
       </c>
       <c r="H286">
         <v>54976</v>
       </c>
       <c r="I286">
-        <v>55298</v>
+        <v>55299</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -9999,13 +10002,13 @@
         <v>33168</v>
       </c>
       <c r="G287">
-        <v>33604</v>
+        <v>33605</v>
       </c>
       <c r="H287">
         <v>54525</v>
       </c>
       <c r="I287">
-        <v>54867</v>
+        <v>54868</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -10057,7 +10060,7 @@
         <v>33710</v>
       </c>
       <c r="G289">
-        <v>33465</v>
+        <v>33461</v>
       </c>
       <c r="H289">
         <v>55624</v>
@@ -10086,7 +10089,7 @@
         <v>34218</v>
       </c>
       <c r="G290">
-        <v>33721</v>
+        <v>33722</v>
       </c>
       <c r="H290">
         <v>55861</v>
@@ -10115,7 +10118,7 @@
         <v>34386</v>
       </c>
       <c r="G291">
-        <v>34190</v>
+        <v>34186</v>
       </c>
       <c r="H291">
         <v>56173</v>
@@ -10144,7 +10147,7 @@
         <v>34755</v>
       </c>
       <c r="G292">
-        <v>34688</v>
+        <v>34686</v>
       </c>
       <c r="H292">
         <v>56973</v>
@@ -10173,13 +10176,13 @@
         <v>34840</v>
       </c>
       <c r="G293">
-        <v>34835</v>
+        <v>34836</v>
       </c>
       <c r="H293">
         <v>57265</v>
       </c>
       <c r="I293">
-        <v>57252</v>
+        <v>57253</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -10190,7 +10193,7 @@
         <v>1819</v>
       </c>
       <c r="C294">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D294">
         <v>9165</v>
@@ -10202,13 +10205,13 @@
         <v>35226</v>
       </c>
       <c r="G294">
-        <v>35084</v>
+        <v>35082</v>
       </c>
       <c r="H294">
         <v>57709</v>
       </c>
       <c r="I294">
-        <v>57502</v>
+        <v>57501</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -10231,7 +10234,7 @@
         <v>35151</v>
       </c>
       <c r="G295">
-        <v>35043</v>
+        <v>35044</v>
       </c>
       <c r="H295">
         <v>57832</v>
@@ -10248,25 +10251,25 @@
         <v>1822</v>
       </c>
       <c r="C296">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="D296">
         <v>9182</v>
       </c>
       <c r="E296">
-        <v>9279</v>
+        <v>9280</v>
       </c>
       <c r="F296">
         <v>34681</v>
       </c>
       <c r="G296">
-        <v>34883</v>
+        <v>34878</v>
       </c>
       <c r="H296">
         <v>56801</v>
       </c>
       <c r="I296">
-        <v>57009</v>
+        <v>57007</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -10295,7 +10298,7 @@
         <v>56812</v>
       </c>
       <c r="I297">
-        <v>57049</v>
+        <v>57048</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -10318,7 +10321,7 @@
         <v>34839</v>
       </c>
       <c r="G298">
-        <v>35080</v>
+        <v>35082</v>
       </c>
       <c r="H298">
         <v>57744</v>
@@ -10347,13 +10350,13 @@
         <v>35086</v>
       </c>
       <c r="G299">
-        <v>35376</v>
+        <v>35378</v>
       </c>
       <c r="H299">
         <v>58497</v>
       </c>
       <c r="I299">
-        <v>58731</v>
+        <v>58732</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -10376,13 +10379,13 @@
         <v>35414</v>
       </c>
       <c r="G300">
-        <v>35692</v>
+        <v>35693</v>
       </c>
       <c r="H300">
         <v>59402</v>
       </c>
       <c r="I300">
-        <v>59503</v>
+        <v>59504</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -10405,7 +10408,7 @@
         <v>36159</v>
       </c>
       <c r="G301">
-        <v>35882</v>
+        <v>35886</v>
       </c>
       <c r="H301">
         <v>60383</v>
@@ -10434,7 +10437,7 @@
         <v>36562</v>
       </c>
       <c r="G302">
-        <v>36143</v>
+        <v>36145</v>
       </c>
       <c r="H302">
         <v>61451</v>
@@ -10463,7 +10466,7 @@
         <v>36363</v>
       </c>
       <c r="G303">
-        <v>36247</v>
+        <v>36241</v>
       </c>
       <c r="H303">
         <v>61844</v>
@@ -10492,7 +10495,7 @@
         <v>36458</v>
       </c>
       <c r="G304">
-        <v>36500</v>
+        <v>36495</v>
       </c>
       <c r="H304">
         <v>61762</v>
@@ -10521,13 +10524,13 @@
         <v>37107</v>
       </c>
       <c r="G305">
-        <v>37142</v>
+        <v>37144</v>
       </c>
       <c r="H305">
         <v>62430</v>
       </c>
       <c r="I305">
-        <v>62428</v>
+        <v>62429</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -10550,13 +10553,13 @@
         <v>37799</v>
       </c>
       <c r="G306">
-        <v>37647</v>
+        <v>37651</v>
       </c>
       <c r="H306">
         <v>63212</v>
       </c>
       <c r="I306">
-        <v>62995</v>
+        <v>62996</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -10579,7 +10582,7 @@
         <v>38399</v>
       </c>
       <c r="G307">
-        <v>38287</v>
+        <v>38285</v>
       </c>
       <c r="H307">
         <v>64118</v>
@@ -10608,7 +10611,7 @@
         <v>38657</v>
       </c>
       <c r="G308">
-        <v>38746</v>
+        <v>38753</v>
       </c>
       <c r="H308">
         <v>64780</v>
@@ -10637,7 +10640,7 @@
         <v>39514</v>
       </c>
       <c r="G309">
-        <v>39658</v>
+        <v>39661</v>
       </c>
       <c r="H309">
         <v>65867</v>
@@ -10666,7 +10669,7 @@
         <v>40248</v>
       </c>
       <c r="G310">
-        <v>40334</v>
+        <v>40337</v>
       </c>
       <c r="H310">
         <v>67199</v>
@@ -10695,7 +10698,7 @@
         <v>40760</v>
       </c>
       <c r="G311">
-        <v>41064</v>
+        <v>41063</v>
       </c>
       <c r="H311">
         <v>68445</v>
@@ -10718,19 +10721,19 @@
         <v>9751</v>
       </c>
       <c r="E312">
-        <v>10070</v>
+        <v>10069</v>
       </c>
       <c r="F312">
         <v>41147</v>
       </c>
       <c r="G312">
-        <v>41405</v>
+        <v>41408</v>
       </c>
       <c r="H312">
         <v>69091</v>
       </c>
       <c r="I312">
-        <v>69234</v>
+        <v>69235</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -10753,13 +10756,13 @@
         <v>42185</v>
       </c>
       <c r="G313">
-        <v>41801</v>
+        <v>41805</v>
       </c>
       <c r="H313">
         <v>69901</v>
       </c>
       <c r="I313">
-        <v>69618</v>
+        <v>69619</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -10776,19 +10779,19 @@
         <v>10480</v>
       </c>
       <c r="E314">
-        <v>10188</v>
+        <v>10187</v>
       </c>
       <c r="F314">
         <v>42553</v>
       </c>
       <c r="G314">
-        <v>42115</v>
+        <v>42118</v>
       </c>
       <c r="H314">
         <v>70909</v>
       </c>
       <c r="I314">
-        <v>70548</v>
+        <v>70549</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -10811,13 +10814,13 @@
         <v>42114</v>
       </c>
       <c r="G315">
-        <v>42099</v>
+        <v>42094</v>
       </c>
       <c r="H315">
         <v>70724</v>
       </c>
       <c r="I315">
-        <v>70780</v>
+        <v>70781</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -10840,7 +10843,7 @@
         <v>42437</v>
       </c>
       <c r="G316">
-        <v>42534</v>
+        <v>42526</v>
       </c>
       <c r="H316">
         <v>71256</v>
@@ -10869,7 +10872,7 @@
         <v>43366</v>
       </c>
       <c r="G317">
-        <v>43535</v>
+        <v>43537</v>
       </c>
       <c r="H317">
         <v>72358</v>
@@ -10898,13 +10901,13 @@
         <v>44457</v>
       </c>
       <c r="G318">
-        <v>44374</v>
+        <v>44377</v>
       </c>
       <c r="H318">
         <v>73500</v>
       </c>
       <c r="I318">
-        <v>73338</v>
+        <v>73339</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -10927,13 +10930,13 @@
         <v>45369</v>
       </c>
       <c r="G319">
-        <v>45144</v>
+        <v>45140</v>
       </c>
       <c r="H319">
         <v>74190</v>
       </c>
       <c r="I319">
-        <v>73863</v>
+        <v>73862</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -10956,13 +10959,13 @@
         <v>45790</v>
       </c>
       <c r="G320">
-        <v>45860</v>
+        <v>45868</v>
       </c>
       <c r="H320">
         <v>74316</v>
       </c>
       <c r="I320">
-        <v>74275</v>
+        <v>74276</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -10973,7 +10976,7 @@
         <v>2193</v>
       </c>
       <c r="C321">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="D321">
         <v>10237</v>
@@ -10985,7 +10988,7 @@
         <v>45654</v>
       </c>
       <c r="G321">
-        <v>45742</v>
+        <v>45741</v>
       </c>
       <c r="H321">
         <v>74291</v>
@@ -11014,7 +11017,7 @@
         <v>45928</v>
       </c>
       <c r="G322">
-        <v>45985</v>
+        <v>45984</v>
       </c>
       <c r="H322">
         <v>74307</v>
@@ -11043,13 +11046,13 @@
         <v>45746</v>
       </c>
       <c r="G323">
-        <v>46076</v>
+        <v>46073</v>
       </c>
       <c r="H323">
         <v>74050</v>
       </c>
       <c r="I323">
-        <v>74260</v>
+        <v>74259</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -11072,13 +11075,13 @@
         <v>46058</v>
       </c>
       <c r="G324">
-        <v>46247</v>
+        <v>46251</v>
       </c>
       <c r="H324">
         <v>74884</v>
       </c>
       <c r="I324">
-        <v>74894</v>
+        <v>74895</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -11101,13 +11104,13 @@
         <v>46672</v>
       </c>
       <c r="G325">
-        <v>46331</v>
+        <v>46335</v>
       </c>
       <c r="H325">
         <v>75249</v>
       </c>
       <c r="I325">
-        <v>75163</v>
+        <v>75164</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -11124,19 +11127,19 @@
         <v>11437</v>
       </c>
       <c r="E326">
-        <v>11067</v>
+        <v>11068</v>
       </c>
       <c r="F326">
         <v>46975</v>
       </c>
       <c r="G326">
-        <v>46583</v>
+        <v>46584</v>
       </c>
       <c r="H326">
         <v>75843</v>
       </c>
       <c r="I326">
-        <v>75657</v>
+        <v>75658</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -11159,7 +11162,7 @@
         <v>46945</v>
       </c>
       <c r="G327">
-        <v>46879</v>
+        <v>46871</v>
       </c>
       <c r="H327">
         <v>76138</v>
@@ -11188,13 +11191,13 @@
         <v>47397</v>
       </c>
       <c r="G328">
-        <v>47587</v>
+        <v>47585</v>
       </c>
       <c r="H328">
         <v>76650</v>
       </c>
       <c r="I328">
-        <v>77172</v>
+        <v>77173</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -11217,13 +11220,13 @@
         <v>48119</v>
       </c>
       <c r="G329">
-        <v>48257</v>
+        <v>48258</v>
       </c>
       <c r="H329">
         <v>78027</v>
       </c>
       <c r="I329">
-        <v>78328</v>
+        <v>78323</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -11275,7 +11278,7 @@
         <v>49461</v>
       </c>
       <c r="G331">
-        <v>49328</v>
+        <v>49325</v>
       </c>
       <c r="H331">
         <v>80028</v>
@@ -11304,7 +11307,7 @@
         <v>49623</v>
       </c>
       <c r="G332">
-        <v>49708</v>
+        <v>49709</v>
       </c>
       <c r="H332">
         <v>80473</v>
@@ -11362,7 +11365,7 @@
         <v>49966</v>
       </c>
       <c r="G334">
-        <v>50074</v>
+        <v>50072</v>
       </c>
       <c r="H334">
         <v>81856</v>
@@ -11379,25 +11382,25 @@
         <v>2512</v>
       </c>
       <c r="C335">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D335">
         <v>11405</v>
       </c>
       <c r="E335">
-        <v>11787</v>
+        <v>11786</v>
       </c>
       <c r="F335">
         <v>49520</v>
       </c>
       <c r="G335">
-        <v>49849</v>
+        <v>49851</v>
       </c>
       <c r="H335">
         <v>81440</v>
       </c>
       <c r="I335">
-        <v>81668</v>
+        <v>81669</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -11420,7 +11423,7 @@
         <v>49770</v>
       </c>
       <c r="G336">
-        <v>49912</v>
+        <v>49908</v>
       </c>
       <c r="H336">
         <v>81670</v>
@@ -11449,13 +11452,13 @@
         <v>50386</v>
       </c>
       <c r="G337">
-        <v>49924</v>
+        <v>49929</v>
       </c>
       <c r="H337">
         <v>81611</v>
       </c>
       <c r="I337">
-        <v>81365</v>
+        <v>81366</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -11478,13 +11481,13 @@
         <v>50851</v>
       </c>
       <c r="G338">
-        <v>50402</v>
+        <v>50403</v>
       </c>
       <c r="H338">
         <v>81763</v>
       </c>
       <c r="I338">
-        <v>81621</v>
+        <v>81623</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -11507,13 +11510,13 @@
         <v>50818</v>
       </c>
       <c r="G339">
-        <v>50764</v>
+        <v>50757</v>
       </c>
       <c r="H339">
         <v>82686</v>
       </c>
       <c r="I339">
-        <v>82668</v>
+        <v>82669</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -11536,7 +11539,7 @@
         <v>50428</v>
       </c>
       <c r="G340">
-        <v>50613</v>
+        <v>50609</v>
       </c>
       <c r="H340">
         <v>82455</v>
@@ -11565,13 +11568,13 @@
         <v>50131</v>
       </c>
       <c r="G341">
-        <v>50360</v>
+        <v>50367</v>
       </c>
       <c r="H341">
         <v>82280</v>
       </c>
       <c r="I341">
-        <v>82852</v>
+        <v>82846</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -11594,13 +11597,13 @@
         <v>49940</v>
       </c>
       <c r="G342">
-        <v>49964</v>
+        <v>49963</v>
       </c>
       <c r="H342">
         <v>83078</v>
       </c>
       <c r="I342">
-        <v>83048</v>
+        <v>83046</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -11623,7 +11626,7 @@
         <v>50022</v>
       </c>
       <c r="G343">
-        <v>49958</v>
+        <v>49951</v>
       </c>
       <c r="H343">
         <v>83637</v>
@@ -11652,13 +11655,13 @@
         <v>50331</v>
       </c>
       <c r="G344">
-        <v>50447</v>
+        <v>50444</v>
       </c>
       <c r="H344">
         <v>83876</v>
       </c>
       <c r="I344">
-        <v>83693</v>
+        <v>83692</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -11669,7 +11672,7 @@
         <v>2529</v>
       </c>
       <c r="C345">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="D345">
         <v>12151</v>
@@ -11681,7 +11684,7 @@
         <v>50384</v>
       </c>
       <c r="G345">
-        <v>50458</v>
+        <v>50454</v>
       </c>
       <c r="H345">
         <v>84409</v>
@@ -11704,7 +11707,7 @@
         <v>12391</v>
       </c>
       <c r="E346">
-        <v>12527</v>
+        <v>12528</v>
       </c>
       <c r="F346">
         <v>50296</v>
@@ -11739,13 +11742,13 @@
         <v>49953</v>
       </c>
       <c r="G347">
-        <v>50265</v>
+        <v>50258</v>
       </c>
       <c r="H347">
         <v>83631</v>
       </c>
       <c r="I347">
-        <v>83743</v>
+        <v>83742</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -11768,13 +11771,13 @@
         <v>51343</v>
       </c>
       <c r="G348">
-        <v>51407</v>
+        <v>51409</v>
       </c>
       <c r="H348">
         <v>84823</v>
       </c>
       <c r="I348">
-        <v>84664</v>
+        <v>84665</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -11797,13 +11800,13 @@
         <v>52830</v>
       </c>
       <c r="G349">
-        <v>52205</v>
+        <v>52222</v>
       </c>
       <c r="H349">
         <v>86809</v>
       </c>
       <c r="I349">
-        <v>86551</v>
+        <v>86556</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -11826,13 +11829,13 @@
         <v>52898</v>
       </c>
       <c r="G350">
-        <v>52394</v>
+        <v>52395</v>
       </c>
       <c r="H350">
         <v>87103</v>
       </c>
       <c r="I350">
-        <v>87040</v>
+        <v>87043</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -11855,13 +11858,13 @@
         <v>52529</v>
       </c>
       <c r="G351">
-        <v>52510</v>
+        <v>52506</v>
       </c>
       <c r="H351">
         <v>87311</v>
       </c>
       <c r="I351">
-        <v>87373</v>
+        <v>87375</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -11884,13 +11887,13 @@
         <v>52112</v>
       </c>
       <c r="G352">
-        <v>52288</v>
+        <v>52293</v>
       </c>
       <c r="H352">
         <v>86745</v>
       </c>
       <c r="I352">
-        <v>87406</v>
+        <v>87408</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -11913,13 +11916,13 @@
         <v>52435</v>
       </c>
       <c r="G353">
-        <v>52717</v>
+        <v>52716</v>
       </c>
       <c r="H353">
         <v>86839</v>
       </c>
       <c r="I353">
-        <v>87616</v>
+        <v>87606</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -11942,13 +11945,13 @@
         <v>52776</v>
       </c>
       <c r="G354">
-        <v>52846</v>
+        <v>52850</v>
       </c>
       <c r="H354">
         <v>88082</v>
       </c>
       <c r="I354">
-        <v>88245</v>
+        <v>88241</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -11971,13 +11974,13 @@
         <v>52991</v>
       </c>
       <c r="G355">
-        <v>52981</v>
+        <v>52975</v>
       </c>
       <c r="H355">
         <v>88366</v>
       </c>
       <c r="I355">
-        <v>88182</v>
+        <v>88183</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -12000,13 +12003,13 @@
         <v>53642</v>
       </c>
       <c r="G356">
-        <v>53678</v>
+        <v>53685</v>
       </c>
       <c r="H356">
         <v>89938</v>
       </c>
       <c r="I356">
-        <v>89735</v>
+        <v>89737</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -12029,7 +12032,7 @@
         <v>54096</v>
       </c>
       <c r="G357">
-        <v>54275</v>
+        <v>54268</v>
       </c>
       <c r="H357">
         <v>91019</v>
@@ -12058,13 +12061,13 @@
         <v>54276</v>
       </c>
       <c r="G358">
-        <v>54385</v>
+        <v>54389</v>
       </c>
       <c r="H358">
         <v>91238</v>
       </c>
       <c r="I358">
-        <v>90864</v>
+        <v>90866</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -12087,13 +12090,13 @@
         <v>54504</v>
       </c>
       <c r="G359">
-        <v>54757</v>
+        <v>54756</v>
       </c>
       <c r="H359">
         <v>91869</v>
       </c>
       <c r="I359">
-        <v>91739</v>
+        <v>91735</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -12116,7 +12119,7 @@
         <v>55234</v>
       </c>
       <c r="G360">
-        <v>55205</v>
+        <v>55204</v>
       </c>
       <c r="H360">
         <v>92924</v>
@@ -12145,13 +12148,13 @@
         <v>56139</v>
       </c>
       <c r="G361">
-        <v>55527</v>
+        <v>55529</v>
       </c>
       <c r="H361">
         <v>93214</v>
       </c>
       <c r="I361">
-        <v>93016</v>
+        <v>93024</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -12174,13 +12177,13 @@
         <v>56452</v>
       </c>
       <c r="G362">
-        <v>56001</v>
+        <v>55999</v>
       </c>
       <c r="H362">
         <v>92940</v>
       </c>
       <c r="I362">
-        <v>93008</v>
+        <v>93010</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -12203,13 +12206,13 @@
         <v>56276</v>
       </c>
       <c r="G363">
-        <v>56461</v>
+        <v>56459</v>
       </c>
       <c r="H363">
         <v>93181</v>
       </c>
       <c r="I363">
-        <v>93601</v>
+        <v>93602</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -12220,25 +12223,25 @@
         <v>2848</v>
       </c>
       <c r="C364">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="D364">
         <v>13793</v>
       </c>
       <c r="E364">
-        <v>13794</v>
+        <v>13795</v>
       </c>
       <c r="F364">
         <v>56187</v>
       </c>
       <c r="G364">
-        <v>56541</v>
+        <v>56549</v>
       </c>
       <c r="H364">
         <v>92661</v>
       </c>
       <c r="I364">
-        <v>93575</v>
+        <v>93578</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -12261,13 +12264,13 @@
         <v>56447</v>
       </c>
       <c r="G365">
-        <v>56478</v>
+        <v>56479</v>
       </c>
       <c r="H365">
         <v>92624</v>
       </c>
       <c r="I365">
-        <v>93218</v>
+        <v>93209</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -12290,13 +12293,13 @@
         <v>56442</v>
       </c>
       <c r="G366">
-        <v>56626</v>
+        <v>56629</v>
       </c>
       <c r="H366">
         <v>93835</v>
       </c>
       <c r="I366">
-        <v>94269</v>
+        <v>94262</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -12319,13 +12322,13 @@
         <v>56617</v>
       </c>
       <c r="G367">
-        <v>56649</v>
+        <v>56643</v>
       </c>
       <c r="H367">
         <v>94503</v>
       </c>
       <c r="I367">
-        <v>94417</v>
+        <v>94420</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -12348,13 +12351,13 @@
         <v>56506</v>
       </c>
       <c r="G368">
-        <v>56585</v>
+        <v>56590</v>
       </c>
       <c r="H368">
         <v>95406</v>
       </c>
       <c r="I368">
-        <v>95106</v>
+        <v>95109</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -12377,13 +12380,13 @@
         <v>56592</v>
       </c>
       <c r="G369">
-        <v>56797</v>
+        <v>56788</v>
       </c>
       <c r="H369">
         <v>96477</v>
       </c>
       <c r="I369">
-        <v>95902</v>
+        <v>95904</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -12412,7 +12415,7 @@
         <v>97175</v>
       </c>
       <c r="I370">
-        <v>96481</v>
+        <v>96482</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -12423,7 +12426,7 @@
         <v>2885</v>
       </c>
       <c r="C371">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="D371">
         <v>13385</v>
@@ -12435,13 +12438,13 @@
         <v>57654</v>
       </c>
       <c r="G371">
-        <v>57868</v>
+        <v>57871</v>
       </c>
       <c r="H371">
         <v>97519</v>
       </c>
       <c r="I371">
-        <v>97169</v>
+        <v>97159</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -12464,13 +12467,13 @@
         <v>57884</v>
       </c>
       <c r="G372">
-        <v>57763</v>
+        <v>57765</v>
       </c>
       <c r="H372">
         <v>97689</v>
       </c>
       <c r="I372">
-        <v>97352</v>
+        <v>97353</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -12493,13 +12496,13 @@
         <v>58716</v>
       </c>
       <c r="G373">
-        <v>57804</v>
+        <v>57810</v>
       </c>
       <c r="H373">
         <v>98249</v>
       </c>
       <c r="I373">
-        <v>97792</v>
+        <v>97805</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -12516,7 +12519,7 @@
         <v>14508</v>
       </c>
       <c r="E374">
-        <v>14160</v>
+        <v>14159</v>
       </c>
       <c r="F374">
         <v>57586</v>
@@ -12528,7 +12531,7 @@
         <v>97903</v>
       </c>
       <c r="I374">
-        <v>98138</v>
+        <v>98139</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -12551,13 +12554,13 @@
         <v>56943</v>
       </c>
       <c r="G375">
-        <v>57155</v>
+        <v>57158</v>
       </c>
       <c r="H375">
         <v>98282</v>
       </c>
       <c r="I375">
-        <v>98666</v>
+        <v>98669</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -12580,13 +12583,13 @@
         <v>57528</v>
       </c>
       <c r="G376">
-        <v>57771</v>
+        <v>57783</v>
       </c>
       <c r="H376">
         <v>98638</v>
       </c>
       <c r="I376">
-        <v>99638</v>
+        <v>99643</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -12597,7 +12600,7 @@
         <v>2934</v>
       </c>
       <c r="C377">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="D377">
         <v>14564</v>
@@ -12609,13 +12612,13 @@
         <v>57462</v>
       </c>
       <c r="G377">
-        <v>57605</v>
+        <v>57600</v>
       </c>
       <c r="H377">
         <v>99291</v>
       </c>
       <c r="I377">
-        <v>100086</v>
+        <v>100079</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -12626,7 +12629,7 @@
         <v>2943</v>
       </c>
       <c r="C378">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="D378">
         <v>14682</v>
@@ -12638,13 +12641,13 @@
         <v>57872</v>
       </c>
       <c r="G378">
-        <v>57986</v>
+        <v>57992</v>
       </c>
       <c r="H378">
         <v>99342</v>
       </c>
       <c r="I378">
-        <v>99826</v>
+        <v>99820</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -12673,7 +12676,7 @@
         <v>100766</v>
       </c>
       <c r="I379">
-        <v>100560</v>
+        <v>100564</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -12696,13 +12699,13 @@
         <v>58605</v>
       </c>
       <c r="G380">
-        <v>58777</v>
+        <v>58771</v>
       </c>
       <c r="H380">
         <v>101197</v>
       </c>
       <c r="I380">
-        <v>100872</v>
+        <v>100871</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -12719,19 +12722,19 @@
         <v>14530</v>
       </c>
       <c r="E381">
-        <v>14841</v>
+        <v>14842</v>
       </c>
       <c r="F381">
         <v>58233</v>
       </c>
       <c r="G381">
-        <v>58505</v>
+        <v>58483</v>
       </c>
       <c r="H381">
         <v>100472</v>
       </c>
       <c r="I381">
-        <v>99930</v>
+        <v>99928</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -12742,25 +12745,25 @@
         <v>2987</v>
       </c>
       <c r="C382">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="D382">
         <v>14723</v>
       </c>
       <c r="E382">
-        <v>14870</v>
+        <v>14869</v>
       </c>
       <c r="F382">
         <v>59454</v>
       </c>
       <c r="G382">
-        <v>59273</v>
+        <v>59271</v>
       </c>
       <c r="H382">
         <v>101657</v>
       </c>
       <c r="I382">
-        <v>100720</v>
+        <v>100723</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -12783,13 +12786,13 @@
         <v>59127</v>
       </c>
       <c r="G383">
-        <v>59382</v>
+        <v>59392</v>
       </c>
       <c r="H383">
         <v>101237</v>
       </c>
       <c r="I383">
-        <v>100850</v>
+        <v>100832</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -12812,13 +12815,13 @@
         <v>59452</v>
       </c>
       <c r="G384">
-        <v>59335</v>
+        <v>59327</v>
       </c>
       <c r="H384">
         <v>101236</v>
       </c>
       <c r="I384">
-        <v>100776</v>
+        <v>100772</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -12841,13 +12844,13 @@
         <v>60217</v>
       </c>
       <c r="G385">
-        <v>59272</v>
+        <v>59274</v>
       </c>
       <c r="H385">
         <v>100900</v>
       </c>
       <c r="I385">
-        <v>100405</v>
+        <v>100420</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -12864,19 +12867,19 @@
         <v>15665</v>
       </c>
       <c r="E386">
-        <v>15292</v>
+        <v>15291</v>
       </c>
       <c r="F386">
         <v>60310</v>
       </c>
       <c r="G386">
-        <v>59993</v>
+        <v>59996</v>
       </c>
       <c r="H386">
         <v>100398</v>
       </c>
       <c r="I386">
-        <v>100776</v>
+        <v>100780</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -12899,13 +12902,13 @@
         <v>60009</v>
       </c>
       <c r="G387">
-        <v>60384</v>
+        <v>60389</v>
       </c>
       <c r="H387">
         <v>100429</v>
       </c>
       <c r="I387">
-        <v>101041</v>
+        <v>101044</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -12916,7 +12919,7 @@
         <v>3035</v>
       </c>
       <c r="C388">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="D388">
         <v>15656</v>
@@ -12928,13 +12931,13 @@
         <v>60811</v>
       </c>
       <c r="G388">
-        <v>61259</v>
+        <v>61267</v>
       </c>
       <c r="H388">
         <v>100778</v>
       </c>
       <c r="I388">
-        <v>101962</v>
+        <v>101968</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -12945,25 +12948,25 @@
         <v>3003</v>
       </c>
       <c r="C389">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="D389">
         <v>15744</v>
       </c>
       <c r="E389">
-        <v>15763</v>
+        <v>15764</v>
       </c>
       <c r="F389">
         <v>61913</v>
       </c>
       <c r="G389">
-        <v>61944</v>
+        <v>61936</v>
       </c>
       <c r="H389">
         <v>102693</v>
       </c>
       <c r="I389">
-        <v>103507</v>
+        <v>103508</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -12974,25 +12977,25 @@
         <v>3007</v>
       </c>
       <c r="C390">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="D390">
         <v>15973</v>
       </c>
       <c r="E390">
-        <v>15843</v>
+        <v>15844</v>
       </c>
       <c r="F390">
         <v>62370</v>
       </c>
       <c r="G390">
-        <v>62493</v>
+        <v>62503</v>
       </c>
       <c r="H390">
         <v>103050</v>
       </c>
       <c r="I390">
-        <v>103623</v>
+        <v>103624</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -13003,25 +13006,25 @@
         <v>3006</v>
       </c>
       <c r="C391">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="D391">
         <v>16154</v>
       </c>
       <c r="E391">
-        <v>15988</v>
+        <v>15989</v>
       </c>
       <c r="F391">
         <v>63098</v>
       </c>
       <c r="G391">
-        <v>62945</v>
+        <v>62954</v>
       </c>
       <c r="H391">
         <v>104275</v>
       </c>
       <c r="I391">
-        <v>103958</v>
+        <v>103959</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -13032,7 +13035,7 @@
         <v>2996</v>
       </c>
       <c r="C392">
-        <v>2995</v>
+        <v>2997</v>
       </c>
       <c r="D392">
         <v>15997</v>
@@ -13044,13 +13047,13 @@
         <v>62814</v>
       </c>
       <c r="G392">
-        <v>63005</v>
+        <v>63020</v>
       </c>
       <c r="H392">
         <v>104905</v>
       </c>
       <c r="I392">
-        <v>104444</v>
+        <v>104445</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -13067,19 +13070,19 @@
         <v>15757</v>
       </c>
       <c r="E393">
-        <v>16099</v>
+        <v>16098</v>
       </c>
       <c r="F393">
         <v>62793</v>
       </c>
       <c r="G393">
-        <v>63001</v>
+        <v>62959</v>
       </c>
       <c r="H393">
         <v>105384</v>
       </c>
       <c r="I393">
-        <v>104689</v>
+        <v>104685</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -13090,25 +13093,25 @@
         <v>3058</v>
       </c>
       <c r="C394">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="D394">
         <v>16139</v>
       </c>
       <c r="E394">
-        <v>16186</v>
+        <v>16185</v>
       </c>
       <c r="F394">
         <v>63353</v>
       </c>
       <c r="G394">
-        <v>63159</v>
+        <v>63146</v>
       </c>
       <c r="H394">
         <v>106537</v>
       </c>
       <c r="I394">
-        <v>105333</v>
+        <v>105331</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -13119,7 +13122,7 @@
         <v>3006</v>
       </c>
       <c r="C395">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="D395">
         <v>15883</v>
@@ -13131,13 +13134,13 @@
         <v>62636</v>
       </c>
       <c r="G395">
-        <v>62936</v>
+        <v>62947</v>
       </c>
       <c r="H395">
         <v>106071</v>
       </c>
       <c r="I395">
-        <v>105499</v>
+        <v>105474</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -13148,25 +13151,25 @@
         <v>2998</v>
       </c>
       <c r="C396">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="D396">
         <v>15991</v>
       </c>
       <c r="E396">
-        <v>16235</v>
+        <v>16234</v>
       </c>
       <c r="F396">
         <v>63902</v>
       </c>
       <c r="G396">
-        <v>63645</v>
+        <v>63644</v>
       </c>
       <c r="H396">
         <v>107666</v>
       </c>
       <c r="I396">
-        <v>107032</v>
+        <v>107026</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -13177,7 +13180,7 @@
         <v>3110</v>
       </c>
       <c r="C397">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="D397">
         <v>16729</v>
@@ -13189,13 +13192,13 @@
         <v>64961</v>
       </c>
       <c r="G397">
-        <v>64044</v>
+        <v>64036</v>
       </c>
       <c r="H397">
         <v>109083</v>
       </c>
       <c r="I397">
-        <v>108822</v>
+        <v>108835</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -13206,25 +13209,25 @@
         <v>3080</v>
       </c>
       <c r="C398">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="D398">
         <v>16741</v>
       </c>
       <c r="E398">
-        <v>16415</v>
+        <v>16414</v>
       </c>
       <c r="F398">
         <v>64361</v>
       </c>
       <c r="G398">
-        <v>64117</v>
+        <v>64115</v>
       </c>
       <c r="H398">
         <v>108838</v>
       </c>
       <c r="I398">
-        <v>109493</v>
+        <v>109498</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -13235,25 +13238,25 @@
         <v>3085</v>
       </c>
       <c r="C399">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="D399">
         <v>16474</v>
       </c>
       <c r="E399">
-        <v>16524</v>
+        <v>16523</v>
       </c>
       <c r="F399">
         <v>63835</v>
       </c>
       <c r="G399">
-        <v>64320</v>
+        <v>64327</v>
       </c>
       <c r="H399">
         <v>108969</v>
       </c>
       <c r="I399">
-        <v>109814</v>
+        <v>109818</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -13264,7 +13267,7 @@
         <v>3060</v>
       </c>
       <c r="C400">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="D400">
         <v>16530</v>
@@ -13276,13 +13279,13 @@
         <v>64035</v>
       </c>
       <c r="G400">
-        <v>64373</v>
+        <v>64391</v>
       </c>
       <c r="H400">
         <v>109195</v>
       </c>
       <c r="I400">
-        <v>110470</v>
+        <v>110481</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -13293,25 +13296,25 @@
         <v>3040</v>
       </c>
       <c r="C401">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="D401">
         <v>16836</v>
       </c>
       <c r="E401">
-        <v>16813</v>
+        <v>16814</v>
       </c>
       <c r="F401">
         <v>64863</v>
       </c>
       <c r="G401">
-        <v>65000</v>
+        <v>64989</v>
       </c>
       <c r="H401">
         <v>110634</v>
       </c>
       <c r="I401">
-        <v>111621</v>
+        <v>111632</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -13322,25 +13325,25 @@
         <v>3057</v>
       </c>
       <c r="C402">
-        <v>3056</v>
+        <v>3058</v>
       </c>
       <c r="D402">
         <v>16996</v>
       </c>
       <c r="E402">
-        <v>16913</v>
+        <v>16916</v>
       </c>
       <c r="F402">
         <v>65079</v>
       </c>
       <c r="G402">
-        <v>65142</v>
+        <v>65160</v>
       </c>
       <c r="H402">
         <v>111300</v>
       </c>
       <c r="I402">
-        <v>111917</v>
+        <v>111932</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -13351,25 +13354,25 @@
         <v>3063</v>
       </c>
       <c r="C403">
-        <v>3053</v>
+        <v>3056</v>
       </c>
       <c r="D403">
         <v>17123</v>
       </c>
       <c r="E403">
-        <v>16889</v>
+        <v>16893</v>
       </c>
       <c r="F403">
         <v>65189</v>
       </c>
       <c r="G403">
-        <v>65098</v>
+        <v>65125</v>
       </c>
       <c r="H403">
         <v>112754</v>
       </c>
       <c r="I403">
-        <v>112454</v>
+        <v>112452</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -13380,25 +13383,25 @@
         <v>3065</v>
       </c>
       <c r="C404">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="D404">
         <v>17144</v>
       </c>
       <c r="E404">
-        <v>17130</v>
+        <v>17135</v>
       </c>
       <c r="F404">
         <v>65186</v>
       </c>
       <c r="G404">
-        <v>65391</v>
+        <v>65404</v>
       </c>
       <c r="H404">
         <v>113201</v>
       </c>
       <c r="I404">
-        <v>112889</v>
+        <v>112883</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -13409,25 +13412,25 @@
         <v>3053</v>
       </c>
       <c r="C405">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="D405">
         <v>17145</v>
       </c>
       <c r="E405">
-        <v>17415</v>
+        <v>17412</v>
       </c>
       <c r="F405">
         <v>65912</v>
       </c>
       <c r="G405">
-        <v>65983</v>
+        <v>65923</v>
       </c>
       <c r="H405">
         <v>114308</v>
       </c>
       <c r="I405">
-        <v>113397</v>
+        <v>113388</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -13438,25 +13441,25 @@
         <v>3140</v>
       </c>
       <c r="C406">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="D406">
         <v>17763</v>
       </c>
       <c r="E406">
-        <v>17771</v>
+        <v>17767</v>
       </c>
       <c r="F406">
         <v>66832</v>
       </c>
       <c r="G406">
-        <v>66684</v>
+        <v>66664</v>
       </c>
       <c r="H406">
         <v>115725</v>
       </c>
       <c r="I406">
-        <v>114353</v>
+        <v>114345</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -13467,25 +13470,25 @@
         <v>3121</v>
       </c>
       <c r="C407">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="D407">
         <v>17923</v>
       </c>
       <c r="E407">
-        <v>18229</v>
+        <v>18228</v>
       </c>
       <c r="F407">
         <v>66618</v>
       </c>
       <c r="G407">
-        <v>66976</v>
+        <v>66993</v>
       </c>
       <c r="H407">
         <v>115433</v>
       </c>
       <c r="I407">
-        <v>114880</v>
+        <v>114847</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -13496,25 +13499,25 @@
         <v>3273</v>
       </c>
       <c r="C408">
-        <v>3277</v>
+        <v>3275</v>
       </c>
       <c r="D408">
         <v>18710</v>
       </c>
       <c r="E408">
-        <v>18956</v>
+        <v>18955</v>
       </c>
       <c r="F408">
         <v>68340</v>
       </c>
       <c r="G408">
-        <v>68148</v>
+        <v>68134</v>
       </c>
       <c r="H408">
         <v>116632</v>
       </c>
       <c r="I408">
-        <v>115879</v>
+        <v>115866</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -13525,25 +13528,25 @@
         <v>3380</v>
       </c>
       <c r="C409">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="D409">
         <v>19470</v>
       </c>
       <c r="E409">
-        <v>19027</v>
+        <v>19026</v>
       </c>
       <c r="F409">
         <v>69582</v>
       </c>
       <c r="G409">
-        <v>68619</v>
+        <v>68606</v>
       </c>
       <c r="H409">
         <v>117290</v>
       </c>
       <c r="I409">
-        <v>116841</v>
+        <v>116852</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -13554,13 +13557,13 @@
         <v>3346</v>
       </c>
       <c r="C410">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="D410">
         <v>19148</v>
       </c>
       <c r="E410">
-        <v>18830</v>
+        <v>18828</v>
       </c>
       <c r="F410">
         <v>68747</v>
@@ -13572,7 +13575,7 @@
         <v>116588</v>
       </c>
       <c r="I410">
-        <v>117277</v>
+        <v>117285</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -13583,25 +13586,25 @@
         <v>3359</v>
       </c>
       <c r="C411">
-        <v>3401</v>
+        <v>3399</v>
       </c>
       <c r="D411">
         <v>19060</v>
       </c>
       <c r="E411">
-        <v>18997</v>
+        <v>18996</v>
       </c>
       <c r="F411">
         <v>68708</v>
       </c>
       <c r="G411">
-        <v>69308</v>
+        <v>69312</v>
       </c>
       <c r="H411">
         <v>117030</v>
       </c>
       <c r="I411">
-        <v>118211</v>
+        <v>118216</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -13612,7 +13615,7 @@
         <v>3404</v>
       </c>
       <c r="C412">
-        <v>3507</v>
+        <v>3509</v>
       </c>
       <c r="D412">
         <v>19887</v>
@@ -13624,13 +13627,13 @@
         <v>68893</v>
       </c>
       <c r="G412">
-        <v>69435</v>
+        <v>69453</v>
       </c>
       <c r="H412">
         <v>116703</v>
       </c>
       <c r="I412">
-        <v>118312</v>
+        <v>118328</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -13641,25 +13644,25 @@
         <v>3595</v>
       </c>
       <c r="C413">
-        <v>3644</v>
+        <v>3647</v>
       </c>
       <c r="D413">
         <v>21501</v>
       </c>
       <c r="E413">
-        <v>21520</v>
+        <v>21522</v>
       </c>
       <c r="F413">
         <v>69970</v>
       </c>
       <c r="G413">
-        <v>70132</v>
+        <v>70127</v>
       </c>
       <c r="H413">
         <v>117204</v>
       </c>
       <c r="I413">
-        <v>118404</v>
+        <v>118426</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -13670,25 +13673,25 @@
         <v>3757</v>
       </c>
       <c r="C414">
-        <v>3754</v>
+        <v>3758</v>
       </c>
       <c r="D414">
         <v>22300</v>
       </c>
       <c r="E414">
-        <v>22080</v>
+        <v>22086</v>
       </c>
       <c r="F414">
         <v>69897</v>
       </c>
       <c r="G414">
-        <v>69837</v>
+        <v>69875</v>
       </c>
       <c r="H414">
         <v>118047</v>
       </c>
       <c r="I414">
-        <v>118486</v>
+        <v>118520</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -13699,25 +13702,25 @@
         <v>3866</v>
       </c>
       <c r="C415">
-        <v>3844</v>
+        <v>3850</v>
       </c>
       <c r="D415">
         <v>23344</v>
       </c>
       <c r="E415">
-        <v>22998</v>
+        <v>23007</v>
       </c>
       <c r="F415">
         <v>70154</v>
       </c>
       <c r="G415">
-        <v>70077</v>
+        <v>70117</v>
       </c>
       <c r="H415">
         <v>120075</v>
       </c>
       <c r="I415">
-        <v>119657</v>
+        <v>119652</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -13728,25 +13731,25 @@
         <v>4012</v>
       </c>
       <c r="C416">
-        <v>3964</v>
+        <v>3971</v>
       </c>
       <c r="D416">
         <v>23753</v>
       </c>
       <c r="E416">
-        <v>23672</v>
+        <v>23684</v>
       </c>
       <c r="F416">
         <v>70043</v>
       </c>
       <c r="G416">
-        <v>70121</v>
+        <v>70146</v>
       </c>
       <c r="H416">
         <v>119780</v>
       </c>
       <c r="I416">
-        <v>119301</v>
+        <v>119291</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -13757,25 +13760,25 @@
         <v>4451</v>
       </c>
       <c r="C417">
-        <v>4442</v>
+        <v>4440</v>
       </c>
       <c r="D417">
         <v>26409</v>
       </c>
       <c r="E417">
-        <v>26830</v>
+        <v>26819</v>
       </c>
       <c r="F417">
         <v>70892</v>
       </c>
       <c r="G417">
-        <v>71007</v>
+        <v>70928</v>
       </c>
       <c r="H417">
         <v>121391</v>
       </c>
       <c r="I417">
-        <v>120533</v>
+        <v>120517</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -13786,25 +13789,25 @@
         <v>4941</v>
       </c>
       <c r="C418">
-        <v>4844</v>
+        <v>4837</v>
       </c>
       <c r="D418">
         <v>27868</v>
       </c>
       <c r="E418">
-        <v>27950</v>
+        <v>27938</v>
       </c>
       <c r="F418">
         <v>70787</v>
       </c>
       <c r="G418">
-        <v>70684</v>
+        <v>70662</v>
       </c>
       <c r="H418">
         <v>122590</v>
       </c>
       <c r="I418">
-        <v>121135</v>
+        <v>121118</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -13815,25 +13818,25 @@
         <v>5085</v>
       </c>
       <c r="C419">
-        <v>5023</v>
+        <v>5016</v>
       </c>
       <c r="D419">
         <v>27767</v>
       </c>
       <c r="E419">
-        <v>28289</v>
+        <v>28285</v>
       </c>
       <c r="F419">
         <v>70999</v>
       </c>
       <c r="G419">
-        <v>71368</v>
+        <v>71371</v>
       </c>
       <c r="H419">
         <v>121544</v>
       </c>
       <c r="I419">
-        <v>120824</v>
+        <v>120785</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -13844,25 +13847,25 @@
         <v>5081</v>
       </c>
       <c r="C420">
-        <v>5074</v>
+        <v>5068</v>
       </c>
       <c r="D420">
         <v>27382</v>
       </c>
       <c r="E420">
-        <v>27930</v>
+        <v>27925</v>
       </c>
       <c r="F420">
         <v>70590</v>
       </c>
       <c r="G420">
-        <v>70453</v>
+        <v>70440</v>
       </c>
       <c r="H420">
         <v>122072</v>
       </c>
       <c r="I420">
-        <v>121352</v>
+        <v>121335</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -13873,25 +13876,25 @@
         <v>5175</v>
       </c>
       <c r="C421">
-        <v>5102</v>
+        <v>5098</v>
       </c>
       <c r="D421">
         <v>29142</v>
       </c>
       <c r="E421">
-        <v>28390</v>
+        <v>28387</v>
       </c>
       <c r="F421">
         <v>71009</v>
       </c>
       <c r="G421">
-        <v>70212</v>
+        <v>70192</v>
       </c>
       <c r="H421">
         <v>118919</v>
       </c>
       <c r="I421">
-        <v>118723</v>
+        <v>118726</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -13902,25 +13905,25 @@
         <v>5521</v>
       </c>
       <c r="C422">
-        <v>5575</v>
+        <v>5570</v>
       </c>
       <c r="D422">
         <v>30440</v>
       </c>
       <c r="E422">
-        <v>29733</v>
+        <v>29728</v>
       </c>
       <c r="F422">
         <v>71277</v>
       </c>
       <c r="G422">
-        <v>70848</v>
+        <v>70849</v>
       </c>
       <c r="H422">
         <v>118116</v>
       </c>
       <c r="I422">
-        <v>118807</v>
+        <v>118816</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -13931,25 +13934,25 @@
         <v>5594</v>
       </c>
       <c r="C423">
-        <v>5692</v>
+        <v>5689</v>
       </c>
       <c r="D423">
         <v>29964</v>
       </c>
       <c r="E423">
-        <v>30142</v>
+        <v>30141</v>
       </c>
       <c r="F423">
         <v>70273</v>
       </c>
       <c r="G423">
-        <v>70747</v>
+        <v>70756</v>
       </c>
       <c r="H423">
         <v>118157</v>
       </c>
       <c r="I423">
-        <v>119211</v>
+        <v>119221</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -13960,25 +13963,25 @@
         <v>5548</v>
       </c>
       <c r="C424">
-        <v>5750</v>
+        <v>5754</v>
       </c>
       <c r="D424">
         <v>30207</v>
       </c>
       <c r="E424">
-        <v>30529</v>
+        <v>30531</v>
       </c>
       <c r="F424">
         <v>70529</v>
       </c>
       <c r="G424">
-        <v>71095</v>
+        <v>71116</v>
       </c>
       <c r="H424">
         <v>117910</v>
       </c>
       <c r="I424">
-        <v>119667</v>
+        <v>119689</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -13989,25 +13992,25 @@
         <v>5513</v>
       </c>
       <c r="C425">
-        <v>5606</v>
+        <v>5613</v>
       </c>
       <c r="D425">
         <v>30162</v>
       </c>
       <c r="E425">
-        <v>30287</v>
+        <v>30291</v>
       </c>
       <c r="F425">
         <v>70741</v>
       </c>
       <c r="G425">
-        <v>70866</v>
+        <v>70868</v>
       </c>
       <c r="H425">
         <v>119194</v>
       </c>
       <c r="I425">
-        <v>120371</v>
+        <v>120398</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -14018,25 +14021,25 @@
         <v>5921</v>
       </c>
       <c r="C426">
-        <v>5915</v>
+        <v>5924</v>
       </c>
       <c r="D426">
         <v>33652</v>
       </c>
       <c r="E426">
-        <v>33497</v>
+        <v>33509</v>
       </c>
       <c r="F426">
         <v>71933</v>
       </c>
       <c r="G426">
-        <v>72068</v>
+        <v>72104</v>
       </c>
       <c r="H426">
         <v>121134</v>
       </c>
       <c r="I426">
-        <v>121762</v>
+        <v>121807</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -14047,25 +14050,25 @@
         <v>6305</v>
       </c>
       <c r="C427">
-        <v>6239</v>
+        <v>6252</v>
       </c>
       <c r="D427">
         <v>34594</v>
       </c>
       <c r="E427">
-        <v>34039</v>
+        <v>34057</v>
       </c>
       <c r="F427">
         <v>72780</v>
       </c>
       <c r="G427">
-        <v>72664</v>
+        <v>72723</v>
       </c>
       <c r="H427">
-        <v>122409</v>
+        <v>122459</v>
       </c>
       <c r="I427">
-        <v>121978</v>
+        <v>122031</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -14076,25 +14079,54 @@
         <v>6402</v>
       </c>
       <c r="C428">
-        <v>6311</v>
+        <v>6327</v>
       </c>
       <c r="D428">
         <v>34779</v>
       </c>
       <c r="E428">
-        <v>34651</v>
+        <v>34678</v>
       </c>
       <c r="F428">
-        <v>73334</v>
+        <v>74024</v>
       </c>
       <c r="G428">
-        <v>73524</v>
+        <v>74210</v>
       </c>
       <c r="H428">
-        <v>123831</v>
+        <v>124196</v>
       </c>
       <c r="I428">
-        <v>123267</v>
+        <v>123609</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="A429" t="s">
+        <v>436</v>
+      </c>
+      <c r="B429">
+        <v>6480</v>
+      </c>
+      <c r="C429">
+        <v>6467</v>
+      </c>
+      <c r="D429">
+        <v>34631</v>
+      </c>
+      <c r="E429">
+        <v>35268</v>
+      </c>
+      <c r="F429">
+        <v>74390</v>
+      </c>
+      <c r="G429">
+        <v>74361</v>
+      </c>
+      <c r="H429">
+        <v>125596</v>
+      </c>
+      <c r="I429">
+        <v>124543</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/2/Agregados promedios 1985 a 2021 - Mensual.xlsx
+++ b/5/1/2/Agregados promedios 1985 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
   <si>
     <t>Serie</t>
   </si>
@@ -1325,6 +1325,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I429"/>
+  <dimension ref="A1:I430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1795,7 +1798,7 @@
         <v>3435</v>
       </c>
       <c r="G4">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H4">
         <v>5677</v>
@@ -1876,7 +1879,7 @@
         <v>965</v>
       </c>
       <c r="E7">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F7">
         <v>3508</v>
@@ -2004,7 +2007,7 @@
         <v>6026</v>
       </c>
       <c r="I11">
-        <v>6172</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2143,7 +2146,7 @@
         <v>3936</v>
       </c>
       <c r="G16">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="H16">
         <v>6513</v>
@@ -2201,7 +2204,7 @@
         <v>3905</v>
       </c>
       <c r="G18">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="H18">
         <v>6539</v>
@@ -2259,7 +2262,7 @@
         <v>4079</v>
       </c>
       <c r="G20">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="H20">
         <v>6802</v>
@@ -2340,7 +2343,7 @@
         <v>957</v>
       </c>
       <c r="E23">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F23">
         <v>4046</v>
@@ -2363,7 +2366,7 @@
         <v>332</v>
       </c>
       <c r="C24">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D24">
         <v>946</v>
@@ -2410,7 +2413,7 @@
         <v>7251</v>
       </c>
       <c r="I25">
-        <v>7237</v>
+        <v>7238</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2497,7 +2500,7 @@
         <v>7612</v>
       </c>
       <c r="I28">
-        <v>7493</v>
+        <v>7492</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2572,7 +2575,7 @@
         <v>1204</v>
       </c>
       <c r="E31">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F31">
         <v>4594</v>
@@ -2613,7 +2616,7 @@
         <v>8097</v>
       </c>
       <c r="I32">
-        <v>8053</v>
+        <v>8052</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2642,7 +2645,7 @@
         <v>8211</v>
       </c>
       <c r="I33">
-        <v>8199</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2688,7 +2691,7 @@
         <v>1291</v>
       </c>
       <c r="E35">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F35">
         <v>4974</v>
@@ -2758,7 +2761,7 @@
         <v>8528</v>
       </c>
       <c r="I37">
-        <v>8490</v>
+        <v>8491</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2839,13 +2842,13 @@
         <v>5200</v>
       </c>
       <c r="G40">
-        <v>5138</v>
+        <v>5139</v>
       </c>
       <c r="H40">
         <v>9134</v>
       </c>
       <c r="I40">
-        <v>8989</v>
+        <v>8990</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2920,7 +2923,7 @@
         <v>1307</v>
       </c>
       <c r="E43">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="F43">
         <v>5157</v>
@@ -2949,7 +2952,7 @@
         <v>1262</v>
       </c>
       <c r="E44">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="F44">
         <v>5155</v>
@@ -2990,7 +2993,7 @@
         <v>9628</v>
       </c>
       <c r="I45">
-        <v>9627</v>
+        <v>9628</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3036,19 +3039,19 @@
         <v>1221</v>
       </c>
       <c r="E47">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F47">
         <v>5122</v>
       </c>
       <c r="G47">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="H47">
         <v>9627</v>
       </c>
       <c r="I47">
-        <v>9893</v>
+        <v>9892</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3094,7 +3097,7 @@
         <v>1372</v>
       </c>
       <c r="E49">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F49">
         <v>5407</v>
@@ -3129,7 +3132,7 @@
         <v>5373</v>
       </c>
       <c r="G50">
-        <v>5300</v>
+        <v>5299</v>
       </c>
       <c r="H50">
         <v>10187</v>
@@ -3187,7 +3190,7 @@
         <v>5364</v>
       </c>
       <c r="G52">
-        <v>5284</v>
+        <v>5285</v>
       </c>
       <c r="H52">
         <v>10674</v>
@@ -3245,7 +3248,7 @@
         <v>5401</v>
       </c>
       <c r="G54">
-        <v>5419</v>
+        <v>5420</v>
       </c>
       <c r="H54">
         <v>10690</v>
@@ -3303,7 +3306,7 @@
         <v>5420</v>
       </c>
       <c r="G56">
-        <v>5430</v>
+        <v>5429</v>
       </c>
       <c r="H56">
         <v>10946</v>
@@ -3338,7 +3341,7 @@
         <v>11009</v>
       </c>
       <c r="I57">
-        <v>11016</v>
+        <v>11017</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3361,13 +3364,13 @@
         <v>5194</v>
       </c>
       <c r="G58">
-        <v>5234</v>
+        <v>5235</v>
       </c>
       <c r="H58">
         <v>10788</v>
       </c>
       <c r="I58">
-        <v>10852</v>
+        <v>10853</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3384,19 +3387,19 @@
         <v>1050</v>
       </c>
       <c r="E59">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F59">
         <v>5170</v>
       </c>
       <c r="G59">
-        <v>5317</v>
+        <v>5318</v>
       </c>
       <c r="H59">
         <v>10746</v>
       </c>
       <c r="I59">
-        <v>11051</v>
+        <v>11052</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3407,7 +3410,7 @@
         <v>358</v>
       </c>
       <c r="C60">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D60">
         <v>1058</v>
@@ -3523,7 +3526,7 @@
         <v>479</v>
       </c>
       <c r="C64">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D64">
         <v>1533</v>
@@ -3535,7 +3538,7 @@
         <v>5714</v>
       </c>
       <c r="G64">
-        <v>5633</v>
+        <v>5632</v>
       </c>
       <c r="H64">
         <v>12208</v>
@@ -3587,13 +3590,13 @@
         <v>1423</v>
       </c>
       <c r="E66">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="F66">
         <v>5725</v>
       </c>
       <c r="G66">
-        <v>5740</v>
+        <v>5741</v>
       </c>
       <c r="H66">
         <v>11962</v>
@@ -3709,13 +3712,13 @@
         <v>6066</v>
       </c>
       <c r="G70">
-        <v>6123</v>
+        <v>6122</v>
       </c>
       <c r="H70">
         <v>12784</v>
       </c>
       <c r="I70">
-        <v>12862</v>
+        <v>12861</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3790,19 +3793,19 @@
         <v>1527</v>
       </c>
       <c r="E73">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F73">
         <v>6467</v>
       </c>
       <c r="G73">
-        <v>6420</v>
+        <v>6419</v>
       </c>
       <c r="H73">
         <v>13432</v>
       </c>
       <c r="I73">
-        <v>13358</v>
+        <v>13357</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3813,7 +3816,7 @@
         <v>490</v>
       </c>
       <c r="C74">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D74">
         <v>1592</v>
@@ -3860,7 +3863,7 @@
         <v>14134</v>
       </c>
       <c r="I75">
-        <v>13898</v>
+        <v>13899</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3883,7 +3886,7 @@
         <v>7108</v>
       </c>
       <c r="G76">
-        <v>6999</v>
+        <v>6998</v>
       </c>
       <c r="H76">
         <v>14246</v>
@@ -3906,13 +3909,13 @@
         <v>1964</v>
       </c>
       <c r="E77">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="F77">
         <v>7041</v>
       </c>
       <c r="G77">
-        <v>6989</v>
+        <v>6990</v>
       </c>
       <c r="H77">
         <v>14200</v>
@@ -3947,7 +3950,7 @@
         <v>14142</v>
       </c>
       <c r="I78">
-        <v>14252</v>
+        <v>14251</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3993,7 +3996,7 @@
         <v>1689</v>
       </c>
       <c r="E80">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="F80">
         <v>7098</v>
@@ -4016,7 +4019,7 @@
         <v>492</v>
       </c>
       <c r="C81">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D81">
         <v>1675</v>
@@ -4121,7 +4124,7 @@
         <v>14833</v>
       </c>
       <c r="I84">
-        <v>15029</v>
+        <v>15030</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4138,13 +4141,13 @@
         <v>1760</v>
       </c>
       <c r="E85">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="F85">
         <v>7550</v>
       </c>
       <c r="G85">
-        <v>7522</v>
+        <v>7523</v>
       </c>
       <c r="H85">
         <v>15260</v>
@@ -4196,7 +4199,7 @@
         <v>1942</v>
       </c>
       <c r="E87">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="F87">
         <v>7829</v>
@@ -4237,7 +4240,7 @@
         <v>15793</v>
       </c>
       <c r="I88">
-        <v>15556</v>
+        <v>15557</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4260,7 +4263,7 @@
         <v>7899</v>
       </c>
       <c r="G89">
-        <v>7834</v>
+        <v>7835</v>
       </c>
       <c r="H89">
         <v>15916</v>
@@ -4353,7 +4356,7 @@
         <v>16345</v>
       </c>
       <c r="I92">
-        <v>16299</v>
+        <v>16300</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4370,19 +4373,19 @@
         <v>1719</v>
       </c>
       <c r="E93">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="F93">
         <v>8004</v>
       </c>
       <c r="G93">
-        <v>8086</v>
+        <v>8085</v>
       </c>
       <c r="H93">
         <v>16218</v>
       </c>
       <c r="I93">
-        <v>16298</v>
+        <v>16297</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4405,7 +4408,7 @@
         <v>8081</v>
       </c>
       <c r="G94">
-        <v>8170</v>
+        <v>8171</v>
       </c>
       <c r="H94">
         <v>16326</v>
@@ -4440,7 +4443,7 @@
         <v>16339</v>
       </c>
       <c r="I95">
-        <v>16628</v>
+        <v>16629</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4457,7 +4460,7 @@
         <v>1670</v>
       </c>
       <c r="E96">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="F96">
         <v>8192</v>
@@ -4486,19 +4489,19 @@
         <v>1917</v>
       </c>
       <c r="E97">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="F97">
         <v>8440</v>
       </c>
       <c r="G97">
-        <v>8416</v>
+        <v>8417</v>
       </c>
       <c r="H97">
         <v>17153</v>
       </c>
       <c r="I97">
-        <v>17076</v>
+        <v>17075</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4596,7 +4599,7 @@
         <v>587</v>
       </c>
       <c r="C101">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D101">
         <v>1896</v>
@@ -4672,7 +4675,7 @@
         <v>17319</v>
       </c>
       <c r="I103">
-        <v>17319</v>
+        <v>17320</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4695,7 +4698,7 @@
         <v>8733</v>
       </c>
       <c r="G104">
-        <v>8723</v>
+        <v>8722</v>
       </c>
       <c r="H104">
         <v>17569</v>
@@ -4730,7 +4733,7 @@
         <v>17667</v>
       </c>
       <c r="I105">
-        <v>17774</v>
+        <v>17773</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4811,13 +4814,13 @@
         <v>8916</v>
       </c>
       <c r="G108">
-        <v>9055</v>
+        <v>9056</v>
       </c>
       <c r="H108">
         <v>18475</v>
       </c>
       <c r="I108">
-        <v>18657</v>
+        <v>18658</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4869,13 +4872,13 @@
         <v>9278</v>
       </c>
       <c r="G110">
-        <v>9176</v>
+        <v>9175</v>
       </c>
       <c r="H110">
         <v>18945</v>
       </c>
       <c r="I110">
-        <v>18806</v>
+        <v>18805</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4904,7 +4907,7 @@
         <v>19163</v>
       </c>
       <c r="I111">
-        <v>18932</v>
+        <v>18931</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4921,7 +4924,7 @@
         <v>2194</v>
       </c>
       <c r="E112">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="F112">
         <v>9599</v>
@@ -4950,13 +4953,13 @@
         <v>2174</v>
       </c>
       <c r="E113">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="F113">
         <v>9649</v>
       </c>
       <c r="G113">
-        <v>9595</v>
+        <v>9594</v>
       </c>
       <c r="H113">
         <v>19400</v>
@@ -4985,13 +4988,13 @@
         <v>9676</v>
       </c>
       <c r="G114">
-        <v>9710</v>
+        <v>9709</v>
       </c>
       <c r="H114">
         <v>19588</v>
       </c>
       <c r="I114">
-        <v>19713</v>
+        <v>19714</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5020,7 +5023,7 @@
         <v>19930</v>
       </c>
       <c r="I115">
-        <v>19902</v>
+        <v>19901</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5072,13 +5075,13 @@
         <v>9948</v>
       </c>
       <c r="G117">
-        <v>10045</v>
+        <v>10046</v>
       </c>
       <c r="H117">
         <v>19860</v>
       </c>
       <c r="I117">
-        <v>19986</v>
+        <v>19987</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5130,13 +5133,13 @@
         <v>10196</v>
       </c>
       <c r="G119">
-        <v>10274</v>
+        <v>10272</v>
       </c>
       <c r="H119">
         <v>20114</v>
       </c>
       <c r="I119">
-        <v>20356</v>
+        <v>20354</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5159,13 +5162,13 @@
         <v>10161</v>
       </c>
       <c r="G120">
-        <v>10308</v>
+        <v>10309</v>
       </c>
       <c r="H120">
         <v>20608</v>
       </c>
       <c r="I120">
-        <v>20785</v>
+        <v>20786</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5194,7 +5197,7 @@
         <v>20959</v>
       </c>
       <c r="I121">
-        <v>20839</v>
+        <v>20837</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5252,7 +5255,7 @@
         <v>21442</v>
       </c>
       <c r="I123">
-        <v>21296</v>
+        <v>21297</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5275,7 +5278,7 @@
         <v>11044</v>
       </c>
       <c r="G124">
-        <v>10969</v>
+        <v>10968</v>
       </c>
       <c r="H124">
         <v>21609</v>
@@ -5333,13 +5336,13 @@
         <v>11235</v>
       </c>
       <c r="G126">
-        <v>11260</v>
+        <v>11261</v>
       </c>
       <c r="H126">
         <v>21519</v>
       </c>
       <c r="I126">
-        <v>21629</v>
+        <v>21631</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5362,13 +5365,13 @@
         <v>11416</v>
       </c>
       <c r="G127">
-        <v>11345</v>
+        <v>11344</v>
       </c>
       <c r="H127">
         <v>21960</v>
       </c>
       <c r="I127">
-        <v>21912</v>
+        <v>21911</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5443,13 +5446,13 @@
         <v>2338</v>
       </c>
       <c r="E130">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="F130">
         <v>11610</v>
       </c>
       <c r="G130">
-        <v>11659</v>
+        <v>11658</v>
       </c>
       <c r="H130">
         <v>22758</v>
@@ -5478,13 +5481,13 @@
         <v>11865</v>
       </c>
       <c r="G131">
-        <v>11961</v>
+        <v>11962</v>
       </c>
       <c r="H131">
         <v>22978</v>
       </c>
       <c r="I131">
-        <v>23248</v>
+        <v>23247</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5507,7 +5510,7 @@
         <v>11921</v>
       </c>
       <c r="G132">
-        <v>12059</v>
+        <v>12060</v>
       </c>
       <c r="H132">
         <v>23072</v>
@@ -5536,13 +5539,13 @@
         <v>12135</v>
       </c>
       <c r="G133">
-        <v>12140</v>
+        <v>12138</v>
       </c>
       <c r="H133">
         <v>23370</v>
       </c>
       <c r="I133">
-        <v>23247</v>
+        <v>23245</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5559,13 +5562,13 @@
         <v>2623</v>
       </c>
       <c r="E134">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="F134">
         <v>12420</v>
       </c>
       <c r="G134">
-        <v>12291</v>
+        <v>12292</v>
       </c>
       <c r="H134">
         <v>23743</v>
@@ -5600,7 +5603,7 @@
         <v>23884</v>
       </c>
       <c r="I135">
-        <v>23734</v>
+        <v>23733</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5652,13 +5655,13 @@
         <v>12732</v>
       </c>
       <c r="G137">
-        <v>12690</v>
+        <v>12689</v>
       </c>
       <c r="H137">
         <v>24462</v>
       </c>
       <c r="I137">
-        <v>24405</v>
+        <v>24404</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5681,7 +5684,7 @@
         <v>12847</v>
       </c>
       <c r="G138">
-        <v>12826</v>
+        <v>12825</v>
       </c>
       <c r="H138">
         <v>24663</v>
@@ -5710,13 +5713,13 @@
         <v>13107</v>
       </c>
       <c r="G139">
-        <v>13028</v>
+        <v>13029</v>
       </c>
       <c r="H139">
         <v>25102</v>
       </c>
       <c r="I139">
-        <v>25053</v>
+        <v>25054</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5768,7 +5771,7 @@
         <v>13063</v>
       </c>
       <c r="G141">
-        <v>13122</v>
+        <v>13121</v>
       </c>
       <c r="H141">
         <v>25204</v>
@@ -5791,19 +5794,19 @@
         <v>2655</v>
       </c>
       <c r="E142">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="F142">
         <v>13363</v>
       </c>
       <c r="G142">
-        <v>13421</v>
+        <v>13420</v>
       </c>
       <c r="H142">
         <v>25573</v>
       </c>
       <c r="I142">
-        <v>25664</v>
+        <v>25663</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5820,13 +5823,13 @@
         <v>2528</v>
       </c>
       <c r="E143">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="F143">
         <v>13536</v>
       </c>
       <c r="G143">
-        <v>13621</v>
+        <v>13622</v>
       </c>
       <c r="H143">
         <v>25666</v>
@@ -5884,13 +5887,13 @@
         <v>14074</v>
       </c>
       <c r="G145">
-        <v>14072</v>
+        <v>14070</v>
       </c>
       <c r="H145">
         <v>26578</v>
       </c>
       <c r="I145">
-        <v>26445</v>
+        <v>26442</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5907,13 +5910,13 @@
         <v>2832</v>
       </c>
       <c r="E146">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="F146">
         <v>13985</v>
       </c>
       <c r="G146">
-        <v>13818</v>
+        <v>13819</v>
       </c>
       <c r="H146">
         <v>25965</v>
@@ -5942,13 +5945,13 @@
         <v>14202</v>
       </c>
       <c r="G147">
-        <v>14168</v>
+        <v>14169</v>
       </c>
       <c r="H147">
         <v>26109</v>
       </c>
       <c r="I147">
-        <v>25994</v>
+        <v>25993</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5965,19 +5968,19 @@
         <v>2680</v>
       </c>
       <c r="E148">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="F148">
         <v>14310</v>
       </c>
       <c r="G148">
-        <v>14353</v>
+        <v>14352</v>
       </c>
       <c r="H148">
         <v>26372</v>
       </c>
       <c r="I148">
-        <v>26348</v>
+        <v>26347</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6000,13 +6003,13 @@
         <v>14342</v>
       </c>
       <c r="G149">
-        <v>14345</v>
+        <v>14346</v>
       </c>
       <c r="H149">
         <v>26536</v>
       </c>
       <c r="I149">
-        <v>26533</v>
+        <v>26534</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6017,7 +6020,7 @@
         <v>755</v>
       </c>
       <c r="C150">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D150">
         <v>2675</v>
@@ -6029,7 +6032,7 @@
         <v>14535</v>
       </c>
       <c r="G150">
-        <v>14490</v>
+        <v>14489</v>
       </c>
       <c r="H150">
         <v>26628</v>
@@ -6052,19 +6055,19 @@
         <v>2702</v>
       </c>
       <c r="E151">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="F151">
         <v>14572</v>
       </c>
       <c r="G151">
-        <v>14468</v>
+        <v>14467</v>
       </c>
       <c r="H151">
         <v>26781</v>
       </c>
       <c r="I151">
-        <v>26702</v>
+        <v>26701</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6081,13 +6084,13 @@
         <v>2481</v>
       </c>
       <c r="E152">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="F152">
         <v>14786</v>
       </c>
       <c r="G152">
-        <v>14670</v>
+        <v>14671</v>
       </c>
       <c r="H152">
         <v>26780</v>
@@ -6174,7 +6177,7 @@
         <v>14439</v>
       </c>
       <c r="G155">
-        <v>14541</v>
+        <v>14542</v>
       </c>
       <c r="H155">
         <v>26600</v>
@@ -6197,13 +6200,13 @@
         <v>2305</v>
       </c>
       <c r="E156">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="F156">
         <v>14438</v>
       </c>
       <c r="G156">
-        <v>14571</v>
+        <v>14572</v>
       </c>
       <c r="H156">
         <v>26782</v>
@@ -6232,13 +6235,13 @@
         <v>14458</v>
       </c>
       <c r="G157">
-        <v>14488</v>
+        <v>14489</v>
       </c>
       <c r="H157">
         <v>27027</v>
       </c>
       <c r="I157">
-        <v>26915</v>
+        <v>26916</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6261,7 +6264,7 @@
         <v>14620</v>
       </c>
       <c r="G158">
-        <v>14449</v>
+        <v>14448</v>
       </c>
       <c r="H158">
         <v>27425</v>
@@ -6290,7 +6293,7 @@
         <v>14507</v>
       </c>
       <c r="G159">
-        <v>14485</v>
+        <v>14486</v>
       </c>
       <c r="H159">
         <v>27394</v>
@@ -6319,7 +6322,7 @@
         <v>14430</v>
       </c>
       <c r="G160">
-        <v>14496</v>
+        <v>14495</v>
       </c>
       <c r="H160">
         <v>27159</v>
@@ -6354,7 +6357,7 @@
         <v>27367</v>
       </c>
       <c r="I161">
-        <v>27350</v>
+        <v>27351</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6377,13 +6380,13 @@
         <v>14998</v>
       </c>
       <c r="G162">
-        <v>14974</v>
+        <v>14975</v>
       </c>
       <c r="H162">
         <v>28009</v>
       </c>
       <c r="I162">
-        <v>28117</v>
+        <v>28119</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6435,13 +6438,13 @@
         <v>15353</v>
       </c>
       <c r="G164">
-        <v>15209</v>
+        <v>15210</v>
       </c>
       <c r="H164">
         <v>28470</v>
       </c>
       <c r="I164">
-        <v>28341</v>
+        <v>28342</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6464,7 +6467,7 @@
         <v>15348</v>
       </c>
       <c r="G165">
-        <v>15409</v>
+        <v>15408</v>
       </c>
       <c r="H165">
         <v>28376</v>
@@ -6493,7 +6496,7 @@
         <v>15491</v>
       </c>
       <c r="G166">
-        <v>15620</v>
+        <v>15621</v>
       </c>
       <c r="H166">
         <v>28656</v>
@@ -6516,19 +6519,19 @@
         <v>2596</v>
       </c>
       <c r="E167">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="F167">
         <v>15503</v>
       </c>
       <c r="G167">
-        <v>15634</v>
+        <v>15635</v>
       </c>
       <c r="H167">
         <v>28732</v>
       </c>
       <c r="I167">
-        <v>28978</v>
+        <v>28979</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6551,13 +6554,13 @@
         <v>15638</v>
       </c>
       <c r="G168">
-        <v>15772</v>
+        <v>15771</v>
       </c>
       <c r="H168">
         <v>29121</v>
       </c>
       <c r="I168">
-        <v>29222</v>
+        <v>29221</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6568,7 +6571,7 @@
         <v>854</v>
       </c>
       <c r="C169">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D169">
         <v>2935</v>
@@ -6638,7 +6641,7 @@
         <v>15792</v>
       </c>
       <c r="G171">
-        <v>15782</v>
+        <v>15781</v>
       </c>
       <c r="H171">
         <v>29450</v>
@@ -6661,19 +6664,19 @@
         <v>2710</v>
       </c>
       <c r="E172">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="F172">
         <v>15681</v>
       </c>
       <c r="G172">
-        <v>15731</v>
+        <v>15732</v>
       </c>
       <c r="H172">
         <v>29346</v>
       </c>
       <c r="I172">
-        <v>29403</v>
+        <v>29404</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6725,7 +6728,7 @@
         <v>15926</v>
       </c>
       <c r="G174">
-        <v>15875</v>
+        <v>15874</v>
       </c>
       <c r="H174">
         <v>29701</v>
@@ -6754,7 +6757,7 @@
         <v>16055</v>
       </c>
       <c r="G175">
-        <v>15962</v>
+        <v>15961</v>
       </c>
       <c r="H175">
         <v>30051</v>
@@ -6806,19 +6809,19 @@
         <v>2587</v>
       </c>
       <c r="E177">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="F177">
         <v>15989</v>
       </c>
       <c r="G177">
-        <v>16093</v>
+        <v>16095</v>
       </c>
       <c r="H177">
         <v>30550</v>
       </c>
       <c r="I177">
-        <v>30621</v>
+        <v>30623</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6841,7 +6844,7 @@
         <v>15880</v>
       </c>
       <c r="G178">
-        <v>15999</v>
+        <v>16000</v>
       </c>
       <c r="H178">
         <v>30475</v>
@@ -6864,19 +6867,19 @@
         <v>2587</v>
       </c>
       <c r="E179">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="F179">
         <v>15990</v>
       </c>
       <c r="G179">
-        <v>16172</v>
+        <v>16170</v>
       </c>
       <c r="H179">
         <v>30497</v>
       </c>
       <c r="I179">
-        <v>30738</v>
+        <v>30737</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6899,13 +6902,13 @@
         <v>16109</v>
       </c>
       <c r="G180">
-        <v>16262</v>
+        <v>16264</v>
       </c>
       <c r="H180">
         <v>30895</v>
       </c>
       <c r="I180">
-        <v>31010</v>
+        <v>31011</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6922,19 +6925,19 @@
         <v>2883</v>
       </c>
       <c r="E181">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="F181">
         <v>16498</v>
       </c>
       <c r="G181">
-        <v>16450</v>
+        <v>16448</v>
       </c>
       <c r="H181">
         <v>31592</v>
       </c>
       <c r="I181">
-        <v>31385</v>
+        <v>31384</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6957,13 +6960,13 @@
         <v>16756</v>
       </c>
       <c r="G182">
-        <v>16558</v>
+        <v>16557</v>
       </c>
       <c r="H182">
         <v>31836</v>
       </c>
       <c r="I182">
-        <v>31551</v>
+        <v>31549</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6980,7 +6983,7 @@
         <v>2844</v>
       </c>
       <c r="E183">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="F183">
         <v>16621</v>
@@ -7015,13 +7018,13 @@
         <v>16597</v>
       </c>
       <c r="G184">
-        <v>16592</v>
+        <v>16593</v>
       </c>
       <c r="H184">
         <v>31770</v>
       </c>
       <c r="I184">
-        <v>31780</v>
+        <v>31781</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -7073,13 +7076,13 @@
         <v>16819</v>
       </c>
       <c r="G186">
-        <v>16789</v>
+        <v>16790</v>
       </c>
       <c r="H186">
         <v>32033</v>
       </c>
       <c r="I186">
-        <v>32134</v>
+        <v>32135</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7102,7 +7105,7 @@
         <v>16930</v>
       </c>
       <c r="G187">
-        <v>16837</v>
+        <v>16836</v>
       </c>
       <c r="H187">
         <v>32453</v>
@@ -7125,19 +7128,19 @@
         <v>2993</v>
       </c>
       <c r="E188">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="F188">
         <v>17030</v>
       </c>
       <c r="G188">
-        <v>16943</v>
+        <v>16941</v>
       </c>
       <c r="H188">
         <v>33021</v>
       </c>
       <c r="I188">
-        <v>32960</v>
+        <v>32958</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7166,7 +7169,7 @@
         <v>33115</v>
       </c>
       <c r="I189">
-        <v>33162</v>
+        <v>33163</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -7177,7 +7180,7 @@
         <v>808</v>
       </c>
       <c r="C190">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D190">
         <v>3013</v>
@@ -7195,7 +7198,7 @@
         <v>33048</v>
       </c>
       <c r="I190">
-        <v>33176</v>
+        <v>33177</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7224,7 +7227,7 @@
         <v>33445</v>
       </c>
       <c r="I191">
-        <v>33712</v>
+        <v>33711</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7253,7 +7256,7 @@
         <v>33653</v>
       </c>
       <c r="I192">
-        <v>33748</v>
+        <v>33747</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7276,13 +7279,13 @@
         <v>17011</v>
       </c>
       <c r="G193">
-        <v>16964</v>
+        <v>16966</v>
       </c>
       <c r="H193">
         <v>33956</v>
       </c>
       <c r="I193">
-        <v>33815</v>
+        <v>33817</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7299,19 +7302,19 @@
         <v>3309</v>
       </c>
       <c r="E194">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="F194">
         <v>17183</v>
       </c>
       <c r="G194">
-        <v>16983</v>
+        <v>16985</v>
       </c>
       <c r="H194">
         <v>34352</v>
       </c>
       <c r="I194">
-        <v>34083</v>
+        <v>34084</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7369,7 +7372,7 @@
         <v>34255</v>
       </c>
       <c r="I196">
-        <v>34268</v>
+        <v>34266</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7392,7 +7395,7 @@
         <v>17327</v>
       </c>
       <c r="G197">
-        <v>17185</v>
+        <v>17184</v>
       </c>
       <c r="H197">
         <v>34227</v>
@@ -7421,13 +7424,13 @@
         <v>17292</v>
       </c>
       <c r="G198">
-        <v>17263</v>
+        <v>17264</v>
       </c>
       <c r="H198">
         <v>34144</v>
       </c>
       <c r="I198">
-        <v>34216</v>
+        <v>34217</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7450,7 +7453,7 @@
         <v>17412</v>
       </c>
       <c r="G199">
-        <v>17362</v>
+        <v>17361</v>
       </c>
       <c r="H199">
         <v>34445</v>
@@ -7479,7 +7482,7 @@
         <v>17485</v>
       </c>
       <c r="G200">
-        <v>17457</v>
+        <v>17458</v>
       </c>
       <c r="H200">
         <v>34430</v>
@@ -7531,19 +7534,19 @@
         <v>3339</v>
       </c>
       <c r="E202">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="F202">
         <v>17454</v>
       </c>
       <c r="G202">
-        <v>17629</v>
+        <v>17628</v>
       </c>
       <c r="H202">
         <v>34370</v>
       </c>
       <c r="I202">
-        <v>34516</v>
+        <v>34515</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7566,7 +7569,7 @@
         <v>17391</v>
       </c>
       <c r="G203">
-        <v>17648</v>
+        <v>17649</v>
       </c>
       <c r="H203">
         <v>34150</v>
@@ -7595,13 +7598,13 @@
         <v>17794</v>
       </c>
       <c r="G204">
-        <v>17958</v>
+        <v>17959</v>
       </c>
       <c r="H204">
         <v>34864</v>
       </c>
       <c r="I204">
-        <v>34955</v>
+        <v>34956</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7618,19 +7621,19 @@
         <v>3627</v>
       </c>
       <c r="E205">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="F205">
         <v>17937</v>
       </c>
       <c r="G205">
-        <v>17870</v>
+        <v>17868</v>
       </c>
       <c r="H205">
         <v>35105</v>
       </c>
       <c r="I205">
-        <v>34902</v>
+        <v>34901</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7647,7 +7650,7 @@
         <v>3792</v>
       </c>
       <c r="E206">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="F206">
         <v>17982</v>
@@ -7659,7 +7662,7 @@
         <v>35492</v>
       </c>
       <c r="I206">
-        <v>35212</v>
+        <v>35213</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7676,7 +7679,7 @@
         <v>3743</v>
       </c>
       <c r="E207">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="F207">
         <v>17937</v>
@@ -7705,13 +7708,13 @@
         <v>3990</v>
       </c>
       <c r="E208">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="F208">
         <v>18081</v>
       </c>
       <c r="G208">
-        <v>17944</v>
+        <v>17946</v>
       </c>
       <c r="H208">
         <v>35565</v>
@@ -7740,13 +7743,13 @@
         <v>17876</v>
       </c>
       <c r="G209">
-        <v>17733</v>
+        <v>17732</v>
       </c>
       <c r="H209">
         <v>35732</v>
       </c>
       <c r="I209">
-        <v>35686</v>
+        <v>35685</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7763,7 +7766,7 @@
         <v>3917</v>
       </c>
       <c r="E210">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="F210">
         <v>17466</v>
@@ -7798,13 +7801,13 @@
         <v>17276</v>
       </c>
       <c r="G211">
-        <v>17248</v>
+        <v>17246</v>
       </c>
       <c r="H211">
         <v>35529</v>
       </c>
       <c r="I211">
-        <v>35557</v>
+        <v>35558</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7856,7 +7859,7 @@
         <v>16811</v>
       </c>
       <c r="G213">
-        <v>17022</v>
+        <v>17021</v>
       </c>
       <c r="H213">
         <v>35505</v>
@@ -7885,13 +7888,13 @@
         <v>16924</v>
       </c>
       <c r="G214">
-        <v>17102</v>
+        <v>17100</v>
       </c>
       <c r="H214">
         <v>35622</v>
       </c>
       <c r="I214">
-        <v>35772</v>
+        <v>35771</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7908,19 +7911,19 @@
         <v>3757</v>
       </c>
       <c r="E215">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="F215">
         <v>17058</v>
       </c>
       <c r="G215">
-        <v>17306</v>
+        <v>17307</v>
       </c>
       <c r="H215">
         <v>35453</v>
       </c>
       <c r="I215">
-        <v>35737</v>
+        <v>35739</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7949,7 +7952,7 @@
         <v>35486</v>
       </c>
       <c r="I216">
-        <v>35601</v>
+        <v>35600</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7966,19 +7969,19 @@
         <v>4220</v>
       </c>
       <c r="E217">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="F217">
         <v>17326</v>
       </c>
       <c r="G217">
-        <v>17230</v>
+        <v>17228</v>
       </c>
       <c r="H217">
         <v>36016</v>
       </c>
       <c r="I217">
-        <v>35825</v>
+        <v>35824</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -8030,13 +8033,13 @@
         <v>17734</v>
       </c>
       <c r="G219">
-        <v>17562</v>
+        <v>17561</v>
       </c>
       <c r="H219">
         <v>36190</v>
       </c>
       <c r="I219">
-        <v>36038</v>
+        <v>36037</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -8059,13 +8062,13 @@
         <v>18087</v>
       </c>
       <c r="G220">
-        <v>17918</v>
+        <v>17919</v>
       </c>
       <c r="H220">
         <v>36803</v>
       </c>
       <c r="I220">
-        <v>36725</v>
+        <v>36724</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -8082,13 +8085,13 @@
         <v>4365</v>
       </c>
       <c r="E221">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="F221">
         <v>18071</v>
       </c>
       <c r="G221">
-        <v>17920</v>
+        <v>17921</v>
       </c>
       <c r="H221">
         <v>36719</v>
@@ -8117,13 +8120,13 @@
         <v>18078</v>
       </c>
       <c r="G222">
-        <v>18057</v>
+        <v>18058</v>
       </c>
       <c r="H222">
         <v>36709</v>
       </c>
       <c r="I222">
-        <v>36693</v>
+        <v>36694</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -8146,13 +8149,13 @@
         <v>18145</v>
       </c>
       <c r="G223">
-        <v>18119</v>
+        <v>18116</v>
       </c>
       <c r="H223">
         <v>36902</v>
       </c>
       <c r="I223">
-        <v>36875</v>
+        <v>36874</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -8175,7 +8178,7 @@
         <v>18512</v>
       </c>
       <c r="G224">
-        <v>18575</v>
+        <v>18576</v>
       </c>
       <c r="H224">
         <v>37107</v>
@@ -8198,19 +8201,19 @@
         <v>4575</v>
       </c>
       <c r="E225">
-        <v>4776</v>
+        <v>4775</v>
       </c>
       <c r="F225">
         <v>18725</v>
       </c>
       <c r="G225">
-        <v>19000</v>
+        <v>18998</v>
       </c>
       <c r="H225">
         <v>37401</v>
       </c>
       <c r="I225">
-        <v>37623</v>
+        <v>37622</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -8227,19 +8230,19 @@
         <v>4737</v>
       </c>
       <c r="E226">
-        <v>4865</v>
+        <v>4866</v>
       </c>
       <c r="F226">
         <v>19233</v>
       </c>
       <c r="G226">
-        <v>19459</v>
+        <v>19460</v>
       </c>
       <c r="H226">
         <v>37865</v>
       </c>
       <c r="I226">
-        <v>38080</v>
+        <v>38081</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -8250,7 +8253,7 @@
         <v>1011</v>
       </c>
       <c r="C227">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D227">
         <v>4812</v>
@@ -8262,13 +8265,13 @@
         <v>19654</v>
       </c>
       <c r="G227">
-        <v>19942</v>
+        <v>19941</v>
       </c>
       <c r="H227">
         <v>38182</v>
       </c>
       <c r="I227">
-        <v>38439</v>
+        <v>38438</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -8285,19 +8288,19 @@
         <v>4818</v>
       </c>
       <c r="E228">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="F228">
         <v>19611</v>
       </c>
       <c r="G228">
-        <v>19823</v>
+        <v>19822</v>
       </c>
       <c r="H228">
         <v>38425</v>
       </c>
       <c r="I228">
-        <v>38529</v>
+        <v>38527</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -8320,13 +8323,13 @@
         <v>20081</v>
       </c>
       <c r="G229">
-        <v>19981</v>
+        <v>19982</v>
       </c>
       <c r="H229">
         <v>38888</v>
       </c>
       <c r="I229">
-        <v>38693</v>
+        <v>38694</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -8384,7 +8387,7 @@
         <v>39123</v>
       </c>
       <c r="I231">
-        <v>38876</v>
+        <v>38875</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -8401,7 +8404,7 @@
         <v>5112</v>
       </c>
       <c r="E232">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="F232">
         <v>20810</v>
@@ -8413,7 +8416,7 @@
         <v>39234</v>
       </c>
       <c r="I232">
-        <v>39162</v>
+        <v>39161</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -8465,13 +8468,13 @@
         <v>21443</v>
       </c>
       <c r="G234">
-        <v>21371</v>
+        <v>21369</v>
       </c>
       <c r="H234">
         <v>40037</v>
       </c>
       <c r="I234">
-        <v>39927</v>
+        <v>39924</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -8488,7 +8491,7 @@
         <v>5092</v>
       </c>
       <c r="E235">
-        <v>5073</v>
+        <v>5074</v>
       </c>
       <c r="F235">
         <v>21749</v>
@@ -8500,7 +8503,7 @@
         <v>40374</v>
       </c>
       <c r="I235">
-        <v>40366</v>
+        <v>40369</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -8529,7 +8532,7 @@
         <v>40338</v>
       </c>
       <c r="I236">
-        <v>40506</v>
+        <v>40504</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -8546,13 +8549,13 @@
         <v>4942</v>
       </c>
       <c r="E237">
-        <v>5124</v>
+        <v>5123</v>
       </c>
       <c r="F237">
         <v>21782</v>
       </c>
       <c r="G237">
-        <v>22122</v>
+        <v>22121</v>
       </c>
       <c r="H237">
         <v>40302</v>
@@ -8587,7 +8590,7 @@
         <v>40217</v>
       </c>
       <c r="I238">
-        <v>40355</v>
+        <v>40354</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -8610,7 +8613,7 @@
         <v>22105</v>
       </c>
       <c r="G239">
-        <v>22495</v>
+        <v>22494</v>
       </c>
       <c r="H239">
         <v>40449</v>
@@ -8633,19 +8636,19 @@
         <v>5004</v>
       </c>
       <c r="E240">
-        <v>5173</v>
+        <v>5174</v>
       </c>
       <c r="F240">
         <v>22731</v>
       </c>
       <c r="G240">
-        <v>22987</v>
+        <v>22988</v>
       </c>
       <c r="H240">
         <v>41228</v>
       </c>
       <c r="I240">
-        <v>41385</v>
+        <v>41386</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -8656,19 +8659,19 @@
         <v>1242</v>
       </c>
       <c r="C241">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D241">
         <v>5485</v>
       </c>
       <c r="E241">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="F241">
         <v>24019</v>
       </c>
       <c r="G241">
-        <v>23818</v>
+        <v>23819</v>
       </c>
       <c r="H241">
         <v>42456</v>
@@ -8691,19 +8694,19 @@
         <v>5479</v>
       </c>
       <c r="E242">
-        <v>5269</v>
+        <v>5268</v>
       </c>
       <c r="F242">
         <v>24060</v>
       </c>
       <c r="G242">
-        <v>23667</v>
+        <v>23665</v>
       </c>
       <c r="H242">
         <v>42235</v>
       </c>
       <c r="I242">
-        <v>41927</v>
+        <v>41925</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -8726,13 +8729,13 @@
         <v>24274</v>
       </c>
       <c r="G243">
-        <v>23970</v>
+        <v>23971</v>
       </c>
       <c r="H243">
         <v>42560</v>
       </c>
       <c r="I243">
-        <v>42281</v>
+        <v>42280</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -8749,19 +8752,19 @@
         <v>5425</v>
       </c>
       <c r="E244">
-        <v>5375</v>
+        <v>5376</v>
       </c>
       <c r="F244">
         <v>24501</v>
       </c>
       <c r="G244">
-        <v>24247</v>
+        <v>24249</v>
       </c>
       <c r="H244">
         <v>42693</v>
       </c>
       <c r="I244">
-        <v>42592</v>
+        <v>42591</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -8778,19 +8781,19 @@
         <v>5460</v>
       </c>
       <c r="E245">
-        <v>5387</v>
+        <v>5386</v>
       </c>
       <c r="F245">
         <v>24686</v>
       </c>
       <c r="G245">
-        <v>24489</v>
+        <v>24488</v>
       </c>
       <c r="H245">
         <v>42728</v>
       </c>
       <c r="I245">
-        <v>42651</v>
+        <v>42650</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -8801,7 +8804,7 @@
         <v>1226</v>
       </c>
       <c r="C246">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D246">
         <v>5488</v>
@@ -8842,13 +8845,13 @@
         <v>25103</v>
       </c>
       <c r="G247">
-        <v>25079</v>
+        <v>25077</v>
       </c>
       <c r="H247">
         <v>43110</v>
       </c>
       <c r="I247">
-        <v>43022</v>
+        <v>43024</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -8865,13 +8868,13 @@
         <v>5423</v>
       </c>
       <c r="E248">
-        <v>5518</v>
+        <v>5519</v>
       </c>
       <c r="F248">
         <v>25000</v>
       </c>
       <c r="G248">
-        <v>25142</v>
+        <v>25143</v>
       </c>
       <c r="H248">
         <v>42715</v>
@@ -8894,19 +8897,19 @@
         <v>5386</v>
       </c>
       <c r="E249">
-        <v>5574</v>
+        <v>5575</v>
       </c>
       <c r="F249">
         <v>25529</v>
       </c>
       <c r="G249">
-        <v>25950</v>
+        <v>25953</v>
       </c>
       <c r="H249">
         <v>43267</v>
       </c>
       <c r="I249">
-        <v>43680</v>
+        <v>43684</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -8923,13 +8926,13 @@
         <v>5573</v>
       </c>
       <c r="E250">
-        <v>5680</v>
+        <v>5681</v>
       </c>
       <c r="F250">
         <v>26084</v>
       </c>
       <c r="G250">
-        <v>26297</v>
+        <v>26298</v>
       </c>
       <c r="H250">
         <v>44297</v>
@@ -8958,13 +8961,13 @@
         <v>25974</v>
       </c>
       <c r="G251">
-        <v>26469</v>
+        <v>26466</v>
       </c>
       <c r="H251">
         <v>44355</v>
       </c>
       <c r="I251">
-        <v>44729</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -8987,13 +8990,13 @@
         <v>26353</v>
       </c>
       <c r="G252">
-        <v>26688</v>
+        <v>26690</v>
       </c>
       <c r="H252">
         <v>44888</v>
       </c>
       <c r="I252">
-        <v>45054</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -9010,19 +9013,19 @@
         <v>6054</v>
       </c>
       <c r="E253">
-        <v>5860</v>
+        <v>5859</v>
       </c>
       <c r="F253">
         <v>27261</v>
       </c>
       <c r="G253">
-        <v>27016</v>
+        <v>27015</v>
       </c>
       <c r="H253">
         <v>45886</v>
       </c>
       <c r="I253">
-        <v>45495</v>
+        <v>45494</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -9045,13 +9048,13 @@
         <v>27791</v>
       </c>
       <c r="G254">
-        <v>27319</v>
+        <v>27318</v>
       </c>
       <c r="H254">
         <v>46243</v>
       </c>
       <c r="I254">
-        <v>45888</v>
+        <v>45886</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -9074,13 +9077,13 @@
         <v>28088</v>
       </c>
       <c r="G255">
-        <v>27738</v>
+        <v>27739</v>
       </c>
       <c r="H255">
         <v>46753</v>
       </c>
       <c r="I255">
-        <v>46437</v>
+        <v>46436</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -9103,7 +9106,7 @@
         <v>28350</v>
       </c>
       <c r="G256">
-        <v>28070</v>
+        <v>28071</v>
       </c>
       <c r="H256">
         <v>47015</v>
@@ -9138,7 +9141,7 @@
         <v>47087</v>
       </c>
       <c r="I257">
-        <v>47057</v>
+        <v>47056</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -9155,19 +9158,19 @@
         <v>6273</v>
       </c>
       <c r="E258">
-        <v>6169</v>
+        <v>6170</v>
       </c>
       <c r="F258">
         <v>28942</v>
       </c>
       <c r="G258">
-        <v>28786</v>
+        <v>28788</v>
       </c>
       <c r="H258">
         <v>47617</v>
       </c>
       <c r="I258">
-        <v>47419</v>
+        <v>47420</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -9196,7 +9199,7 @@
         <v>47826</v>
       </c>
       <c r="I259">
-        <v>47695</v>
+        <v>47700</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -9213,19 +9216,19 @@
         <v>6209</v>
       </c>
       <c r="E260">
-        <v>6277</v>
+        <v>6276</v>
       </c>
       <c r="F260">
         <v>29269</v>
       </c>
       <c r="G260">
-        <v>29460</v>
+        <v>29455</v>
       </c>
       <c r="H260">
         <v>47776</v>
       </c>
       <c r="I260">
-        <v>48022</v>
+        <v>48018</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -9248,13 +9251,13 @@
         <v>29019</v>
       </c>
       <c r="G261">
-        <v>29444</v>
+        <v>29445</v>
       </c>
       <c r="H261">
         <v>47541</v>
       </c>
       <c r="I261">
-        <v>47959</v>
+        <v>47965</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -9271,19 +9274,19 @@
         <v>6251</v>
       </c>
       <c r="E262">
-        <v>6333</v>
+        <v>6331</v>
       </c>
       <c r="F262">
         <v>28911</v>
       </c>
       <c r="G262">
-        <v>29181</v>
+        <v>29180</v>
       </c>
       <c r="H262">
         <v>47385</v>
       </c>
       <c r="I262">
-        <v>47592</v>
+        <v>47590</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -9294,25 +9297,25 @@
         <v>1337</v>
       </c>
       <c r="C263">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D263">
         <v>6087</v>
       </c>
       <c r="E263">
-        <v>6292</v>
+        <v>6293</v>
       </c>
       <c r="F263">
         <v>29127</v>
       </c>
       <c r="G263">
-        <v>29676</v>
+        <v>29675</v>
       </c>
       <c r="H263">
         <v>47770</v>
       </c>
       <c r="I263">
-        <v>48190</v>
+        <v>48187</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -9323,7 +9326,7 @@
         <v>1342</v>
       </c>
       <c r="C264">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D264">
         <v>6291</v>
@@ -9341,7 +9344,7 @@
         <v>48531</v>
       </c>
       <c r="I264">
-        <v>48682</v>
+        <v>48681</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -9358,19 +9361,19 @@
         <v>6628</v>
       </c>
       <c r="E265">
-        <v>6445</v>
+        <v>6447</v>
       </c>
       <c r="F265">
         <v>30832</v>
       </c>
       <c r="G265">
-        <v>30552</v>
+        <v>30555</v>
       </c>
       <c r="H265">
         <v>49193</v>
       </c>
       <c r="I265">
-        <v>48871</v>
+        <v>48873</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -9387,19 +9390,19 @@
         <v>6679</v>
       </c>
       <c r="E266">
-        <v>6464</v>
+        <v>6465</v>
       </c>
       <c r="F266">
         <v>31375</v>
       </c>
       <c r="G266">
-        <v>30868</v>
+        <v>30872</v>
       </c>
       <c r="H266">
         <v>49653</v>
       </c>
       <c r="I266">
-        <v>49288</v>
+        <v>49290</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -9422,13 +9425,13 @@
         <v>31589</v>
       </c>
       <c r="G267">
-        <v>31251</v>
+        <v>31252</v>
       </c>
       <c r="H267">
         <v>49623</v>
       </c>
       <c r="I267">
-        <v>49359</v>
+        <v>49358</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -9439,7 +9442,7 @@
         <v>1441</v>
       </c>
       <c r="C268">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D268">
         <v>6531</v>
@@ -9451,13 +9454,13 @@
         <v>31668</v>
       </c>
       <c r="G268">
-        <v>31484</v>
+        <v>31485</v>
       </c>
       <c r="H268">
         <v>49501</v>
       </c>
       <c r="I268">
-        <v>49517</v>
+        <v>49515</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -9474,19 +9477,19 @@
         <v>6506</v>
       </c>
       <c r="E269">
-        <v>6482</v>
+        <v>6481</v>
       </c>
       <c r="F269">
         <v>31928</v>
       </c>
       <c r="G269">
-        <v>31702</v>
+        <v>31700</v>
       </c>
       <c r="H269">
         <v>50129</v>
       </c>
       <c r="I269">
-        <v>50025</v>
+        <v>50022</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -9503,7 +9506,7 @@
         <v>6633</v>
       </c>
       <c r="E270">
-        <v>6516</v>
+        <v>6515</v>
       </c>
       <c r="F270">
         <v>31998</v>
@@ -9532,7 +9535,7 @@
         <v>6583</v>
       </c>
       <c r="E271">
-        <v>6533</v>
+        <v>6534</v>
       </c>
       <c r="F271">
         <v>31615</v>
@@ -9544,7 +9547,7 @@
         <v>50859</v>
       </c>
       <c r="I271">
-        <v>50770</v>
+        <v>50775</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -9561,7 +9564,7 @@
         <v>6173</v>
       </c>
       <c r="E272">
-        <v>6271</v>
+        <v>6270</v>
       </c>
       <c r="F272">
         <v>31099</v>
@@ -9573,7 +9576,7 @@
         <v>50651</v>
       </c>
       <c r="I272">
-        <v>50941</v>
+        <v>50943</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -9590,19 +9593,19 @@
         <v>6185</v>
       </c>
       <c r="E273">
-        <v>6330</v>
+        <v>6329</v>
       </c>
       <c r="F273">
         <v>31112</v>
       </c>
       <c r="G273">
-        <v>31488</v>
+        <v>31487</v>
       </c>
       <c r="H273">
         <v>51229</v>
       </c>
       <c r="I273">
-        <v>51609</v>
+        <v>51618</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -9619,19 +9622,19 @@
         <v>6200</v>
       </c>
       <c r="E274">
-        <v>6271</v>
+        <v>6269</v>
       </c>
       <c r="F274">
         <v>31195</v>
       </c>
       <c r="G274">
-        <v>31495</v>
+        <v>31492</v>
       </c>
       <c r="H274">
         <v>51841</v>
       </c>
       <c r="I274">
-        <v>52120</v>
+        <v>52117</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -9648,19 +9651,19 @@
         <v>6280</v>
       </c>
       <c r="E275">
-        <v>6468</v>
+        <v>6470</v>
       </c>
       <c r="F275">
         <v>31910</v>
       </c>
       <c r="G275">
-        <v>32466</v>
+        <v>32469</v>
       </c>
       <c r="H275">
         <v>52447</v>
       </c>
       <c r="I275">
-        <v>52914</v>
+        <v>52911</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -9683,13 +9686,13 @@
         <v>32655</v>
       </c>
       <c r="G276">
-        <v>32996</v>
+        <v>32995</v>
       </c>
       <c r="H276">
         <v>53137</v>
       </c>
       <c r="I276">
-        <v>53316</v>
+        <v>53315</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -9712,13 +9715,13 @@
         <v>33701</v>
       </c>
       <c r="G277">
-        <v>33350</v>
+        <v>33345</v>
       </c>
       <c r="H277">
         <v>54264</v>
       </c>
       <c r="I277">
-        <v>53867</v>
+        <v>53863</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -9770,13 +9773,13 @@
         <v>33843</v>
       </c>
       <c r="G279">
-        <v>33541</v>
+        <v>33544</v>
       </c>
       <c r="H279">
         <v>54692</v>
       </c>
       <c r="I279">
-        <v>54365</v>
+        <v>54364</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -9793,19 +9796,19 @@
         <v>6555</v>
       </c>
       <c r="E280">
-        <v>6554</v>
+        <v>6553</v>
       </c>
       <c r="F280">
         <v>33248</v>
       </c>
       <c r="G280">
-        <v>33073</v>
+        <v>33072</v>
       </c>
       <c r="H280">
         <v>54284</v>
       </c>
       <c r="I280">
-        <v>54340</v>
+        <v>54335</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -9828,7 +9831,7 @@
         <v>33097</v>
       </c>
       <c r="G281">
-        <v>33027</v>
+        <v>33030</v>
       </c>
       <c r="H281">
         <v>54474</v>
@@ -9851,19 +9854,19 @@
         <v>7016</v>
       </c>
       <c r="E282">
-        <v>6864</v>
+        <v>6863</v>
       </c>
       <c r="F282">
         <v>33319</v>
       </c>
       <c r="G282">
-        <v>33074</v>
+        <v>33071</v>
       </c>
       <c r="H282">
         <v>54972</v>
       </c>
       <c r="I282">
-        <v>54664</v>
+        <v>54661</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -9886,13 +9889,13 @@
         <v>33313</v>
       </c>
       <c r="G283">
-        <v>33269</v>
+        <v>33265</v>
       </c>
       <c r="H283">
         <v>54916</v>
       </c>
       <c r="I283">
-        <v>54744</v>
+        <v>54746</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -9909,19 +9912,19 @@
         <v>7189</v>
       </c>
       <c r="E284">
-        <v>7273</v>
+        <v>7275</v>
       </c>
       <c r="F284">
         <v>33657</v>
       </c>
       <c r="G284">
-        <v>33846</v>
+        <v>33847</v>
       </c>
       <c r="H284">
         <v>54942</v>
       </c>
       <c r="I284">
-        <v>55257</v>
+        <v>55262</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -9944,13 +9947,13 @@
         <v>33852</v>
       </c>
       <c r="G285">
-        <v>34195</v>
+        <v>34196</v>
       </c>
       <c r="H285">
         <v>55348</v>
       </c>
       <c r="I285">
-        <v>55740</v>
+        <v>55750</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -9967,19 +9970,19 @@
         <v>7575</v>
       </c>
       <c r="E286">
-        <v>7642</v>
+        <v>7641</v>
       </c>
       <c r="F286">
         <v>33404</v>
       </c>
       <c r="G286">
-        <v>33689</v>
+        <v>33687</v>
       </c>
       <c r="H286">
         <v>54976</v>
       </c>
       <c r="I286">
-        <v>55299</v>
+        <v>55296</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -9996,7 +9999,7 @@
         <v>7604</v>
       </c>
       <c r="E287">
-        <v>7785</v>
+        <v>7786</v>
       </c>
       <c r="F287">
         <v>33168</v>
@@ -10008,7 +10011,7 @@
         <v>54525</v>
       </c>
       <c r="I287">
-        <v>54868</v>
+        <v>54861</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -10060,13 +10063,13 @@
         <v>33710</v>
       </c>
       <c r="G289">
-        <v>33461</v>
+        <v>33464</v>
       </c>
       <c r="H289">
         <v>55624</v>
       </c>
       <c r="I289">
-        <v>55360</v>
+        <v>55362</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -10083,19 +10086,19 @@
         <v>8515</v>
       </c>
       <c r="E290">
-        <v>8258</v>
+        <v>8257</v>
       </c>
       <c r="F290">
         <v>34218</v>
       </c>
       <c r="G290">
-        <v>33722</v>
+        <v>33720</v>
       </c>
       <c r="H290">
         <v>55861</v>
       </c>
       <c r="I290">
-        <v>55386</v>
+        <v>55385</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -10106,7 +10109,7 @@
         <v>1726</v>
       </c>
       <c r="C291">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D291">
         <v>8548</v>
@@ -10118,13 +10121,13 @@
         <v>34386</v>
       </c>
       <c r="G291">
-        <v>34186</v>
+        <v>34191</v>
       </c>
       <c r="H291">
         <v>56173</v>
       </c>
       <c r="I291">
-        <v>55921</v>
+        <v>55920</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -10141,19 +10144,19 @@
         <v>8742</v>
       </c>
       <c r="E292">
-        <v>8756</v>
+        <v>8757</v>
       </c>
       <c r="F292">
         <v>34755</v>
       </c>
       <c r="G292">
-        <v>34686</v>
+        <v>34690</v>
       </c>
       <c r="H292">
         <v>56973</v>
       </c>
       <c r="I292">
-        <v>57178</v>
+        <v>57175</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -10182,7 +10185,7 @@
         <v>57265</v>
       </c>
       <c r="I293">
-        <v>57253</v>
+        <v>57252</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -10199,19 +10202,19 @@
         <v>9165</v>
       </c>
       <c r="E294">
-        <v>9001</v>
+        <v>9002</v>
       </c>
       <c r="F294">
         <v>35226</v>
       </c>
       <c r="G294">
-        <v>35082</v>
+        <v>35083</v>
       </c>
       <c r="H294">
         <v>57709</v>
       </c>
       <c r="I294">
-        <v>57501</v>
+        <v>57502</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -10228,19 +10231,19 @@
         <v>9345</v>
       </c>
       <c r="E295">
-        <v>9182</v>
+        <v>9181</v>
       </c>
       <c r="F295">
         <v>35151</v>
       </c>
       <c r="G295">
-        <v>35044</v>
+        <v>35041</v>
       </c>
       <c r="H295">
         <v>57832</v>
       </c>
       <c r="I295">
-        <v>57627</v>
+        <v>57629</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -10263,13 +10266,13 @@
         <v>34681</v>
       </c>
       <c r="G296">
-        <v>34878</v>
+        <v>34880</v>
       </c>
       <c r="H296">
         <v>56801</v>
       </c>
       <c r="I296">
-        <v>57007</v>
+        <v>57016</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -10286,19 +10289,19 @@
         <v>9179</v>
       </c>
       <c r="E297">
-        <v>9413</v>
+        <v>9412</v>
       </c>
       <c r="F297">
         <v>34688</v>
       </c>
       <c r="G297">
-        <v>34909</v>
+        <v>34906</v>
       </c>
       <c r="H297">
         <v>56812</v>
       </c>
       <c r="I297">
-        <v>57048</v>
+        <v>57056</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -10315,13 +10318,13 @@
         <v>9459</v>
       </c>
       <c r="E298">
-        <v>9487</v>
+        <v>9488</v>
       </c>
       <c r="F298">
         <v>34839</v>
       </c>
       <c r="G298">
-        <v>35082</v>
+        <v>35084</v>
       </c>
       <c r="H298">
         <v>57744</v>
@@ -10350,13 +10353,13 @@
         <v>35086</v>
       </c>
       <c r="G299">
-        <v>35378</v>
+        <v>35376</v>
       </c>
       <c r="H299">
         <v>58497</v>
       </c>
       <c r="I299">
-        <v>58732</v>
+        <v>58721</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -10373,19 +10376,19 @@
         <v>9259</v>
       </c>
       <c r="E300">
-        <v>9567</v>
+        <v>9565</v>
       </c>
       <c r="F300">
         <v>35414</v>
       </c>
       <c r="G300">
-        <v>35693</v>
+        <v>35690</v>
       </c>
       <c r="H300">
         <v>59402</v>
       </c>
       <c r="I300">
-        <v>59504</v>
+        <v>59501</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -10402,19 +10405,19 @@
         <v>9706</v>
       </c>
       <c r="E301">
-        <v>9543</v>
+        <v>9544</v>
       </c>
       <c r="F301">
         <v>36159</v>
       </c>
       <c r="G301">
-        <v>35886</v>
+        <v>35884</v>
       </c>
       <c r="H301">
         <v>60383</v>
       </c>
       <c r="I301">
-        <v>60158</v>
+        <v>60157</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -10425,7 +10428,7 @@
         <v>1920</v>
       </c>
       <c r="C302">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D302">
         <v>9905</v>
@@ -10437,7 +10440,7 @@
         <v>36562</v>
       </c>
       <c r="G302">
-        <v>36145</v>
+        <v>36144</v>
       </c>
       <c r="H302">
         <v>61451</v>
@@ -10466,13 +10469,13 @@
         <v>36363</v>
       </c>
       <c r="G303">
-        <v>36241</v>
+        <v>36248</v>
       </c>
       <c r="H303">
         <v>61844</v>
       </c>
       <c r="I303">
-        <v>61675</v>
+        <v>61673</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -10495,13 +10498,13 @@
         <v>36458</v>
       </c>
       <c r="G304">
-        <v>36495</v>
+        <v>36501</v>
       </c>
       <c r="H304">
         <v>61762</v>
       </c>
       <c r="I304">
-        <v>62063</v>
+        <v>62061</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -10524,13 +10527,13 @@
         <v>37107</v>
       </c>
       <c r="G305">
-        <v>37144</v>
+        <v>37142</v>
       </c>
       <c r="H305">
         <v>62430</v>
       </c>
       <c r="I305">
-        <v>62429</v>
+        <v>62427</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -10547,19 +10550,19 @@
         <v>9794</v>
       </c>
       <c r="E306">
-        <v>9682</v>
+        <v>9681</v>
       </c>
       <c r="F306">
         <v>37799</v>
       </c>
       <c r="G306">
-        <v>37651</v>
+        <v>37647</v>
       </c>
       <c r="H306">
         <v>63212</v>
       </c>
       <c r="I306">
-        <v>62996</v>
+        <v>62992</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -10576,19 +10579,19 @@
         <v>9850</v>
       </c>
       <c r="E307">
-        <v>9695</v>
+        <v>9696</v>
       </c>
       <c r="F307">
         <v>38399</v>
       </c>
       <c r="G307">
-        <v>38285</v>
+        <v>38286</v>
       </c>
       <c r="H307">
         <v>64118</v>
       </c>
       <c r="I307">
-        <v>63916</v>
+        <v>63920</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -10611,13 +10614,13 @@
         <v>38657</v>
       </c>
       <c r="G308">
-        <v>38753</v>
+        <v>38748</v>
       </c>
       <c r="H308">
         <v>64780</v>
       </c>
       <c r="I308">
-        <v>64905</v>
+        <v>64910</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -10634,19 +10637,19 @@
         <v>9717</v>
       </c>
       <c r="E309">
-        <v>9935</v>
+        <v>9934</v>
       </c>
       <c r="F309">
         <v>39514</v>
       </c>
       <c r="G309">
-        <v>39661</v>
+        <v>39659</v>
       </c>
       <c r="H309">
         <v>65867</v>
       </c>
       <c r="I309">
-        <v>65998</v>
+        <v>66006</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -10675,7 +10678,7 @@
         <v>67199</v>
       </c>
       <c r="I310">
-        <v>67278</v>
+        <v>67276</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -10698,13 +10701,13 @@
         <v>40760</v>
       </c>
       <c r="G311">
-        <v>41063</v>
+        <v>41062</v>
       </c>
       <c r="H311">
         <v>68445</v>
       </c>
       <c r="I311">
-        <v>68676</v>
+        <v>68667</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -10715,19 +10718,19 @@
         <v>2007</v>
       </c>
       <c r="C312">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="D312">
         <v>9751</v>
       </c>
       <c r="E312">
-        <v>10069</v>
+        <v>10071</v>
       </c>
       <c r="F312">
         <v>41147</v>
       </c>
       <c r="G312">
-        <v>41408</v>
+        <v>41410</v>
       </c>
       <c r="H312">
         <v>69091</v>
@@ -10756,13 +10759,13 @@
         <v>42185</v>
       </c>
       <c r="G313">
-        <v>41805</v>
+        <v>41800</v>
       </c>
       <c r="H313">
         <v>69901</v>
       </c>
       <c r="I313">
-        <v>69619</v>
+        <v>69616</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -10779,19 +10782,19 @@
         <v>10480</v>
       </c>
       <c r="E314">
-        <v>10187</v>
+        <v>10186</v>
       </c>
       <c r="F314">
         <v>42553</v>
       </c>
       <c r="G314">
-        <v>42118</v>
+        <v>42113</v>
       </c>
       <c r="H314">
         <v>70909</v>
       </c>
       <c r="I314">
-        <v>70549</v>
+        <v>70547</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -10808,13 +10811,13 @@
         <v>10218</v>
       </c>
       <c r="E315">
-        <v>10062</v>
+        <v>10063</v>
       </c>
       <c r="F315">
         <v>42114</v>
       </c>
       <c r="G315">
-        <v>42094</v>
+        <v>42104</v>
       </c>
       <c r="H315">
         <v>70724</v>
@@ -10837,13 +10840,13 @@
         <v>10231</v>
       </c>
       <c r="E316">
-        <v>10291</v>
+        <v>10292</v>
       </c>
       <c r="F316">
         <v>42437</v>
       </c>
       <c r="G316">
-        <v>42526</v>
+        <v>42534</v>
       </c>
       <c r="H316">
         <v>71256</v>
@@ -10866,19 +10869,19 @@
         <v>10394</v>
       </c>
       <c r="E317">
-        <v>10390</v>
+        <v>10391</v>
       </c>
       <c r="F317">
         <v>43366</v>
       </c>
       <c r="G317">
-        <v>43537</v>
+        <v>43536</v>
       </c>
       <c r="H317">
         <v>72358</v>
       </c>
       <c r="I317">
-        <v>72604</v>
+        <v>72603</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -10889,7 +10892,7 @@
         <v>2145</v>
       </c>
       <c r="C318">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="D318">
         <v>10619</v>
@@ -10907,7 +10910,7 @@
         <v>73500</v>
       </c>
       <c r="I318">
-        <v>73339</v>
+        <v>73340</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -10936,7 +10939,7 @@
         <v>74190</v>
       </c>
       <c r="I319">
-        <v>73862</v>
+        <v>73864</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -10947,19 +10950,19 @@
         <v>2193</v>
       </c>
       <c r="C320">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D320">
         <v>10522</v>
       </c>
       <c r="E320">
-        <v>10527</v>
+        <v>10525</v>
       </c>
       <c r="F320">
         <v>45790</v>
       </c>
       <c r="G320">
-        <v>45868</v>
+        <v>45855</v>
       </c>
       <c r="H320">
         <v>74316</v>
@@ -10982,19 +10985,19 @@
         <v>10237</v>
       </c>
       <c r="E321">
-        <v>10530</v>
+        <v>10531</v>
       </c>
       <c r="F321">
         <v>45654</v>
       </c>
       <c r="G321">
-        <v>45741</v>
+        <v>45743</v>
       </c>
       <c r="H321">
         <v>74291</v>
       </c>
       <c r="I321">
-        <v>74260</v>
+        <v>74267</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -11011,19 +11014,19 @@
         <v>10630</v>
       </c>
       <c r="E322">
-        <v>10632</v>
+        <v>10631</v>
       </c>
       <c r="F322">
         <v>45928</v>
       </c>
       <c r="G322">
-        <v>45984</v>
+        <v>45985</v>
       </c>
       <c r="H322">
         <v>74307</v>
       </c>
       <c r="I322">
-        <v>74220</v>
+        <v>74219</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -11034,25 +11037,25 @@
         <v>2221</v>
       </c>
       <c r="C323">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="D323">
         <v>10382</v>
       </c>
       <c r="E323">
-        <v>10677</v>
+        <v>10678</v>
       </c>
       <c r="F323">
         <v>45746</v>
       </c>
       <c r="G323">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="H323">
         <v>74050</v>
       </c>
       <c r="I323">
-        <v>74259</v>
+        <v>74253</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -11069,13 +11072,13 @@
         <v>10411</v>
       </c>
       <c r="E324">
-        <v>10749</v>
+        <v>10748</v>
       </c>
       <c r="F324">
         <v>46058</v>
       </c>
       <c r="G324">
-        <v>46251</v>
+        <v>46250</v>
       </c>
       <c r="H324">
         <v>74884</v>
@@ -11098,13 +11101,13 @@
         <v>11166</v>
       </c>
       <c r="E325">
-        <v>10877</v>
+        <v>10879</v>
       </c>
       <c r="F325">
         <v>46672</v>
       </c>
       <c r="G325">
-        <v>46335</v>
+        <v>46332</v>
       </c>
       <c r="H325">
         <v>75249</v>
@@ -11127,19 +11130,19 @@
         <v>11437</v>
       </c>
       <c r="E326">
-        <v>11068</v>
+        <v>11069</v>
       </c>
       <c r="F326">
         <v>46975</v>
       </c>
       <c r="G326">
-        <v>46584</v>
+        <v>46587</v>
       </c>
       <c r="H326">
         <v>75843</v>
       </c>
       <c r="I326">
-        <v>75658</v>
+        <v>75663</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -11162,13 +11165,13 @@
         <v>46945</v>
       </c>
       <c r="G327">
-        <v>46871</v>
+        <v>46880</v>
       </c>
       <c r="H327">
         <v>76138</v>
       </c>
       <c r="I327">
-        <v>76075</v>
+        <v>76073</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -11191,13 +11194,13 @@
         <v>47397</v>
       </c>
       <c r="G328">
-        <v>47585</v>
+        <v>47589</v>
       </c>
       <c r="H328">
         <v>76650</v>
       </c>
       <c r="I328">
-        <v>77173</v>
+        <v>77170</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -11214,19 +11217,19 @@
         <v>11368</v>
       </c>
       <c r="E329">
-        <v>11364</v>
+        <v>11363</v>
       </c>
       <c r="F329">
         <v>48119</v>
       </c>
       <c r="G329">
-        <v>48258</v>
+        <v>48254</v>
       </c>
       <c r="H329">
         <v>78027</v>
       </c>
       <c r="I329">
-        <v>78323</v>
+        <v>78322</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -11237,25 +11240,25 @@
         <v>2466</v>
       </c>
       <c r="C330">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="D330">
         <v>11583</v>
       </c>
       <c r="E330">
-        <v>11461</v>
+        <v>11463</v>
       </c>
       <c r="F330">
         <v>48917</v>
       </c>
       <c r="G330">
-        <v>48900</v>
+        <v>48904</v>
       </c>
       <c r="H330">
         <v>79464</v>
       </c>
       <c r="I330">
-        <v>79432</v>
+        <v>79438</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -11278,13 +11281,13 @@
         <v>49461</v>
       </c>
       <c r="G331">
-        <v>49325</v>
+        <v>49323</v>
       </c>
       <c r="H331">
         <v>80028</v>
       </c>
       <c r="I331">
-        <v>79792</v>
+        <v>79789</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -11295,25 +11298,25 @@
         <v>2450</v>
       </c>
       <c r="C332">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="D332">
         <v>11749</v>
       </c>
       <c r="E332">
-        <v>11764</v>
+        <v>11768</v>
       </c>
       <c r="F332">
         <v>49623</v>
       </c>
       <c r="G332">
-        <v>49709</v>
+        <v>49708</v>
       </c>
       <c r="H332">
         <v>80473</v>
       </c>
       <c r="I332">
-        <v>80484</v>
+        <v>80491</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -11336,13 +11339,13 @@
         <v>49728</v>
       </c>
       <c r="G333">
-        <v>49743</v>
+        <v>49741</v>
       </c>
       <c r="H333">
         <v>81368</v>
       </c>
       <c r="I333">
-        <v>81079</v>
+        <v>81081</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -11353,25 +11356,25 @@
         <v>2556</v>
       </c>
       <c r="C334">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="D334">
         <v>11810</v>
       </c>
       <c r="E334">
-        <v>11862</v>
+        <v>11861</v>
       </c>
       <c r="F334">
         <v>49966</v>
       </c>
       <c r="G334">
-        <v>50072</v>
+        <v>50070</v>
       </c>
       <c r="H334">
         <v>81856</v>
       </c>
       <c r="I334">
-        <v>81712</v>
+        <v>81710</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -11382,25 +11385,25 @@
         <v>2512</v>
       </c>
       <c r="C335">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="D335">
         <v>11405</v>
       </c>
       <c r="E335">
-        <v>11786</v>
+        <v>11790</v>
       </c>
       <c r="F335">
         <v>49520</v>
       </c>
       <c r="G335">
-        <v>49851</v>
+        <v>49863</v>
       </c>
       <c r="H335">
         <v>81440</v>
       </c>
       <c r="I335">
-        <v>81669</v>
+        <v>81666</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -11417,19 +11420,19 @@
         <v>11584</v>
       </c>
       <c r="E336">
-        <v>11882</v>
+        <v>11880</v>
       </c>
       <c r="F336">
         <v>49770</v>
       </c>
       <c r="G336">
-        <v>49908</v>
+        <v>49907</v>
       </c>
       <c r="H336">
         <v>81670</v>
       </c>
       <c r="I336">
-        <v>81562</v>
+        <v>81565</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -11440,25 +11443,25 @@
         <v>2598</v>
       </c>
       <c r="C337">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="D337">
         <v>12239</v>
       </c>
       <c r="E337">
-        <v>11937</v>
+        <v>11933</v>
       </c>
       <c r="F337">
         <v>50386</v>
       </c>
       <c r="G337">
-        <v>49929</v>
+        <v>49912</v>
       </c>
       <c r="H337">
         <v>81611</v>
       </c>
       <c r="I337">
-        <v>81366</v>
+        <v>81360</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -11487,7 +11490,7 @@
         <v>81763</v>
       </c>
       <c r="I338">
-        <v>81623</v>
+        <v>81627</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -11504,19 +11507,19 @@
         <v>12152</v>
       </c>
       <c r="E339">
-        <v>12076</v>
+        <v>12077</v>
       </c>
       <c r="F339">
         <v>50818</v>
       </c>
       <c r="G339">
-        <v>50757</v>
+        <v>50765</v>
       </c>
       <c r="H339">
         <v>82686</v>
       </c>
       <c r="I339">
-        <v>82669</v>
+        <v>82667</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -11539,13 +11542,13 @@
         <v>50428</v>
       </c>
       <c r="G340">
-        <v>50609</v>
+        <v>50617</v>
       </c>
       <c r="H340">
         <v>82455</v>
       </c>
       <c r="I340">
-        <v>83046</v>
+        <v>83048</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -11562,19 +11565,19 @@
         <v>12250</v>
       </c>
       <c r="E341">
-        <v>12173</v>
+        <v>12172</v>
       </c>
       <c r="F341">
         <v>50131</v>
       </c>
       <c r="G341">
-        <v>50367</v>
+        <v>50362</v>
       </c>
       <c r="H341">
         <v>82280</v>
       </c>
       <c r="I341">
-        <v>82846</v>
+        <v>82842</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -11585,25 +11588,25 @@
         <v>2576</v>
       </c>
       <c r="C342">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="D342">
         <v>12384</v>
       </c>
       <c r="E342">
-        <v>12257</v>
+        <v>12255</v>
       </c>
       <c r="F342">
         <v>49940</v>
       </c>
       <c r="G342">
-        <v>49963</v>
+        <v>49959</v>
       </c>
       <c r="H342">
         <v>83078</v>
       </c>
       <c r="I342">
-        <v>83046</v>
+        <v>83047</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -11620,19 +11623,19 @@
         <v>12489</v>
       </c>
       <c r="E343">
-        <v>12357</v>
+        <v>12358</v>
       </c>
       <c r="F343">
         <v>50022</v>
       </c>
       <c r="G343">
-        <v>49951</v>
+        <v>49952</v>
       </c>
       <c r="H343">
         <v>83637</v>
       </c>
       <c r="I343">
-        <v>83494</v>
+        <v>83493</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -11649,19 +11652,19 @@
         <v>12355</v>
       </c>
       <c r="E344">
-        <v>12407</v>
+        <v>12406</v>
       </c>
       <c r="F344">
         <v>50331</v>
       </c>
       <c r="G344">
-        <v>50444</v>
+        <v>50438</v>
       </c>
       <c r="H344">
         <v>83876</v>
       </c>
       <c r="I344">
-        <v>83692</v>
+        <v>83693</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -11672,25 +11675,25 @@
         <v>2529</v>
       </c>
       <c r="C345">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D345">
         <v>12151</v>
       </c>
       <c r="E345">
-        <v>12436</v>
+        <v>12435</v>
       </c>
       <c r="F345">
         <v>50384</v>
       </c>
       <c r="G345">
-        <v>50454</v>
+        <v>50443</v>
       </c>
       <c r="H345">
         <v>84409</v>
       </c>
       <c r="I345">
-        <v>83978</v>
+        <v>83977</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -11701,25 +11704,25 @@
         <v>2603</v>
       </c>
       <c r="C346">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="D346">
         <v>12391</v>
       </c>
       <c r="E346">
-        <v>12528</v>
+        <v>12525</v>
       </c>
       <c r="F346">
         <v>50296</v>
       </c>
       <c r="G346">
-        <v>50373</v>
+        <v>50371</v>
       </c>
       <c r="H346">
         <v>84512</v>
       </c>
       <c r="I346">
-        <v>84206</v>
+        <v>84205</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -11730,25 +11733,25 @@
         <v>2534</v>
       </c>
       <c r="C347">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="D347">
         <v>12041</v>
       </c>
       <c r="E347">
-        <v>12495</v>
+        <v>12504</v>
       </c>
       <c r="F347">
         <v>49953</v>
       </c>
       <c r="G347">
-        <v>50258</v>
+        <v>50289</v>
       </c>
       <c r="H347">
         <v>83631</v>
       </c>
       <c r="I347">
-        <v>83742</v>
+        <v>83749</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -11765,13 +11768,13 @@
         <v>12644</v>
       </c>
       <c r="E348">
-        <v>12927</v>
+        <v>12924</v>
       </c>
       <c r="F348">
         <v>51343</v>
       </c>
       <c r="G348">
-        <v>51409</v>
+        <v>51406</v>
       </c>
       <c r="H348">
         <v>84823</v>
@@ -11788,25 +11791,25 @@
         <v>2734</v>
       </c>
       <c r="C349">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D349">
         <v>13504</v>
       </c>
       <c r="E349">
-        <v>13041</v>
+        <v>13039</v>
       </c>
       <c r="F349">
         <v>52830</v>
       </c>
       <c r="G349">
-        <v>52222</v>
+        <v>52201</v>
       </c>
       <c r="H349">
         <v>86809</v>
       </c>
       <c r="I349">
-        <v>86556</v>
+        <v>86549</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -11823,19 +11826,19 @@
         <v>13451</v>
       </c>
       <c r="E350">
-        <v>12999</v>
+        <v>12998</v>
       </c>
       <c r="F350">
         <v>52898</v>
       </c>
       <c r="G350">
-        <v>52395</v>
+        <v>52393</v>
       </c>
       <c r="H350">
         <v>87103</v>
       </c>
       <c r="I350">
-        <v>87043</v>
+        <v>87047</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -11846,25 +11849,25 @@
         <v>2735</v>
       </c>
       <c r="C351">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="D351">
         <v>13356</v>
       </c>
       <c r="E351">
-        <v>13256</v>
+        <v>13257</v>
       </c>
       <c r="F351">
         <v>52529</v>
       </c>
       <c r="G351">
-        <v>52506</v>
+        <v>52511</v>
       </c>
       <c r="H351">
         <v>87311</v>
       </c>
       <c r="I351">
-        <v>87375</v>
+        <v>87374</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -11875,25 +11878,25 @@
         <v>2716</v>
       </c>
       <c r="C352">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D352">
         <v>13145</v>
       </c>
       <c r="E352">
-        <v>13194</v>
+        <v>13192</v>
       </c>
       <c r="F352">
         <v>52112</v>
       </c>
       <c r="G352">
-        <v>52293</v>
+        <v>52297</v>
       </c>
       <c r="H352">
         <v>86745</v>
       </c>
       <c r="I352">
-        <v>87408</v>
+        <v>87405</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -11910,19 +11913,19 @@
         <v>13270</v>
       </c>
       <c r="E353">
-        <v>13223</v>
+        <v>13224</v>
       </c>
       <c r="F353">
         <v>52435</v>
       </c>
       <c r="G353">
-        <v>52716</v>
+        <v>52720</v>
       </c>
       <c r="H353">
         <v>86839</v>
       </c>
       <c r="I353">
-        <v>87606</v>
+        <v>87607</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -11939,19 +11942,19 @@
         <v>13493</v>
       </c>
       <c r="E354">
-        <v>13325</v>
+        <v>13323</v>
       </c>
       <c r="F354">
         <v>52776</v>
       </c>
       <c r="G354">
-        <v>52850</v>
+        <v>52843</v>
       </c>
       <c r="H354">
         <v>88082</v>
       </c>
       <c r="I354">
-        <v>88241</v>
+        <v>88238</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -11962,25 +11965,25 @@
         <v>2783</v>
       </c>
       <c r="C355">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="D355">
         <v>13689</v>
       </c>
       <c r="E355">
-        <v>13516</v>
+        <v>13513</v>
       </c>
       <c r="F355">
         <v>52991</v>
       </c>
       <c r="G355">
-        <v>52975</v>
+        <v>52970</v>
       </c>
       <c r="H355">
         <v>88366</v>
       </c>
       <c r="I355">
-        <v>88183</v>
+        <v>88178</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -11997,13 +12000,13 @@
         <v>13551</v>
       </c>
       <c r="E356">
-        <v>13603</v>
+        <v>13605</v>
       </c>
       <c r="F356">
         <v>53642</v>
       </c>
       <c r="G356">
-        <v>53685</v>
+        <v>53683</v>
       </c>
       <c r="H356">
         <v>89938</v>
@@ -12032,7 +12035,7 @@
         <v>54096</v>
       </c>
       <c r="G357">
-        <v>54268</v>
+        <v>54248</v>
       </c>
       <c r="H357">
         <v>91019</v>
@@ -12055,19 +12058,19 @@
         <v>13479</v>
       </c>
       <c r="E358">
-        <v>13690</v>
+        <v>13688</v>
       </c>
       <c r="F358">
         <v>54276</v>
       </c>
       <c r="G358">
-        <v>54389</v>
+        <v>54388</v>
       </c>
       <c r="H358">
         <v>91238</v>
       </c>
       <c r="I358">
-        <v>90866</v>
+        <v>90864</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -12078,25 +12081,25 @@
         <v>2741</v>
       </c>
       <c r="C359">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="D359">
         <v>13298</v>
       </c>
       <c r="E359">
-        <v>13747</v>
+        <v>13757</v>
       </c>
       <c r="F359">
         <v>54504</v>
       </c>
       <c r="G359">
-        <v>54756</v>
+        <v>54802</v>
       </c>
       <c r="H359">
         <v>91869</v>
       </c>
       <c r="I359">
-        <v>91735</v>
+        <v>91746</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -12113,19 +12116,19 @@
         <v>13524</v>
       </c>
       <c r="E360">
-        <v>13822</v>
+        <v>13819</v>
       </c>
       <c r="F360">
         <v>55234</v>
       </c>
       <c r="G360">
-        <v>55204</v>
+        <v>55201</v>
       </c>
       <c r="H360">
         <v>92924</v>
       </c>
       <c r="I360">
-        <v>92699</v>
+        <v>92701</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -12142,13 +12145,13 @@
         <v>14303</v>
       </c>
       <c r="E361">
-        <v>13846</v>
+        <v>13847</v>
       </c>
       <c r="F361">
         <v>56139</v>
       </c>
       <c r="G361">
-        <v>55529</v>
+        <v>55515</v>
       </c>
       <c r="H361">
         <v>93214</v>
@@ -12171,19 +12174,19 @@
         <v>14539</v>
       </c>
       <c r="E362">
-        <v>14065</v>
+        <v>14062</v>
       </c>
       <c r="F362">
         <v>56452</v>
       </c>
       <c r="G362">
-        <v>55999</v>
+        <v>55997</v>
       </c>
       <c r="H362">
         <v>92940</v>
       </c>
       <c r="I362">
-        <v>93010</v>
+        <v>93013</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -12200,19 +12203,19 @@
         <v>14253</v>
       </c>
       <c r="E363">
-        <v>14056</v>
+        <v>14059</v>
       </c>
       <c r="F363">
         <v>56276</v>
       </c>
       <c r="G363">
-        <v>56459</v>
+        <v>56463</v>
       </c>
       <c r="H363">
         <v>93181</v>
       </c>
       <c r="I363">
-        <v>93602</v>
+        <v>93606</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -12229,13 +12232,13 @@
         <v>13793</v>
       </c>
       <c r="E364">
-        <v>13795</v>
+        <v>13793</v>
       </c>
       <c r="F364">
         <v>56187</v>
       </c>
       <c r="G364">
-        <v>56549</v>
+        <v>56560</v>
       </c>
       <c r="H364">
         <v>92661</v>
@@ -12258,19 +12261,19 @@
         <v>13782</v>
       </c>
       <c r="E365">
-        <v>13773</v>
+        <v>13772</v>
       </c>
       <c r="F365">
         <v>56447</v>
       </c>
       <c r="G365">
-        <v>56479</v>
+        <v>56477</v>
       </c>
       <c r="H365">
         <v>92624</v>
       </c>
       <c r="I365">
-        <v>93209</v>
+        <v>93206</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -12287,19 +12290,19 @@
         <v>13753</v>
       </c>
       <c r="E366">
-        <v>13718</v>
+        <v>13717</v>
       </c>
       <c r="F366">
         <v>56442</v>
       </c>
       <c r="G366">
-        <v>56629</v>
+        <v>56621</v>
       </c>
       <c r="H366">
         <v>93835</v>
       </c>
       <c r="I366">
-        <v>94262</v>
+        <v>94256</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -12316,19 +12319,19 @@
         <v>13797</v>
       </c>
       <c r="E367">
-        <v>13639</v>
+        <v>13640</v>
       </c>
       <c r="F367">
         <v>56617</v>
       </c>
       <c r="G367">
-        <v>56643</v>
+        <v>56644</v>
       </c>
       <c r="H367">
         <v>94503</v>
       </c>
       <c r="I367">
-        <v>94420</v>
+        <v>94418</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -12339,7 +12342,7 @@
         <v>2852</v>
       </c>
       <c r="C368">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="D368">
         <v>13520</v>
@@ -12351,13 +12354,13 @@
         <v>56506</v>
       </c>
       <c r="G368">
-        <v>56590</v>
+        <v>56583</v>
       </c>
       <c r="H368">
         <v>95406</v>
       </c>
       <c r="I368">
-        <v>95109</v>
+        <v>95104</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -12374,19 +12377,19 @@
         <v>13363</v>
       </c>
       <c r="E369">
-        <v>13651</v>
+        <v>13650</v>
       </c>
       <c r="F369">
         <v>56592</v>
       </c>
       <c r="G369">
-        <v>56788</v>
+        <v>56754</v>
       </c>
       <c r="H369">
         <v>96477</v>
       </c>
       <c r="I369">
-        <v>95904</v>
+        <v>95899</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -12415,7 +12418,7 @@
         <v>97175</v>
       </c>
       <c r="I370">
-        <v>96482</v>
+        <v>96481</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -12426,25 +12429,25 @@
         <v>2885</v>
       </c>
       <c r="C371">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="D371">
         <v>13385</v>
       </c>
       <c r="E371">
-        <v>13714</v>
+        <v>13722</v>
       </c>
       <c r="F371">
         <v>57654</v>
       </c>
       <c r="G371">
-        <v>57871</v>
+        <v>57931</v>
       </c>
       <c r="H371">
         <v>97519</v>
       </c>
       <c r="I371">
-        <v>97159</v>
+        <v>97176</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -12461,19 +12464,19 @@
         <v>13742</v>
       </c>
       <c r="E372">
-        <v>13946</v>
+        <v>13944</v>
       </c>
       <c r="F372">
         <v>57884</v>
       </c>
       <c r="G372">
-        <v>57765</v>
+        <v>57766</v>
       </c>
       <c r="H372">
         <v>97689</v>
       </c>
       <c r="I372">
-        <v>97353</v>
+        <v>97355</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -12490,19 +12493,19 @@
         <v>14510</v>
       </c>
       <c r="E373">
-        <v>14087</v>
+        <v>14085</v>
       </c>
       <c r="F373">
         <v>58716</v>
       </c>
       <c r="G373">
-        <v>57810</v>
+        <v>57788</v>
       </c>
       <c r="H373">
         <v>98249</v>
       </c>
       <c r="I373">
-        <v>97805</v>
+        <v>97799</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -12519,13 +12522,13 @@
         <v>14508</v>
       </c>
       <c r="E374">
-        <v>14159</v>
+        <v>14157</v>
       </c>
       <c r="F374">
         <v>57586</v>
       </c>
       <c r="G374">
-        <v>57218</v>
+        <v>57214</v>
       </c>
       <c r="H374">
         <v>97903</v>
@@ -12542,19 +12545,19 @@
         <v>3002</v>
       </c>
       <c r="C375">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="D375">
         <v>14268</v>
       </c>
       <c r="E375">
-        <v>14200</v>
+        <v>14201</v>
       </c>
       <c r="F375">
         <v>56943</v>
       </c>
       <c r="G375">
-        <v>57158</v>
+        <v>57159</v>
       </c>
       <c r="H375">
         <v>98282</v>
@@ -12571,25 +12574,25 @@
         <v>2928</v>
       </c>
       <c r="C376">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="D376">
         <v>14203</v>
       </c>
       <c r="E376">
-        <v>14302</v>
+        <v>14304</v>
       </c>
       <c r="F376">
         <v>57528</v>
       </c>
       <c r="G376">
-        <v>57783</v>
+        <v>57799</v>
       </c>
       <c r="H376">
         <v>98638</v>
       </c>
       <c r="I376">
-        <v>99643</v>
+        <v>99647</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -12606,7 +12609,7 @@
         <v>14564</v>
       </c>
       <c r="E377">
-        <v>14463</v>
+        <v>14461</v>
       </c>
       <c r="F377">
         <v>57462</v>
@@ -12618,7 +12621,7 @@
         <v>99291</v>
       </c>
       <c r="I377">
-        <v>100079</v>
+        <v>100075</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -12629,25 +12632,25 @@
         <v>2943</v>
       </c>
       <c r="C378">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="D378">
         <v>14682</v>
       </c>
       <c r="E378">
-        <v>14593</v>
+        <v>14591</v>
       </c>
       <c r="F378">
         <v>57872</v>
       </c>
       <c r="G378">
-        <v>57992</v>
+        <v>57982</v>
       </c>
       <c r="H378">
         <v>99342</v>
       </c>
       <c r="I378">
-        <v>99820</v>
+        <v>99814</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -12658,7 +12661,7 @@
         <v>2964</v>
       </c>
       <c r="C379">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="D379">
         <v>14788</v>
@@ -12670,13 +12673,13 @@
         <v>58450</v>
       </c>
       <c r="G379">
-        <v>58412</v>
+        <v>58403</v>
       </c>
       <c r="H379">
         <v>100766</v>
       </c>
       <c r="I379">
-        <v>100564</v>
+        <v>100556</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -12687,25 +12690,25 @@
         <v>2961</v>
       </c>
       <c r="C380">
-        <v>2982</v>
+        <v>2978</v>
       </c>
       <c r="D380">
         <v>14673</v>
       </c>
       <c r="E380">
-        <v>14776</v>
+        <v>14777</v>
       </c>
       <c r="F380">
         <v>58605</v>
       </c>
       <c r="G380">
-        <v>58771</v>
+        <v>58764</v>
       </c>
       <c r="H380">
         <v>101197</v>
       </c>
       <c r="I380">
-        <v>100871</v>
+        <v>100870</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -12722,19 +12725,19 @@
         <v>14530</v>
       </c>
       <c r="E381">
-        <v>14842</v>
+        <v>14845</v>
       </c>
       <c r="F381">
         <v>58233</v>
       </c>
       <c r="G381">
-        <v>58483</v>
+        <v>58442</v>
       </c>
       <c r="H381">
         <v>100472</v>
       </c>
       <c r="I381">
-        <v>99928</v>
+        <v>99927</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -12745,25 +12748,25 @@
         <v>2987</v>
       </c>
       <c r="C382">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="D382">
         <v>14723</v>
       </c>
       <c r="E382">
-        <v>14869</v>
+        <v>14873</v>
       </c>
       <c r="F382">
         <v>59454</v>
       </c>
       <c r="G382">
-        <v>59271</v>
+        <v>59274</v>
       </c>
       <c r="H382">
         <v>101657</v>
       </c>
       <c r="I382">
-        <v>100723</v>
+        <v>100721</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -12780,19 +12783,19 @@
         <v>14740</v>
       </c>
       <c r="E383">
-        <v>15061</v>
+        <v>15070</v>
       </c>
       <c r="F383">
         <v>59127</v>
       </c>
       <c r="G383">
-        <v>59392</v>
+        <v>59478</v>
       </c>
       <c r="H383">
         <v>101237</v>
       </c>
       <c r="I383">
-        <v>100832</v>
+        <v>100861</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -12803,25 +12806,25 @@
         <v>2963</v>
       </c>
       <c r="C384">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="D384">
         <v>14864</v>
       </c>
       <c r="E384">
-        <v>15109</v>
+        <v>15105</v>
       </c>
       <c r="F384">
         <v>59452</v>
       </c>
       <c r="G384">
-        <v>59327</v>
+        <v>59334</v>
       </c>
       <c r="H384">
         <v>101236</v>
       </c>
       <c r="I384">
-        <v>100772</v>
+        <v>100775</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -12832,25 +12835,25 @@
         <v>3082</v>
       </c>
       <c r="C385">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="D385">
         <v>15653</v>
       </c>
       <c r="E385">
-        <v>15152</v>
+        <v>15149</v>
       </c>
       <c r="F385">
         <v>60217</v>
       </c>
       <c r="G385">
-        <v>59274</v>
+        <v>59250</v>
       </c>
       <c r="H385">
         <v>100900</v>
       </c>
       <c r="I385">
-        <v>100420</v>
+        <v>100411</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -12861,7 +12864,7 @@
         <v>3041</v>
       </c>
       <c r="C386">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="D386">
         <v>15665</v>
@@ -12873,13 +12876,13 @@
         <v>60310</v>
       </c>
       <c r="G386">
-        <v>59996</v>
+        <v>59998</v>
       </c>
       <c r="H386">
         <v>100398</v>
       </c>
       <c r="I386">
-        <v>100780</v>
+        <v>100783</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -12890,25 +12893,25 @@
         <v>3039</v>
       </c>
       <c r="C387">
-        <v>3020</v>
+        <v>3023</v>
       </c>
       <c r="D387">
         <v>15558</v>
       </c>
       <c r="E387">
-        <v>15542</v>
+        <v>15545</v>
       </c>
       <c r="F387">
         <v>60009</v>
       </c>
       <c r="G387">
-        <v>60389</v>
+        <v>60393</v>
       </c>
       <c r="H387">
         <v>100429</v>
       </c>
       <c r="I387">
-        <v>101044</v>
+        <v>101047</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -12919,25 +12922,25 @@
         <v>3035</v>
       </c>
       <c r="C388">
-        <v>3064</v>
+        <v>3068</v>
       </c>
       <c r="D388">
         <v>15656</v>
       </c>
       <c r="E388">
-        <v>15716</v>
+        <v>15720</v>
       </c>
       <c r="F388">
         <v>60811</v>
       </c>
       <c r="G388">
-        <v>61267</v>
+        <v>61281</v>
       </c>
       <c r="H388">
         <v>100778</v>
       </c>
       <c r="I388">
-        <v>101968</v>
+        <v>101974</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -12948,25 +12951,25 @@
         <v>3003</v>
       </c>
       <c r="C389">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D389">
         <v>15744</v>
       </c>
       <c r="E389">
-        <v>15764</v>
+        <v>15755</v>
       </c>
       <c r="F389">
         <v>61913</v>
       </c>
       <c r="G389">
-        <v>61936</v>
+        <v>61945</v>
       </c>
       <c r="H389">
         <v>102693</v>
       </c>
       <c r="I389">
-        <v>103508</v>
+        <v>103509</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -12977,25 +12980,25 @@
         <v>3007</v>
       </c>
       <c r="C390">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="D390">
         <v>15973</v>
       </c>
       <c r="E390">
-        <v>15844</v>
+        <v>15840</v>
       </c>
       <c r="F390">
         <v>62370</v>
       </c>
       <c r="G390">
-        <v>62503</v>
+        <v>62488</v>
       </c>
       <c r="H390">
         <v>103050</v>
       </c>
       <c r="I390">
-        <v>103624</v>
+        <v>103622</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -13006,25 +13009,25 @@
         <v>3006</v>
       </c>
       <c r="C391">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="D391">
         <v>16154</v>
       </c>
       <c r="E391">
-        <v>15989</v>
+        <v>15984</v>
       </c>
       <c r="F391">
         <v>63098</v>
       </c>
       <c r="G391">
-        <v>62954</v>
+        <v>62929</v>
       </c>
       <c r="H391">
         <v>104275</v>
       </c>
       <c r="I391">
-        <v>103959</v>
+        <v>103943</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -13035,25 +13038,25 @@
         <v>2996</v>
       </c>
       <c r="C392">
-        <v>2997</v>
+        <v>2988</v>
       </c>
       <c r="D392">
         <v>15997</v>
       </c>
       <c r="E392">
-        <v>15990</v>
+        <v>15983</v>
       </c>
       <c r="F392">
         <v>62814</v>
       </c>
       <c r="G392">
-        <v>63020</v>
+        <v>62984</v>
       </c>
       <c r="H392">
         <v>104905</v>
       </c>
       <c r="I392">
-        <v>104445</v>
+        <v>104423</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -13064,25 +13067,25 @@
         <v>2973</v>
       </c>
       <c r="C393">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="D393">
         <v>15757</v>
       </c>
       <c r="E393">
-        <v>16098</v>
+        <v>16100</v>
       </c>
       <c r="F393">
         <v>62793</v>
       </c>
       <c r="G393">
-        <v>62959</v>
+        <v>62892</v>
       </c>
       <c r="H393">
         <v>105384</v>
       </c>
       <c r="I393">
-        <v>104685</v>
+        <v>104672</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -13093,25 +13096,25 @@
         <v>3058</v>
       </c>
       <c r="C394">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="D394">
         <v>16139</v>
       </c>
       <c r="E394">
-        <v>16185</v>
+        <v>16197</v>
       </c>
       <c r="F394">
         <v>63353</v>
       </c>
       <c r="G394">
-        <v>63146</v>
+        <v>63157</v>
       </c>
       <c r="H394">
         <v>106537</v>
       </c>
       <c r="I394">
-        <v>105331</v>
+        <v>105327</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -13122,7 +13125,7 @@
         <v>3006</v>
       </c>
       <c r="C395">
-        <v>3004</v>
+        <v>3007</v>
       </c>
       <c r="D395">
         <v>15883</v>
@@ -13134,13 +13137,13 @@
         <v>62636</v>
       </c>
       <c r="G395">
-        <v>62947</v>
+        <v>63055</v>
       </c>
       <c r="H395">
         <v>106071</v>
       </c>
       <c r="I395">
-        <v>105474</v>
+        <v>105514</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -13151,25 +13154,25 @@
         <v>2998</v>
       </c>
       <c r="C396">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="D396">
         <v>15991</v>
       </c>
       <c r="E396">
-        <v>16234</v>
+        <v>16232</v>
       </c>
       <c r="F396">
         <v>63902</v>
       </c>
       <c r="G396">
-        <v>63644</v>
+        <v>63664</v>
       </c>
       <c r="H396">
         <v>107666</v>
       </c>
       <c r="I396">
-        <v>107026</v>
+        <v>107025</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -13180,25 +13183,25 @@
         <v>3110</v>
       </c>
       <c r="C397">
-        <v>3031</v>
+        <v>3036</v>
       </c>
       <c r="D397">
         <v>16729</v>
       </c>
       <c r="E397">
-        <v>16264</v>
+        <v>16272</v>
       </c>
       <c r="F397">
         <v>64961</v>
       </c>
       <c r="G397">
-        <v>64036</v>
+        <v>64028</v>
       </c>
       <c r="H397">
         <v>109083</v>
       </c>
       <c r="I397">
-        <v>108835</v>
+        <v>108839</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -13209,25 +13212,25 @@
         <v>3080</v>
       </c>
       <c r="C398">
-        <v>3069</v>
+        <v>3073</v>
       </c>
       <c r="D398">
         <v>16741</v>
       </c>
       <c r="E398">
-        <v>16414</v>
+        <v>16425</v>
       </c>
       <c r="F398">
         <v>64361</v>
       </c>
       <c r="G398">
-        <v>64115</v>
+        <v>64135</v>
       </c>
       <c r="H398">
         <v>108838</v>
       </c>
       <c r="I398">
-        <v>109498</v>
+        <v>109512</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -13238,25 +13241,25 @@
         <v>3085</v>
       </c>
       <c r="C399">
-        <v>3088</v>
+        <v>3094</v>
       </c>
       <c r="D399">
         <v>16474</v>
       </c>
       <c r="E399">
-        <v>16523</v>
+        <v>16535</v>
       </c>
       <c r="F399">
         <v>63835</v>
       </c>
       <c r="G399">
-        <v>64327</v>
+        <v>64334</v>
       </c>
       <c r="H399">
         <v>108969</v>
       </c>
       <c r="I399">
-        <v>109818</v>
+        <v>109825</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -13267,25 +13270,25 @@
         <v>3060</v>
       </c>
       <c r="C400">
-        <v>3125</v>
+        <v>3131</v>
       </c>
       <c r="D400">
         <v>16530</v>
       </c>
       <c r="E400">
-        <v>16680</v>
+        <v>16691</v>
       </c>
       <c r="F400">
         <v>64035</v>
       </c>
       <c r="G400">
-        <v>64391</v>
+        <v>64394</v>
       </c>
       <c r="H400">
         <v>109195</v>
       </c>
       <c r="I400">
-        <v>110481</v>
+        <v>110485</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -13296,25 +13299,25 @@
         <v>3040</v>
       </c>
       <c r="C401">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="D401">
         <v>16836</v>
       </c>
       <c r="E401">
-        <v>16814</v>
+        <v>16794</v>
       </c>
       <c r="F401">
         <v>64863</v>
       </c>
       <c r="G401">
-        <v>64989</v>
+        <v>64998</v>
       </c>
       <c r="H401">
         <v>110634</v>
       </c>
       <c r="I401">
-        <v>111632</v>
+        <v>111636</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -13325,19 +13328,19 @@
         <v>3057</v>
       </c>
       <c r="C402">
-        <v>3058</v>
+        <v>3052</v>
       </c>
       <c r="D402">
         <v>16996</v>
       </c>
       <c r="E402">
-        <v>16916</v>
+        <v>16905</v>
       </c>
       <c r="F402">
         <v>65079</v>
       </c>
       <c r="G402">
-        <v>65160</v>
+        <v>65134</v>
       </c>
       <c r="H402">
         <v>111300</v>
@@ -13354,25 +13357,25 @@
         <v>3063</v>
       </c>
       <c r="C403">
-        <v>3056</v>
+        <v>3046</v>
       </c>
       <c r="D403">
         <v>17123</v>
       </c>
       <c r="E403">
-        <v>16893</v>
+        <v>16867</v>
       </c>
       <c r="F403">
         <v>65189</v>
       </c>
       <c r="G403">
-        <v>65125</v>
+        <v>65076</v>
       </c>
       <c r="H403">
         <v>112754</v>
       </c>
       <c r="I403">
-        <v>112452</v>
+        <v>112421</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -13383,25 +13386,25 @@
         <v>3065</v>
       </c>
       <c r="C404">
-        <v>3053</v>
+        <v>3038</v>
       </c>
       <c r="D404">
         <v>17144</v>
       </c>
       <c r="E404">
-        <v>17135</v>
+        <v>17104</v>
       </c>
       <c r="F404">
         <v>65186</v>
       </c>
       <c r="G404">
-        <v>65404</v>
+        <v>65364</v>
       </c>
       <c r="H404">
         <v>113201</v>
       </c>
       <c r="I404">
-        <v>112883</v>
+        <v>112863</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -13412,25 +13415,25 @@
         <v>3053</v>
       </c>
       <c r="C405">
-        <v>3065</v>
+        <v>3054</v>
       </c>
       <c r="D405">
         <v>17145</v>
       </c>
       <c r="E405">
-        <v>17412</v>
+        <v>17410</v>
       </c>
       <c r="F405">
         <v>65912</v>
       </c>
       <c r="G405">
-        <v>65923</v>
+        <v>65831</v>
       </c>
       <c r="H405">
         <v>114308</v>
       </c>
       <c r="I405">
-        <v>113388</v>
+        <v>113354</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -13441,25 +13444,25 @@
         <v>3140</v>
       </c>
       <c r="C406">
-        <v>3072</v>
+        <v>3077</v>
       </c>
       <c r="D406">
         <v>17763</v>
       </c>
       <c r="E406">
-        <v>17767</v>
+        <v>17808</v>
       </c>
       <c r="F406">
         <v>66832</v>
       </c>
       <c r="G406">
-        <v>66664</v>
+        <v>66686</v>
       </c>
       <c r="H406">
         <v>115725</v>
       </c>
       <c r="I406">
-        <v>114345</v>
+        <v>114339</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -13470,25 +13473,25 @@
         <v>3121</v>
       </c>
       <c r="C407">
-        <v>3095</v>
+        <v>3105</v>
       </c>
       <c r="D407">
         <v>17923</v>
       </c>
       <c r="E407">
-        <v>18228</v>
+        <v>18240</v>
       </c>
       <c r="F407">
         <v>66618</v>
       </c>
       <c r="G407">
-        <v>66993</v>
+        <v>67132</v>
       </c>
       <c r="H407">
         <v>115433</v>
       </c>
       <c r="I407">
-        <v>114847</v>
+        <v>114908</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -13499,25 +13502,25 @@
         <v>3273</v>
       </c>
       <c r="C408">
-        <v>3275</v>
+        <v>3283</v>
       </c>
       <c r="D408">
         <v>18710</v>
       </c>
       <c r="E408">
-        <v>18955</v>
+        <v>18965</v>
       </c>
       <c r="F408">
         <v>68340</v>
       </c>
       <c r="G408">
-        <v>68134</v>
+        <v>68179</v>
       </c>
       <c r="H408">
         <v>116632</v>
       </c>
       <c r="I408">
-        <v>115866</v>
+        <v>115872</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -13528,25 +13531,25 @@
         <v>3380</v>
       </c>
       <c r="C409">
-        <v>3320</v>
+        <v>3329</v>
       </c>
       <c r="D409">
         <v>19470</v>
       </c>
       <c r="E409">
-        <v>19026</v>
+        <v>19039</v>
       </c>
       <c r="F409">
         <v>69582</v>
       </c>
       <c r="G409">
-        <v>68606</v>
+        <v>68594</v>
       </c>
       <c r="H409">
         <v>117290</v>
       </c>
       <c r="I409">
-        <v>116852</v>
+        <v>116854</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -13557,25 +13560,25 @@
         <v>3346</v>
       </c>
       <c r="C410">
-        <v>3355</v>
+        <v>3364</v>
       </c>
       <c r="D410">
         <v>19148</v>
       </c>
       <c r="E410">
-        <v>18828</v>
+        <v>18850</v>
       </c>
       <c r="F410">
         <v>68747</v>
       </c>
       <c r="G410">
-        <v>68409</v>
+        <v>68436</v>
       </c>
       <c r="H410">
         <v>116588</v>
       </c>
       <c r="I410">
-        <v>117285</v>
+        <v>117303</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -13586,25 +13589,25 @@
         <v>3359</v>
       </c>
       <c r="C411">
-        <v>3399</v>
+        <v>3409</v>
       </c>
       <c r="D411">
         <v>19060</v>
       </c>
       <c r="E411">
-        <v>18996</v>
+        <v>19015</v>
       </c>
       <c r="F411">
         <v>68708</v>
       </c>
       <c r="G411">
-        <v>69312</v>
+        <v>69326</v>
       </c>
       <c r="H411">
         <v>117030</v>
       </c>
       <c r="I411">
-        <v>118216</v>
+        <v>118233</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -13615,25 +13618,25 @@
         <v>3404</v>
       </c>
       <c r="C412">
-        <v>3509</v>
+        <v>3517</v>
       </c>
       <c r="D412">
         <v>19887</v>
       </c>
       <c r="E412">
-        <v>20144</v>
+        <v>20160</v>
       </c>
       <c r="F412">
         <v>68893</v>
       </c>
       <c r="G412">
-        <v>69453</v>
+        <v>69448</v>
       </c>
       <c r="H412">
         <v>116703</v>
       </c>
       <c r="I412">
-        <v>118328</v>
+        <v>118332</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -13644,25 +13647,25 @@
         <v>3595</v>
       </c>
       <c r="C413">
-        <v>3647</v>
+        <v>3644</v>
       </c>
       <c r="D413">
         <v>21501</v>
       </c>
       <c r="E413">
-        <v>21522</v>
+        <v>21487</v>
       </c>
       <c r="F413">
         <v>69970</v>
       </c>
       <c r="G413">
-        <v>70127</v>
+        <v>70143</v>
       </c>
       <c r="H413">
         <v>117204</v>
       </c>
       <c r="I413">
-        <v>118426</v>
+        <v>118440</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -13673,25 +13676,25 @@
         <v>3757</v>
       </c>
       <c r="C414">
-        <v>3758</v>
+        <v>3744</v>
       </c>
       <c r="D414">
         <v>22300</v>
       </c>
       <c r="E414">
-        <v>22086</v>
+        <v>22045</v>
       </c>
       <c r="F414">
         <v>69897</v>
       </c>
       <c r="G414">
-        <v>69875</v>
+        <v>69818</v>
       </c>
       <c r="H414">
         <v>118047</v>
       </c>
       <c r="I414">
-        <v>118520</v>
+        <v>118509</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -13702,25 +13705,25 @@
         <v>3866</v>
       </c>
       <c r="C415">
-        <v>3850</v>
+        <v>3828</v>
       </c>
       <c r="D415">
         <v>23344</v>
       </c>
       <c r="E415">
-        <v>23007</v>
+        <v>22937</v>
       </c>
       <c r="F415">
         <v>70154</v>
       </c>
       <c r="G415">
-        <v>70117</v>
+        <v>70039</v>
       </c>
       <c r="H415">
         <v>120075</v>
       </c>
       <c r="I415">
-        <v>119652</v>
+        <v>119608</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -13731,25 +13734,25 @@
         <v>4012</v>
       </c>
       <c r="C416">
-        <v>3971</v>
+        <v>3942</v>
       </c>
       <c r="D416">
         <v>23753</v>
       </c>
       <c r="E416">
-        <v>23684</v>
+        <v>23587</v>
       </c>
       <c r="F416">
         <v>70043</v>
       </c>
       <c r="G416">
-        <v>70146</v>
+        <v>70071</v>
       </c>
       <c r="H416">
         <v>119780</v>
       </c>
       <c r="I416">
-        <v>119291</v>
+        <v>119253</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -13760,25 +13763,25 @@
         <v>4451</v>
       </c>
       <c r="C417">
-        <v>4440</v>
+        <v>4410</v>
       </c>
       <c r="D417">
         <v>26409</v>
       </c>
       <c r="E417">
-        <v>26819</v>
+        <v>26799</v>
       </c>
       <c r="F417">
         <v>70892</v>
       </c>
       <c r="G417">
-        <v>70928</v>
+        <v>70816</v>
       </c>
       <c r="H417">
         <v>121391</v>
       </c>
       <c r="I417">
-        <v>120517</v>
+        <v>120454</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -13789,19 +13792,19 @@
         <v>4941</v>
       </c>
       <c r="C418">
-        <v>4837</v>
+        <v>4854</v>
       </c>
       <c r="D418">
         <v>27868</v>
       </c>
       <c r="E418">
-        <v>27938</v>
+        <v>28059</v>
       </c>
       <c r="F418">
         <v>70787</v>
       </c>
       <c r="G418">
-        <v>70662</v>
+        <v>70707</v>
       </c>
       <c r="H418">
         <v>122590</v>
@@ -13818,25 +13821,25 @@
         <v>5085</v>
       </c>
       <c r="C419">
-        <v>5016</v>
+        <v>5044</v>
       </c>
       <c r="D419">
         <v>27767</v>
       </c>
       <c r="E419">
-        <v>28285</v>
+        <v>28330</v>
       </c>
       <c r="F419">
         <v>70999</v>
       </c>
       <c r="G419">
-        <v>71371</v>
+        <v>71530</v>
       </c>
       <c r="H419">
         <v>121544</v>
       </c>
       <c r="I419">
-        <v>120785</v>
+        <v>120866</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -13847,25 +13850,25 @@
         <v>5081</v>
       </c>
       <c r="C420">
-        <v>5068</v>
+        <v>5092</v>
       </c>
       <c r="D420">
         <v>27382</v>
       </c>
       <c r="E420">
-        <v>27925</v>
+        <v>27982</v>
       </c>
       <c r="F420">
         <v>70590</v>
       </c>
       <c r="G420">
-        <v>70440</v>
+        <v>70511</v>
       </c>
       <c r="H420">
         <v>122072</v>
       </c>
       <c r="I420">
-        <v>121335</v>
+        <v>121345</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -13876,25 +13879,25 @@
         <v>5175</v>
       </c>
       <c r="C421">
-        <v>5098</v>
+        <v>5123</v>
       </c>
       <c r="D421">
         <v>29142</v>
       </c>
       <c r="E421">
-        <v>28387</v>
+        <v>28442</v>
       </c>
       <c r="F421">
         <v>71009</v>
       </c>
       <c r="G421">
-        <v>70192</v>
+        <v>70218</v>
       </c>
       <c r="H421">
         <v>118919</v>
       </c>
       <c r="I421">
-        <v>118726</v>
+        <v>118753</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -13905,25 +13908,25 @@
         <v>5521</v>
       </c>
       <c r="C422">
-        <v>5570</v>
+        <v>5594</v>
       </c>
       <c r="D422">
         <v>30440</v>
       </c>
       <c r="E422">
-        <v>29728</v>
+        <v>29783</v>
       </c>
       <c r="F422">
         <v>71277</v>
       </c>
       <c r="G422">
-        <v>70849</v>
+        <v>70879</v>
       </c>
       <c r="H422">
         <v>118116</v>
       </c>
       <c r="I422">
-        <v>118816</v>
+        <v>118834</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -13934,25 +13937,25 @@
         <v>5594</v>
       </c>
       <c r="C423">
-        <v>5689</v>
+        <v>5707</v>
       </c>
       <c r="D423">
         <v>29964</v>
       </c>
       <c r="E423">
-        <v>30141</v>
+        <v>30179</v>
       </c>
       <c r="F423">
         <v>70273</v>
       </c>
       <c r="G423">
-        <v>70756</v>
+        <v>70771</v>
       </c>
       <c r="H423">
         <v>118157</v>
       </c>
       <c r="I423">
-        <v>119221</v>
+        <v>119237</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -13963,25 +13966,25 @@
         <v>5548</v>
       </c>
       <c r="C424">
-        <v>5754</v>
+        <v>5767</v>
       </c>
       <c r="D424">
         <v>30207</v>
       </c>
       <c r="E424">
-        <v>30531</v>
+        <v>30550</v>
       </c>
       <c r="F424">
         <v>70529</v>
       </c>
       <c r="G424">
-        <v>71116</v>
+        <v>71109</v>
       </c>
       <c r="H424">
         <v>117910</v>
       </c>
       <c r="I424">
-        <v>119689</v>
+        <v>119698</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -13992,25 +13995,25 @@
         <v>5513</v>
       </c>
       <c r="C425">
-        <v>5613</v>
+        <v>5604</v>
       </c>
       <c r="D425">
         <v>30162</v>
       </c>
       <c r="E425">
-        <v>30291</v>
+        <v>30240</v>
       </c>
       <c r="F425">
         <v>70741</v>
       </c>
       <c r="G425">
-        <v>70868</v>
+        <v>70873</v>
       </c>
       <c r="H425">
         <v>119194</v>
       </c>
       <c r="I425">
-        <v>120398</v>
+        <v>120409</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -14021,25 +14024,25 @@
         <v>5921</v>
       </c>
       <c r="C426">
-        <v>5924</v>
+        <v>5895</v>
       </c>
       <c r="D426">
         <v>33652</v>
       </c>
       <c r="E426">
-        <v>33509</v>
+        <v>33423</v>
       </c>
       <c r="F426">
         <v>71933</v>
       </c>
       <c r="G426">
-        <v>72104</v>
+        <v>72044</v>
       </c>
       <c r="H426">
         <v>121134</v>
       </c>
       <c r="I426">
-        <v>121807</v>
+        <v>121801</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -14050,25 +14053,25 @@
         <v>6305</v>
       </c>
       <c r="C427">
-        <v>6252</v>
+        <v>6204</v>
       </c>
       <c r="D427">
         <v>34594</v>
       </c>
       <c r="E427">
-        <v>34057</v>
+        <v>33908</v>
       </c>
       <c r="F427">
         <v>72780</v>
       </c>
       <c r="G427">
-        <v>72723</v>
+        <v>72629</v>
       </c>
       <c r="H427">
         <v>122459</v>
       </c>
       <c r="I427">
-        <v>122031</v>
+        <v>121980</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -14079,25 +14082,25 @@
         <v>6402</v>
       </c>
       <c r="C428">
-        <v>6327</v>
+        <v>6265</v>
       </c>
       <c r="D428">
         <v>34779</v>
       </c>
       <c r="E428">
-        <v>34678</v>
+        <v>34450</v>
       </c>
       <c r="F428">
         <v>74024</v>
       </c>
       <c r="G428">
-        <v>74210</v>
+        <v>74121</v>
       </c>
       <c r="H428">
-        <v>124196</v>
+        <v>124228</v>
       </c>
       <c r="I428">
-        <v>123609</v>
+        <v>123601</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -14108,25 +14111,54 @@
         <v>6480</v>
       </c>
       <c r="C429">
-        <v>6467</v>
+        <v>6405</v>
       </c>
       <c r="D429">
         <v>34631</v>
       </c>
       <c r="E429">
-        <v>35268</v>
+        <v>35194</v>
       </c>
       <c r="F429">
-        <v>74390</v>
+        <v>74753</v>
       </c>
       <c r="G429">
-        <v>74361</v>
+        <v>74586</v>
       </c>
       <c r="H429">
-        <v>125596</v>
+        <v>126129</v>
       </c>
       <c r="I429">
-        <v>124543</v>
+        <v>124975</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
+      <c r="A430" t="s">
+        <v>437</v>
+      </c>
+      <c r="B430">
+        <v>6477</v>
+      </c>
+      <c r="C430">
+        <v>6365</v>
+      </c>
+      <c r="D430">
+        <v>34001</v>
+      </c>
+      <c r="E430">
+        <v>34440</v>
+      </c>
+      <c r="F430">
+        <v>73824</v>
+      </c>
+      <c r="G430">
+        <v>73781</v>
+      </c>
+      <c r="H430">
+        <v>125832</v>
+      </c>
+      <c r="I430">
+        <v>124347</v>
       </c>
     </row>
   </sheetData>
